--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="486">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,1275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1854,12 +3123,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="29.71" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="27.29" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="25.71" collapsed="false"/>
-    <col min="6" max="26" customWidth="true" width="10.71" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.29" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.71" collapsed="true"/>
+    <col min="6" max="26" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -9329,13 +10598,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.29" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="10.71" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="22.86" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.71" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="112.43" collapsed="false"/>
-    <col min="7" max="27" customWidth="true" width="10.71" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.29" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.71" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.86" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="112.43" collapsed="true"/>
+    <col min="7" max="27" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -9390,162 +10659,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="103" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="105" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="106" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="107" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="108" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="109" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="110" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9587,17 +10856,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.71" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.43" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.43" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="8.43" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="28.43" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.43" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="8" max="9" customWidth="true" width="21.43" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="35.14" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.71" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="21.71" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="9.71" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.43" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.43" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.43" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.43" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="21.43" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="35.14" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.71" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -9673,25 +10942,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="165" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -9699,25 +10968,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="166" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -9725,25 +10994,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="167" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -9751,25 +11020,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="168" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -9777,25 +11046,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="169" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -9803,25 +11072,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="170" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -9829,25 +11098,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="171" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -9855,25 +11124,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="172" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -9881,25 +11150,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="173" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -10388,18 +11657,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.14" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="11.71" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.43" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="9.43" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="13.86" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.86" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="29.71" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="16.43" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="19.14" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="21.43" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="12" max="31" customWidth="true" width="10.71" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.14" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.43" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.43" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.86" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.86" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.43" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.14" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="12" max="31" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -10495,31 +11764,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="276" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="318" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="339" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -10533,31 +11802,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="196" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="256" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="298" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="319" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="340" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -10571,31 +11840,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="278" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="299" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="320" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="341" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -10609,31 +11878,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="219" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="279" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="300" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="321" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="342" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -10647,31 +11916,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="280" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="301" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="322" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="343" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -10685,31 +11954,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="260" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="281" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="302" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="323" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="344" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -10723,29 +11992,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="201" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="240" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="261" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="282" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="324" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="345" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -10759,31 +12028,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="222" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="283" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="304" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="325" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="346" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -10797,31 +12066,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="223" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="263" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="284" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="305" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="326" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="347" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -10835,31 +12104,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="264" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="285" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="306" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="327" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="348" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -10873,31 +12142,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="225" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="265" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="286" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="307" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="328" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="349" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -10911,31 +12180,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="287" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="308" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="329" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="350" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -10949,31 +12218,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="288" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="309" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="330" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="351" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -10987,29 +12256,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="208" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="247" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="268" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="289" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="310" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="331" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="352" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -11023,31 +12292,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="269" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="290" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="332" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="353" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -11061,31 +12330,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="210" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="229" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="270" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="291" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="312" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="333" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="354" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -11099,31 +12368,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="211" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="230" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="271" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="292" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="313" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="334" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="355" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -11137,31 +12406,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="231" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="272" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="293" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="335" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="356" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -11175,31 +12444,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="232" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="273" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="294" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="357" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -11213,31 +12482,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="214" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="233" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="274" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="295" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="316" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="337" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="358" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -11251,29 +12520,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="215" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="254" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="275" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="317" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="338" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="359" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -12167,19 +13436,19 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.29" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="12.86" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.43" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="7.14" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.43" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.71" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="15.43" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="19.29" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="15.14" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="21.86" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="28.14" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="16.71" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="21.71" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.86" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.43" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.43" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.71" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.43" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.29" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.14" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.86" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.14" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.71" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
@@ -12259,28 +13528,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="360" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="369" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="378" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="387" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="396" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="405" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="414" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="423" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -12288,28 +13557,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="361" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="370" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="379" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="388" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="397" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="406" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="415" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="424" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -12317,28 +13586,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="362" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="371" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="380" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="398" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="407" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="416" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="425" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -12346,28 +13615,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="363" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="372" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="381" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="390" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="399" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="408" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="417" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="426" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -12375,28 +13644,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="364" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="373" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="382" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="391" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="400" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="409" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="418" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="427" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -12404,28 +13673,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="365" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="374" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="383" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="392" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="410" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="419" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="428" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -12433,28 +13702,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="366" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="375" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="384" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="393" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="402" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="411" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="420" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="429" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -12462,28 +13731,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="367" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="376" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="385" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="394" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="403" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="412" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="421" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="430" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -12491,28 +13760,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="368" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="377" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="386" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="395" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="404" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="413" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="422" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="431" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -13111,19 +14380,19 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="8.29" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="10.29" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="9.43" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.29" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="39.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="22.43" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="17.43" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="15.43" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="16.43" collapsed="false"/>
-    <col min="12" max="13" customWidth="true" width="10.86" collapsed="false"/>
-    <col min="14" max="31" customWidth="true" width="10.71" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.29" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.29" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.43" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.29" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.43" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.43" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.43" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.43" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="14" max="31" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -13199,31 +14468,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="432" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="438" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="444" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="450" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="456" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="462" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="468" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="474" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="480" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -13239,31 +14508,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="433" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="439" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="445" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="451" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="457" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="463" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="469" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="475" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="481" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -13279,31 +14548,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="434" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="440" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="446" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="452" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="458" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="464" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="470" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="476" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="482" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -13319,31 +14588,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="435" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="441" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="447" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="453" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="459" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="465" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="471" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="477" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="483" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -13359,31 +14628,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="436" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="442" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="448" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="454" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="460" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="466" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="472" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="478" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="484" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -13399,31 +14668,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="437" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="443" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="449" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="455" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="461" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="467" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="473" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="479" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="485" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>
@@ -14681,16 +15950,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.29" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="10.29" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="10.57" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="15.43" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="57.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="22.71" collapsed="false"/>
-    <col min="7" max="8" customWidth="true" width="14.29" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="20.43" collapsed="false"/>
-    <col min="10" max="12" customWidth="true" width="15.14" collapsed="false"/>
-    <col min="13" max="14" customWidth="true" width="16.29" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="8.29" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.29" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.57" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.43" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.71" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="14.29" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.43" collapsed="true"/>
+    <col min="10" max="12" customWidth="true" width="15.14" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.29" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -23325,8 +24594,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="150.0" collapsed="false"/>
-    <col min="2" max="6" customWidth="true" width="10.71" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="150.0" collapsed="true"/>
+    <col min="2" max="6" customWidth="true" width="10.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1">

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="3024">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,7620 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -10659,162 +18273,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="2601" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="2609" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="2617" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="2625" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="2633" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="2641" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="2602" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="2610" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="2618" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="2626" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="2634" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="2642" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="2603" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="2611" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="2619" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="2627" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="2635" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="2643" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="2604" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="2612" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="2620" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="2628" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="2636" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="2644" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="2605" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="2613" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="2621" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="2629" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="2637" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="2645" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="2606" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="2614" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="2622" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="2630" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="2638" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="2646" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="2607" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="2615" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="2623" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="2631" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="2639" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="2647" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="2608" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="2616" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="2624" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="2632" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="2640" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="2648" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10942,25 +18556,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="2649" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="2658" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="2667" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="2676" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="2685" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="2694" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="2703" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -10968,25 +18582,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="2650" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="2659" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="2668" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="2677" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="2686" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="2695" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="166" t="s">
+      <c r="I4" s="2704" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -10994,25 +18608,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="2651" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="2660" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="2669" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="140" t="s">
+      <c r="F5" s="2678" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="149" t="s">
+      <c r="G5" s="2687" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="158" t="s">
+      <c r="H5" s="2696" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="167" t="s">
+      <c r="I5" s="2705" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -11020,25 +18634,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="2652" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="2661" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="2670" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="141" t="s">
+      <c r="F6" s="2679" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="2688" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="159" t="s">
+      <c r="H6" s="2697" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="168" t="s">
+      <c r="I6" s="2706" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -11046,25 +18660,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="2653" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="2662" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="2671" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="2680" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="2689" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="160" t="s">
+      <c r="H7" s="2698" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="169" t="s">
+      <c r="I7" s="2707" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -11072,25 +18686,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="2654" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="2663" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="2672" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="143" t="s">
+      <c r="F8" s="2681" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="152" t="s">
+      <c r="G8" s="2690" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="161" t="s">
+      <c r="H8" s="2699" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="170" t="s">
+      <c r="I8" s="2708" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -11098,25 +18712,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="2655" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="2664" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="2673" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="144" t="s">
+      <c r="F9" s="2682" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="153" t="s">
+      <c r="G9" s="2691" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="162" t="s">
+      <c r="H9" s="2700" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="171" t="s">
+      <c r="I9" s="2709" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -11124,25 +18738,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="2656" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="2665" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="136" t="s">
+      <c r="E10" s="2674" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="145" t="s">
+      <c r="F10" s="2683" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="2692" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="163" t="s">
+      <c r="H10" s="2701" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="172" t="s">
+      <c r="I10" s="2710" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -11150,25 +18764,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="2657" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="2666" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="2675" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="2684" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="2693" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="164" t="s">
+      <c r="H11" s="2702" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="173" t="s">
+      <c r="I11" s="2711" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -11764,31 +19378,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="2712" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="195" t="s">
+      <c r="D3" s="2733" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="216" t="s">
+      <c r="E3" s="2754" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="234" t="s">
+      <c r="F3" s="2772" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="255" t="s">
+      <c r="G3" s="2793" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="276" t="s">
+      <c r="H3" s="2814" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="297" t="s">
+      <c r="I3" s="2835" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="318" t="s">
+      <c r="J3" s="2856" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="339" t="s">
+      <c r="K3" s="2877" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -11802,31 +19416,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="2713" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="196" t="s">
+      <c r="D4" s="2734" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="217" t="s">
+      <c r="E4" s="2755" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="235" t="s">
+      <c r="F4" s="2773" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="256" t="s">
+      <c r="G4" s="2794" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="277" t="s">
+      <c r="H4" s="2815" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="298" t="s">
+      <c r="I4" s="2836" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="319" t="s">
+      <c r="J4" s="2857" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="340" t="s">
+      <c r="K4" s="2878" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -11840,31 +19454,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="2714" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="197" t="s">
+      <c r="D5" s="2735" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="218" t="s">
+      <c r="E5" s="2756" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="236" t="s">
+      <c r="F5" s="2774" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="257" t="s">
+      <c r="G5" s="2795" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="278" t="s">
+      <c r="H5" s="2816" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="299" t="s">
+      <c r="I5" s="2837" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="320" t="s">
+      <c r="J5" s="2858" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="341" t="s">
+      <c r="K5" s="2879" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -11878,31 +19492,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="2715" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="198" t="s">
+      <c r="D6" s="2736" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="219" t="s">
+      <c r="E6" s="2757" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="237" t="s">
+      <c r="F6" s="2775" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="258" t="s">
+      <c r="G6" s="2796" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="279" t="s">
+      <c r="H6" s="2817" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="300" t="s">
+      <c r="I6" s="2838" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="321" t="s">
+      <c r="J6" s="2859" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="342" t="s">
+      <c r="K6" s="2880" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -11916,31 +19530,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="178" t="s">
+      <c r="C7" s="2716" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="2737" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="2758" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="238" t="s">
+      <c r="F7" s="2776" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="259" t="s">
+      <c r="G7" s="2797" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="280" t="s">
+      <c r="H7" s="2818" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="301" t="s">
+      <c r="I7" s="2839" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="322" t="s">
+      <c r="J7" s="2860" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="343" t="s">
+      <c r="K7" s="2881" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -11954,31 +19568,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="2717" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="200" t="s">
+      <c r="D8" s="2738" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="221" t="s">
+      <c r="E8" s="2759" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="239" t="s">
+      <c r="F8" s="2777" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="260" t="s">
+      <c r="G8" s="2798" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="281" t="s">
+      <c r="H8" s="2819" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="302" t="s">
+      <c r="I8" s="2840" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="323" t="s">
+      <c r="J8" s="2861" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="344" t="s">
+      <c r="K8" s="2882" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -11992,29 +19606,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="2718" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="201" t="s">
+      <c r="D9" s="2739" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="240" t="s">
+      <c r="F9" s="2778" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="261" t="s">
+      <c r="G9" s="2799" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="282" t="s">
+      <c r="H9" s="2820" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="303" t="s">
+      <c r="I9" s="2841" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="324" t="s">
+      <c r="J9" s="2862" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="345" t="s">
+      <c r="K9" s="2883" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -12028,31 +19642,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="181" t="s">
+      <c r="C10" s="2719" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="202" t="s">
+      <c r="D10" s="2740" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="222" t="s">
+      <c r="E10" s="2760" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="241" t="s">
+      <c r="F10" s="2779" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="262" t="s">
+      <c r="G10" s="2800" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="283" t="s">
+      <c r="H10" s="2821" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="304" t="s">
+      <c r="I10" s="2842" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="325" t="s">
+      <c r="J10" s="2863" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="346" t="s">
+      <c r="K10" s="2884" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -12066,31 +19680,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="2720" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="203" t="s">
+      <c r="D11" s="2741" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="223" t="s">
+      <c r="E11" s="2761" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="242" t="s">
+      <c r="F11" s="2780" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="263" t="s">
+      <c r="G11" s="2801" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="284" t="s">
+      <c r="H11" s="2822" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="305" t="s">
+      <c r="I11" s="2843" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="326" t="s">
+      <c r="J11" s="2864" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="347" t="s">
+      <c r="K11" s="2885" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -12104,31 +19718,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="2721" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="204" t="s">
+      <c r="D12" s="2742" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="224" t="s">
+      <c r="E12" s="2762" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="243" t="s">
+      <c r="F12" s="2781" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="264" t="s">
+      <c r="G12" s="2802" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="285" t="s">
+      <c r="H12" s="2823" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="306" t="s">
+      <c r="I12" s="2844" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="327" t="s">
+      <c r="J12" s="2865" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="348" t="s">
+      <c r="K12" s="2886" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -12142,31 +19756,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="184" t="s">
+      <c r="C13" s="2722" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="205" t="s">
+      <c r="D13" s="2743" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="225" t="s">
+      <c r="E13" s="2763" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="244" t="s">
+      <c r="F13" s="2782" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="265" t="s">
+      <c r="G13" s="2803" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="286" t="s">
+      <c r="H13" s="2824" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="307" t="s">
+      <c r="I13" s="2845" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="328" t="s">
+      <c r="J13" s="2866" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="349" t="s">
+      <c r="K13" s="2887" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -12180,31 +19794,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="2723" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="206" t="s">
+      <c r="D14" s="2744" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="226" t="s">
+      <c r="E14" s="2764" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="245" t="s">
+      <c r="F14" s="2783" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="266" t="s">
+      <c r="G14" s="2804" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="287" t="s">
+      <c r="H14" s="2825" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="308" t="s">
+      <c r="I14" s="2846" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="329" t="s">
+      <c r="J14" s="2867" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="350" t="s">
+      <c r="K14" s="2888" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -12218,31 +19832,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="186" t="s">
+      <c r="C15" s="2724" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="207" t="s">
+      <c r="D15" s="2745" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="227" t="s">
+      <c r="E15" s="2765" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="246" t="s">
+      <c r="F15" s="2784" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="267" t="s">
+      <c r="G15" s="2805" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="288" t="s">
+      <c r="H15" s="2826" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="309" t="s">
+      <c r="I15" s="2847" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="330" t="s">
+      <c r="J15" s="2868" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="351" t="s">
+      <c r="K15" s="2889" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -12256,29 +19870,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="2725" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="208" t="s">
+      <c r="D16" s="2746" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="247" t="s">
+      <c r="F16" s="2785" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="268" t="s">
+      <c r="G16" s="2806" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="289" t="s">
+      <c r="H16" s="2827" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="310" t="s">
+      <c r="I16" s="2848" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="331" t="s">
+      <c r="J16" s="2869" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="352" t="s">
+      <c r="K16" s="2890" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -12292,31 +19906,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="188" t="s">
+      <c r="C17" s="2726" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="209" t="s">
+      <c r="D17" s="2747" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="228" t="s">
+      <c r="E17" s="2766" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="248" t="s">
+      <c r="F17" s="2786" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="269" t="s">
+      <c r="G17" s="2807" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="290" t="s">
+      <c r="H17" s="2828" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="311" t="s">
+      <c r="I17" s="2849" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="332" t="s">
+      <c r="J17" s="2870" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="353" t="s">
+      <c r="K17" s="2891" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -12330,31 +19944,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="189" t="s">
+      <c r="C18" s="2727" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="210" t="s">
+      <c r="D18" s="2748" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="229" t="s">
+      <c r="E18" s="2767" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="249" t="s">
+      <c r="F18" s="2787" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="270" t="s">
+      <c r="G18" s="2808" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="291" t="s">
+      <c r="H18" s="2829" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="312" t="s">
+      <c r="I18" s="2850" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="333" t="s">
+      <c r="J18" s="2871" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="354" t="s">
+      <c r="K18" s="2892" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -12368,31 +19982,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="190" t="s">
+      <c r="C19" s="2728" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="211" t="s">
+      <c r="D19" s="2749" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="230" t="s">
+      <c r="E19" s="2768" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="250" t="s">
+      <c r="F19" s="2788" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="271" t="s">
+      <c r="G19" s="2809" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="292" t="s">
+      <c r="H19" s="2830" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="313" t="s">
+      <c r="I19" s="2851" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="334" t="s">
+      <c r="J19" s="2872" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="355" t="s">
+      <c r="K19" s="2893" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -12406,31 +20020,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="2729" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="212" t="s">
+      <c r="D20" s="2750" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="231" t="s">
+      <c r="E20" s="2769" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="251" t="s">
+      <c r="F20" s="2789" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="272" t="s">
+      <c r="G20" s="2810" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="293" t="s">
+      <c r="H20" s="2831" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="314" t="s">
+      <c r="I20" s="2852" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="335" t="s">
+      <c r="J20" s="2873" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="356" t="s">
+      <c r="K20" s="2894" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -12444,31 +20058,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="192" t="s">
+      <c r="C21" s="2730" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="213" t="s">
+      <c r="D21" s="2751" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="232" t="s">
+      <c r="E21" s="2770" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="252" t="s">
+      <c r="F21" s="2790" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="273" t="s">
+      <c r="G21" s="2811" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="294" t="s">
+      <c r="H21" s="2832" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="315" t="s">
+      <c r="I21" s="2853" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="336" t="s">
+      <c r="J21" s="2874" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="357" t="s">
+      <c r="K21" s="2895" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -12482,31 +20096,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="2731" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="214" t="s">
+      <c r="D22" s="2752" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="233" t="s">
+      <c r="E22" s="2771" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="253" t="s">
+      <c r="F22" s="2791" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="274" t="s">
+      <c r="G22" s="2812" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="295" t="s">
+      <c r="H22" s="2833" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="316" t="s">
+      <c r="I22" s="2854" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="337" t="s">
+      <c r="J22" s="2875" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="358" t="s">
+      <c r="K22" s="2896" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -12520,29 +20134,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="194" t="s">
+      <c r="C23" s="2732" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="215" t="s">
+      <c r="D23" s="2753" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="254" t="s">
+      <c r="F23" s="2792" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="275" t="s">
+      <c r="G23" s="2813" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="296" t="s">
+      <c r="H23" s="2834" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="317" t="s">
+      <c r="I23" s="2855" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="338" t="s">
+      <c r="J23" s="2876" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="359" t="s">
+      <c r="K23" s="2897" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -13528,28 +21142,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="360" t="s">
+      <c r="C3" s="2898" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="369" t="s">
+      <c r="D3" s="2907" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="378" t="s">
+      <c r="E3" s="2916" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="387" t="s">
+      <c r="F3" s="2925" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="396" t="s">
+      <c r="G3" s="2934" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="405" t="s">
+      <c r="H3" s="2943" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="414" t="s">
+      <c r="I3" s="2952" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="423" t="s">
+      <c r="J3" s="2961" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -13557,28 +21171,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="361" t="s">
+      <c r="C4" s="2899" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="370" t="s">
+      <c r="D4" s="2908" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="379" t="s">
+      <c r="E4" s="2917" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="388" t="s">
+      <c r="F4" s="2926" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="397" t="s">
+      <c r="G4" s="2935" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="406" t="s">
+      <c r="H4" s="2944" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="415" t="s">
+      <c r="I4" s="2953" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="424" t="s">
+      <c r="J4" s="2962" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -13586,28 +21200,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="362" t="s">
+      <c r="C5" s="2900" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="371" t="s">
+      <c r="D5" s="2909" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="380" t="s">
+      <c r="E5" s="2918" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="389" t="s">
+      <c r="F5" s="2927" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="398" t="s">
+      <c r="G5" s="2936" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="407" t="s">
+      <c r="H5" s="2945" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="416" t="s">
+      <c r="I5" s="2954" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="425" t="s">
+      <c r="J5" s="2963" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -13615,28 +21229,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="363" t="s">
+      <c r="C6" s="2901" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="2910" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="381" t="s">
+      <c r="E6" s="2919" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="390" t="s">
+      <c r="F6" s="2928" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="399" t="s">
+      <c r="G6" s="2937" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="408" t="s">
+      <c r="H6" s="2946" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="417" t="s">
+      <c r="I6" s="2955" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="426" t="s">
+      <c r="J6" s="2964" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -13644,28 +21258,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="364" t="s">
+      <c r="C7" s="2902" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="373" t="s">
+      <c r="D7" s="2911" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="382" t="s">
+      <c r="E7" s="2920" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="391" t="s">
+      <c r="F7" s="2929" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="400" t="s">
+      <c r="G7" s="2938" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="409" t="s">
+      <c r="H7" s="2947" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="418" t="s">
+      <c r="I7" s="2956" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="427" t="s">
+      <c r="J7" s="2965" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -13673,28 +21287,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="365" t="s">
+      <c r="C8" s="2903" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="374" t="s">
+      <c r="D8" s="2912" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="383" t="s">
+      <c r="E8" s="2921" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="392" t="s">
+      <c r="F8" s="2930" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="401" t="s">
+      <c r="G8" s="2939" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="410" t="s">
+      <c r="H8" s="2948" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="419" t="s">
+      <c r="I8" s="2957" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="428" t="s">
+      <c r="J8" s="2966" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -13702,28 +21316,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="366" t="s">
+      <c r="C9" s="2904" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="375" t="s">
+      <c r="D9" s="2913" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="384" t="s">
+      <c r="E9" s="2922" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="393" t="s">
+      <c r="F9" s="2931" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="402" t="s">
+      <c r="G9" s="2940" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="411" t="s">
+      <c r="H9" s="2949" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="420" t="s">
+      <c r="I9" s="2958" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="429" t="s">
+      <c r="J9" s="2967" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -13731,28 +21345,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="367" t="s">
+      <c r="C10" s="2905" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="376" t="s">
+      <c r="D10" s="2914" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="385" t="s">
+      <c r="E10" s="2923" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="394" t="s">
+      <c r="F10" s="2932" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="403" t="s">
+      <c r="G10" s="2941" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="412" t="s">
+      <c r="H10" s="2950" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="421" t="s">
+      <c r="I10" s="2959" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="430" t="s">
+      <c r="J10" s="2968" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -13760,28 +21374,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="368" t="s">
+      <c r="C11" s="2906" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="377" t="s">
+      <c r="D11" s="2915" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="386" t="s">
+      <c r="E11" s="2924" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="395" t="s">
+      <c r="F11" s="2933" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="404" t="s">
+      <c r="G11" s="2942" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="413" t="s">
+      <c r="H11" s="2951" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="422" t="s">
+      <c r="I11" s="2960" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="431" t="s">
+      <c r="J11" s="2969" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -14468,31 +22082,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="432" t="s">
+      <c r="C3" s="2970" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="438" t="s">
+      <c r="D3" s="2976" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="444" t="s">
+      <c r="E3" s="2982" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="450" t="s">
+      <c r="F3" s="2988" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="456" t="s">
+      <c r="G3" s="2994" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="462" t="s">
+      <c r="H3" s="3000" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="468" t="s">
+      <c r="I3" s="3006" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="474" t="s">
+      <c r="J3" s="3012" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="480" t="s">
+      <c r="K3" s="3018" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -14508,31 +22122,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="433" t="s">
+      <c r="C4" s="2971" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="439" t="s">
+      <c r="D4" s="2977" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="445" t="s">
+      <c r="E4" s="2983" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="451" t="s">
+      <c r="F4" s="2989" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="457" t="s">
+      <c r="G4" s="2995" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="463" t="s">
+      <c r="H4" s="3001" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="469" t="s">
+      <c r="I4" s="3007" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="475" t="s">
+      <c r="J4" s="3013" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="481" t="s">
+      <c r="K4" s="3019" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -14548,31 +22162,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="434" t="s">
+      <c r="C5" s="2972" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="440" t="s">
+      <c r="D5" s="2978" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="446" t="s">
+      <c r="E5" s="2984" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="452" t="s">
+      <c r="F5" s="2990" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="458" t="s">
+      <c r="G5" s="2996" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="464" t="s">
+      <c r="H5" s="3002" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="470" t="s">
+      <c r="I5" s="3008" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="476" t="s">
+      <c r="J5" s="3014" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="482" t="s">
+      <c r="K5" s="3020" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -14588,31 +22202,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="435" t="s">
+      <c r="C6" s="2973" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="441" t="s">
+      <c r="D6" s="2979" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="447" t="s">
+      <c r="E6" s="2985" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="453" t="s">
+      <c r="F6" s="2991" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="459" t="s">
+      <c r="G6" s="2997" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="465" t="s">
+      <c r="H6" s="3003" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="471" t="s">
+      <c r="I6" s="3009" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="477" t="s">
+      <c r="J6" s="3015" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="483" t="s">
+      <c r="K6" s="3021" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -14628,31 +22242,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="436" t="s">
+      <c r="C7" s="2974" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="442" t="s">
+      <c r="D7" s="2980" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="448" t="s">
+      <c r="E7" s="2986" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="454" t="s">
+      <c r="F7" s="2992" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="460" t="s">
+      <c r="G7" s="2998" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="466" t="s">
+      <c r="H7" s="3004" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="472" t="s">
+      <c r="I7" s="3010" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="478" t="s">
+      <c r="J7" s="3016" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="484" t="s">
+      <c r="K7" s="3022" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -14668,31 +22282,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="437" t="s">
+      <c r="C8" s="2975" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="443" t="s">
+      <c r="D8" s="2981" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="449" t="s">
+      <c r="E8" s="2987" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="455" t="s">
+      <c r="F8" s="2993" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="461" t="s">
+      <c r="G8" s="2999" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="467" t="s">
+      <c r="H8" s="3005" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="473" t="s">
+      <c r="I8" s="3011" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="479" t="s">
+      <c r="J8" s="3017" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="485" t="s">
+      <c r="K8" s="3023" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3024">
+  <cellXfs count="5139">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,6351 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -18273,162 +24618,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="2601" t="s">
+      <c r="A3" s="4716" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2609" t="s">
+      <c r="B3" s="4724" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2617" t="s">
+      <c r="C3" s="4732" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2625" t="s">
+      <c r="D3" s="4740" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2633" t="s">
+      <c r="E3" s="4748" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2641" t="s">
+      <c r="F3" s="4756" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2602" t="s">
+      <c r="A4" s="4717" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2610" t="s">
+      <c r="B4" s="4725" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2618" t="s">
+      <c r="C4" s="4733" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2626" t="s">
+      <c r="D4" s="4741" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2634" t="s">
+      <c r="E4" s="4749" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2642" t="s">
+      <c r="F4" s="4757" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2603" t="s">
+      <c r="A5" s="4718" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2611" t="s">
+      <c r="B5" s="4726" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2619" t="s">
+      <c r="C5" s="4734" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2627" t="s">
+      <c r="D5" s="4742" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2635" t="s">
+      <c r="E5" s="4750" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2643" t="s">
+      <c r="F5" s="4758" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2604" t="s">
+      <c r="A6" s="4719" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2612" t="s">
+      <c r="B6" s="4727" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2620" t="s">
+      <c r="C6" s="4735" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2628" t="s">
+      <c r="D6" s="4743" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2636" t="s">
+      <c r="E6" s="4751" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2644" t="s">
+      <c r="F6" s="4759" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2605" t="s">
+      <c r="A7" s="4720" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2613" t="s">
+      <c r="B7" s="4728" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2621" t="s">
+      <c r="C7" s="4736" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2629" t="s">
+      <c r="D7" s="4744" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2637" t="s">
+      <c r="E7" s="4752" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2645" t="s">
+      <c r="F7" s="4760" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2606" t="s">
+      <c r="A8" s="4721" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2614" t="s">
+      <c r="B8" s="4729" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2622" t="s">
+      <c r="C8" s="4737" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2630" t="s">
+      <c r="D8" s="4745" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2638" t="s">
+      <c r="E8" s="4753" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2646" t="s">
+      <c r="F8" s="4761" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2607" t="s">
+      <c r="A9" s="4722" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2615" t="s">
+      <c r="B9" s="4730" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2623" t="s">
+      <c r="C9" s="4738" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2631" t="s">
+      <c r="D9" s="4746" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2639" t="s">
+      <c r="E9" s="4754" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="2647" t="s">
+      <c r="F9" s="4762" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2608" t="s">
+      <c r="A10" s="4723" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2616" t="s">
+      <c r="B10" s="4731" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2624" t="s">
+      <c r="C10" s="4739" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2632" t="s">
+      <c r="D10" s="4747" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2640" t="s">
+      <c r="E10" s="4755" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2648" t="s">
+      <c r="F10" s="4763" t="s">
         <v>40</v>
       </c>
     </row>
@@ -18556,25 +24901,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="2649" t="s">
+      <c r="C3" s="4764" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2658" t="s">
+      <c r="D3" s="4773" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2667" t="s">
+      <c r="E3" s="4782" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="2676" t="s">
+      <c r="F3" s="4791" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="2685" t="s">
+      <c r="G3" s="4800" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="2694" t="s">
+      <c r="H3" s="4809" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="2703" t="s">
+      <c r="I3" s="4818" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -18582,25 +24927,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="2650" t="s">
+      <c r="C4" s="4765" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2659" t="s">
+      <c r="D4" s="4774" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="2668" t="s">
+      <c r="E4" s="4783" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="2677" t="s">
+      <c r="F4" s="4792" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="2686" t="s">
+      <c r="G4" s="4801" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="2695" t="s">
+      <c r="H4" s="4810" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="2704" t="s">
+      <c r="I4" s="4819" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -18608,25 +24953,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="2651" t="s">
+      <c r="C5" s="4766" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2660" t="s">
+      <c r="D5" s="4775" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="2669" t="s">
+      <c r="E5" s="4784" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="2678" t="s">
+      <c r="F5" s="4793" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="2687" t="s">
+      <c r="G5" s="4802" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="2696" t="s">
+      <c r="H5" s="4811" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="2705" t="s">
+      <c r="I5" s="4820" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -18634,25 +24979,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="2652" t="s">
+      <c r="C6" s="4767" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2661" t="s">
+      <c r="D6" s="4776" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="2670" t="s">
+      <c r="E6" s="4785" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="2679" t="s">
+      <c r="F6" s="4794" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="2688" t="s">
+      <c r="G6" s="4803" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="2697" t="s">
+      <c r="H6" s="4812" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="2706" t="s">
+      <c r="I6" s="4821" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -18660,25 +25005,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="2653" t="s">
+      <c r="C7" s="4768" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2662" t="s">
+      <c r="D7" s="4777" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="2671" t="s">
+      <c r="E7" s="4786" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="2680" t="s">
+      <c r="F7" s="4795" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="2689" t="s">
+      <c r="G7" s="4804" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="2698" t="s">
+      <c r="H7" s="4813" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="2707" t="s">
+      <c r="I7" s="4822" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -18686,25 +25031,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="2654" t="s">
+      <c r="C8" s="4769" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2663" t="s">
+      <c r="D8" s="4778" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2672" t="s">
+      <c r="E8" s="4787" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="2681" t="s">
+      <c r="F8" s="4796" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="2690" t="s">
+      <c r="G8" s="4805" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="2699" t="s">
+      <c r="H8" s="4814" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="2708" t="s">
+      <c r="I8" s="4823" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -18712,25 +25057,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="2655" t="s">
+      <c r="C9" s="4770" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2664" t="s">
+      <c r="D9" s="4779" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="2673" t="s">
+      <c r="E9" s="4788" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="2682" t="s">
+      <c r="F9" s="4797" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="2691" t="s">
+      <c r="G9" s="4806" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="2700" t="s">
+      <c r="H9" s="4815" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="2709" t="s">
+      <c r="I9" s="4824" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -18738,25 +25083,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="2656" t="s">
+      <c r="C10" s="4771" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2665" t="s">
+      <c r="D10" s="4780" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2674" t="s">
+      <c r="E10" s="4789" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="2683" t="s">
+      <c r="F10" s="4798" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="2692" t="s">
+      <c r="G10" s="4807" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="2701" t="s">
+      <c r="H10" s="4816" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="2710" t="s">
+      <c r="I10" s="4825" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -18764,25 +25109,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="2657" t="s">
+      <c r="C11" s="4772" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2666" t="s">
+      <c r="D11" s="4781" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="2675" t="s">
+      <c r="E11" s="4790" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="2684" t="s">
+      <c r="F11" s="4799" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="2693" t="s">
+      <c r="G11" s="4808" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="2702" t="s">
+      <c r="H11" s="4817" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="2711" t="s">
+      <c r="I11" s="4826" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -19378,31 +25723,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="2712" t="s">
+      <c r="C3" s="4827" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2733" t="s">
+      <c r="D3" s="4848" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2754" t="s">
+      <c r="E3" s="4869" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="2772" t="s">
+      <c r="F3" s="4887" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2793" t="s">
+      <c r="G3" s="4908" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="2814" t="s">
+      <c r="H3" s="4929" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="2835" t="s">
+      <c r="I3" s="4950" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="2856" t="s">
+      <c r="J3" s="4971" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="2877" t="s">
+      <c r="K3" s="4992" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -19416,31 +25761,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="2713" t="s">
+      <c r="C4" s="4828" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2734" t="s">
+      <c r="D4" s="4849" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="2755" t="s">
+      <c r="E4" s="4870" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="2773" t="s">
+      <c r="F4" s="4888" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2794" t="s">
+      <c r="G4" s="4909" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="2815" t="s">
+      <c r="H4" s="4930" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="2836" t="s">
+      <c r="I4" s="4951" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="2857" t="s">
+      <c r="J4" s="4972" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="2878" t="s">
+      <c r="K4" s="4993" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -19454,31 +25799,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="2714" t="s">
+      <c r="C5" s="4829" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2735" t="s">
+      <c r="D5" s="4850" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="2756" t="s">
+      <c r="E5" s="4871" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="2774" t="s">
+      <c r="F5" s="4889" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2795" t="s">
+      <c r="G5" s="4910" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="2816" t="s">
+      <c r="H5" s="4931" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="2837" t="s">
+      <c r="I5" s="4952" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="2858" t="s">
+      <c r="J5" s="4973" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="2879" t="s">
+      <c r="K5" s="4994" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -19492,31 +25837,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="2715" t="s">
+      <c r="C6" s="4830" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2736" t="s">
+      <c r="D6" s="4851" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="2757" t="s">
+      <c r="E6" s="4872" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="2775" t="s">
+      <c r="F6" s="4890" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2796" t="s">
+      <c r="G6" s="4911" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="2817" t="s">
+      <c r="H6" s="4932" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="2838" t="s">
+      <c r="I6" s="4953" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="2859" t="s">
+      <c r="J6" s="4974" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="2880" t="s">
+      <c r="K6" s="4995" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -19530,31 +25875,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="2716" t="s">
+      <c r="C7" s="4831" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2737" t="s">
+      <c r="D7" s="4852" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="2758" t="s">
+      <c r="E7" s="4873" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="2776" t="s">
+      <c r="F7" s="4891" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2797" t="s">
+      <c r="G7" s="4912" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="2818" t="s">
+      <c r="H7" s="4933" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="2839" t="s">
+      <c r="I7" s="4954" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="2860" t="s">
+      <c r="J7" s="4975" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="2881" t="s">
+      <c r="K7" s="4996" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -19568,31 +25913,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="2717" t="s">
+      <c r="C8" s="4832" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2738" t="s">
+      <c r="D8" s="4853" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2759" t="s">
+      <c r="E8" s="4874" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="2777" t="s">
+      <c r="F8" s="4892" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2798" t="s">
+      <c r="G8" s="4913" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="2819" t="s">
+      <c r="H8" s="4934" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="2840" t="s">
+      <c r="I8" s="4955" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="2861" t="s">
+      <c r="J8" s="4976" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="2882" t="s">
+      <c r="K8" s="4997" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -19606,29 +25951,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="2718" t="s">
+      <c r="C9" s="4833" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2739" t="s">
+      <c r="D9" s="4854" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="2778" t="s">
+      <c r="F9" s="4893" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="2799" t="s">
+      <c r="G9" s="4914" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="2820" t="s">
+      <c r="H9" s="4935" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="2841" t="s">
+      <c r="I9" s="4956" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="2862" t="s">
+      <c r="J9" s="4977" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="2883" t="s">
+      <c r="K9" s="4998" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -19642,31 +25987,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="2719" t="s">
+      <c r="C10" s="4834" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2740" t="s">
+      <c r="D10" s="4855" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2760" t="s">
+      <c r="E10" s="4875" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="2779" t="s">
+      <c r="F10" s="4894" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2800" t="s">
+      <c r="G10" s="4915" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="2821" t="s">
+      <c r="H10" s="4936" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="2842" t="s">
+      <c r="I10" s="4957" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="2863" t="s">
+      <c r="J10" s="4978" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="2884" t="s">
+      <c r="K10" s="4999" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -19680,31 +26025,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="2720" t="s">
+      <c r="C11" s="4835" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2741" t="s">
+      <c r="D11" s="4856" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="2761" t="s">
+      <c r="E11" s="4876" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="2780" t="s">
+      <c r="F11" s="4895" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2801" t="s">
+      <c r="G11" s="4916" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="2822" t="s">
+      <c r="H11" s="4937" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="2843" t="s">
+      <c r="I11" s="4958" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="2864" t="s">
+      <c r="J11" s="4979" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="2885" t="s">
+      <c r="K11" s="5000" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -19718,31 +26063,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="2721" t="s">
+      <c r="C12" s="4836" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2742" t="s">
+      <c r="D12" s="4857" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="2762" t="s">
+      <c r="E12" s="4877" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="2781" t="s">
+      <c r="F12" s="4896" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2802" t="s">
+      <c r="G12" s="4917" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="2823" t="s">
+      <c r="H12" s="4938" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="2844" t="s">
+      <c r="I12" s="4959" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="2865" t="s">
+      <c r="J12" s="4980" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="2886" t="s">
+      <c r="K12" s="5001" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -19756,31 +26101,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="2722" t="s">
+      <c r="C13" s="4837" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2743" t="s">
+      <c r="D13" s="4858" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="2763" t="s">
+      <c r="E13" s="4878" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="2782" t="s">
+      <c r="F13" s="4897" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2803" t="s">
+      <c r="G13" s="4918" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="2824" t="s">
+      <c r="H13" s="4939" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="2845" t="s">
+      <c r="I13" s="4960" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="2866" t="s">
+      <c r="J13" s="4981" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="2887" t="s">
+      <c r="K13" s="5002" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -19794,31 +26139,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="2723" t="s">
+      <c r="C14" s="4838" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2744" t="s">
+      <c r="D14" s="4859" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="2764" t="s">
+      <c r="E14" s="4879" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="2783" t="s">
+      <c r="F14" s="4898" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2804" t="s">
+      <c r="G14" s="4919" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="2825" t="s">
+      <c r="H14" s="4940" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="2846" t="s">
+      <c r="I14" s="4961" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="2867" t="s">
+      <c r="J14" s="4982" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="2888" t="s">
+      <c r="K14" s="5003" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -19832,31 +26177,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="2724" t="s">
+      <c r="C15" s="4839" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2745" t="s">
+      <c r="D15" s="4860" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="2765" t="s">
+      <c r="E15" s="4880" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="2784" t="s">
+      <c r="F15" s="4899" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2805" t="s">
+      <c r="G15" s="4920" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="2826" t="s">
+      <c r="H15" s="4941" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="2847" t="s">
+      <c r="I15" s="4962" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="2868" t="s">
+      <c r="J15" s="4983" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="2889" t="s">
+      <c r="K15" s="5004" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -19870,29 +26215,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="2725" t="s">
+      <c r="C16" s="4840" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2746" t="s">
+      <c r="D16" s="4861" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="2785" t="s">
+      <c r="F16" s="4900" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="2806" t="s">
+      <c r="G16" s="4921" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="2827" t="s">
+      <c r="H16" s="4942" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="2848" t="s">
+      <c r="I16" s="4963" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="2869" t="s">
+      <c r="J16" s="4984" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="2890" t="s">
+      <c r="K16" s="5005" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -19906,31 +26251,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="2726" t="s">
+      <c r="C17" s="4841" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2747" t="s">
+      <c r="D17" s="4862" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="2766" t="s">
+      <c r="E17" s="4881" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="2786" t="s">
+      <c r="F17" s="4901" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="2807" t="s">
+      <c r="G17" s="4922" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="2828" t="s">
+      <c r="H17" s="4943" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="2849" t="s">
+      <c r="I17" s="4964" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="2870" t="s">
+      <c r="J17" s="4985" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="2891" t="s">
+      <c r="K17" s="5006" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -19944,31 +26289,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="2727" t="s">
+      <c r="C18" s="4842" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2748" t="s">
+      <c r="D18" s="4863" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="2767" t="s">
+      <c r="E18" s="4882" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="2787" t="s">
+      <c r="F18" s="4902" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="2808" t="s">
+      <c r="G18" s="4923" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="2829" t="s">
+      <c r="H18" s="4944" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="2850" t="s">
+      <c r="I18" s="4965" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="2871" t="s">
+      <c r="J18" s="4986" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="2892" t="s">
+      <c r="K18" s="5007" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -19982,31 +26327,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="2728" t="s">
+      <c r="C19" s="4843" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2749" t="s">
+      <c r="D19" s="4864" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="2768" t="s">
+      <c r="E19" s="4883" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="2788" t="s">
+      <c r="F19" s="4903" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2809" t="s">
+      <c r="G19" s="4924" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="2830" t="s">
+      <c r="H19" s="4945" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="2851" t="s">
+      <c r="I19" s="4966" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="2872" t="s">
+      <c r="J19" s="4987" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="2893" t="s">
+      <c r="K19" s="5008" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -20020,31 +26365,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="2729" t="s">
+      <c r="C20" s="4844" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="2750" t="s">
+      <c r="D20" s="4865" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="2769" t="s">
+      <c r="E20" s="4884" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="2789" t="s">
+      <c r="F20" s="4904" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2810" t="s">
+      <c r="G20" s="4925" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="2831" t="s">
+      <c r="H20" s="4946" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="2852" t="s">
+      <c r="I20" s="4967" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="2873" t="s">
+      <c r="J20" s="4988" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="2894" t="s">
+      <c r="K20" s="5009" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -20058,31 +26403,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="2730" t="s">
+      <c r="C21" s="4845" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2751" t="s">
+      <c r="D21" s="4866" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="2770" t="s">
+      <c r="E21" s="4885" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="2790" t="s">
+      <c r="F21" s="4905" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2811" t="s">
+      <c r="G21" s="4926" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="2832" t="s">
+      <c r="H21" s="4947" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="2853" t="s">
+      <c r="I21" s="4968" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="2874" t="s">
+      <c r="J21" s="4989" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="2895" t="s">
+      <c r="K21" s="5010" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -20096,31 +26441,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="2731" t="s">
+      <c r="C22" s="4846" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="2752" t="s">
+      <c r="D22" s="4867" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="2771" t="s">
+      <c r="E22" s="4886" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="2791" t="s">
+      <c r="F22" s="4906" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2812" t="s">
+      <c r="G22" s="4927" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="2833" t="s">
+      <c r="H22" s="4948" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="2854" t="s">
+      <c r="I22" s="4969" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="2875" t="s">
+      <c r="J22" s="4990" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="2896" t="s">
+      <c r="K22" s="5011" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -20134,29 +26479,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="2732" t="s">
+      <c r="C23" s="4847" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="2753" t="s">
+      <c r="D23" s="4868" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="2792" t="s">
+      <c r="F23" s="4907" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="2813" t="s">
+      <c r="G23" s="4928" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="2834" t="s">
+      <c r="H23" s="4949" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="2855" t="s">
+      <c r="I23" s="4970" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="2876" t="s">
+      <c r="J23" s="4991" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="2897" t="s">
+      <c r="K23" s="5012" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -21142,28 +27487,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="2898" t="s">
+      <c r="C3" s="5013" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2907" t="s">
+      <c r="D3" s="5022" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2916" t="s">
+      <c r="E3" s="5031" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="2925" t="s">
+      <c r="F3" s="5040" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="2934" t="s">
+      <c r="G3" s="5049" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="2943" t="s">
+      <c r="H3" s="5058" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="2952" t="s">
+      <c r="I3" s="5067" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="2961" t="s">
+      <c r="J3" s="5076" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -21171,28 +27516,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="2899" t="s">
+      <c r="C4" s="5014" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2908" t="s">
+      <c r="D4" s="5023" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="2917" t="s">
+      <c r="E4" s="5032" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="2926" t="s">
+      <c r="F4" s="5041" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="2935" t="s">
+      <c r="G4" s="5050" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="2944" t="s">
+      <c r="H4" s="5059" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="2953" t="s">
+      <c r="I4" s="5068" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="2962" t="s">
+      <c r="J4" s="5077" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -21200,28 +27545,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="2900" t="s">
+      <c r="C5" s="5015" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2909" t="s">
+      <c r="D5" s="5024" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="2918" t="s">
+      <c r="E5" s="5033" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="2927" t="s">
+      <c r="F5" s="5042" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="2936" t="s">
+      <c r="G5" s="5051" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="2945" t="s">
+      <c r="H5" s="5060" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="2954" t="s">
+      <c r="I5" s="5069" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="2963" t="s">
+      <c r="J5" s="5078" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -21229,28 +27574,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="2901" t="s">
+      <c r="C6" s="5016" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2910" t="s">
+      <c r="D6" s="5025" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="2919" t="s">
+      <c r="E6" s="5034" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="2928" t="s">
+      <c r="F6" s="5043" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="2937" t="s">
+      <c r="G6" s="5052" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="2946" t="s">
+      <c r="H6" s="5061" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="2955" t="s">
+      <c r="I6" s="5070" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="2964" t="s">
+      <c r="J6" s="5079" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -21258,28 +27603,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="2902" t="s">
+      <c r="C7" s="5017" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2911" t="s">
+      <c r="D7" s="5026" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="2920" t="s">
+      <c r="E7" s="5035" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="2929" t="s">
+      <c r="F7" s="5044" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="2938" t="s">
+      <c r="G7" s="5053" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="2947" t="s">
+      <c r="H7" s="5062" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="2956" t="s">
+      <c r="I7" s="5071" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="2965" t="s">
+      <c r="J7" s="5080" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -21287,28 +27632,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="2903" t="s">
+      <c r="C8" s="5018" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2912" t="s">
+      <c r="D8" s="5027" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2921" t="s">
+      <c r="E8" s="5036" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="2930" t="s">
+      <c r="F8" s="5045" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="2939" t="s">
+      <c r="G8" s="5054" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="2948" t="s">
+      <c r="H8" s="5063" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="2957" t="s">
+      <c r="I8" s="5072" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="2966" t="s">
+      <c r="J8" s="5081" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -21316,28 +27661,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="2904" t="s">
+      <c r="C9" s="5019" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2913" t="s">
+      <c r="D9" s="5028" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="2922" t="s">
+      <c r="E9" s="5037" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="2931" t="s">
+      <c r="F9" s="5046" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="2940" t="s">
+      <c r="G9" s="5055" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="2949" t="s">
+      <c r="H9" s="5064" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="2958" t="s">
+      <c r="I9" s="5073" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="2967" t="s">
+      <c r="J9" s="5082" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -21345,28 +27690,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="2905" t="s">
+      <c r="C10" s="5020" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2914" t="s">
+      <c r="D10" s="5029" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2923" t="s">
+      <c r="E10" s="5038" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="2932" t="s">
+      <c r="F10" s="5047" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="2941" t="s">
+      <c r="G10" s="5056" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="2950" t="s">
+      <c r="H10" s="5065" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="2959" t="s">
+      <c r="I10" s="5074" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="2968" t="s">
+      <c r="J10" s="5083" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -21374,28 +27719,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="2906" t="s">
+      <c r="C11" s="5021" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2915" t="s">
+      <c r="D11" s="5030" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="2924" t="s">
+      <c r="E11" s="5039" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="2933" t="s">
+      <c r="F11" s="5048" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="2942" t="s">
+      <c r="G11" s="5057" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="2951" t="s">
+      <c r="H11" s="5066" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="2960" t="s">
+      <c r="I11" s="5075" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="2969" t="s">
+      <c r="J11" s="5084" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -22082,31 +28427,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="2970" t="s">
+      <c r="C3" s="5085" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2976" t="s">
+      <c r="D3" s="5091" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="2982" t="s">
+      <c r="E3" s="5097" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="2988" t="s">
+      <c r="F3" s="5103" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="2994" t="s">
+      <c r="G3" s="5109" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="3000" t="s">
+      <c r="H3" s="5115" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="3006" t="s">
+      <c r="I3" s="5121" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="3012" t="s">
+      <c r="J3" s="5127" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="3018" t="s">
+      <c r="K3" s="5133" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -22122,31 +28467,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="2971" t="s">
+      <c r="C4" s="5086" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2977" t="s">
+      <c r="D4" s="5092" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="2983" t="s">
+      <c r="E4" s="5098" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="2989" t="s">
+      <c r="F4" s="5104" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="2995" t="s">
+      <c r="G4" s="5110" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="3001" t="s">
+      <c r="H4" s="5116" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="3007" t="s">
+      <c r="I4" s="5122" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="3013" t="s">
+      <c r="J4" s="5128" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="3019" t="s">
+      <c r="K4" s="5134" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -22162,31 +28507,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="2972" t="s">
+      <c r="C5" s="5087" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="2978" t="s">
+      <c r="D5" s="5093" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="2984" t="s">
+      <c r="E5" s="5099" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="2990" t="s">
+      <c r="F5" s="5105" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="2996" t="s">
+      <c r="G5" s="5111" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="3002" t="s">
+      <c r="H5" s="5117" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="3008" t="s">
+      <c r="I5" s="5123" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="3014" t="s">
+      <c r="J5" s="5129" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="3020" t="s">
+      <c r="K5" s="5135" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -22202,31 +28547,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="2973" t="s">
+      <c r="C6" s="5088" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2979" t="s">
+      <c r="D6" s="5094" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="2985" t="s">
+      <c r="E6" s="5100" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="2991" t="s">
+      <c r="F6" s="5106" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="2997" t="s">
+      <c r="G6" s="5112" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="3003" t="s">
+      <c r="H6" s="5118" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="3009" t="s">
+      <c r="I6" s="5124" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="3015" t="s">
+      <c r="J6" s="5130" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="3021" t="s">
+      <c r="K6" s="5136" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -22242,31 +28587,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="2974" t="s">
+      <c r="C7" s="5089" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2980" t="s">
+      <c r="D7" s="5095" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="2986" t="s">
+      <c r="E7" s="5101" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="2992" t="s">
+      <c r="F7" s="5107" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="2998" t="s">
+      <c r="G7" s="5113" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="3004" t="s">
+      <c r="H7" s="5119" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="3010" t="s">
+      <c r="I7" s="5125" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="3016" t="s">
+      <c r="J7" s="5131" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="3022" t="s">
+      <c r="K7" s="5137" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -22282,31 +28627,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="2975" t="s">
+      <c r="C8" s="5090" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2981" t="s">
+      <c r="D8" s="5096" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2987" t="s">
+      <c r="E8" s="5102" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="2993" t="s">
+      <c r="F8" s="5108" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="2999" t="s">
+      <c r="G8" s="5114" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="3005" t="s">
+      <c r="H8" s="5120" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="3011" t="s">
+      <c r="I8" s="5126" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="3017" t="s">
+      <c r="J8" s="5132" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="3023" t="s">
+      <c r="K8" s="5138" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5139">
+  <cellXfs count="5562">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,1275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -24618,162 +25887,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="4716" t="s">
+      <c r="A3" s="5139" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4724" t="s">
+      <c r="B3" s="5147" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4732" t="s">
+      <c r="C3" s="5155" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4740" t="s">
+      <c r="D3" s="5163" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4748" t="s">
+      <c r="E3" s="5171" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="4756" t="s">
+      <c r="F3" s="5179" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4717" t="s">
+      <c r="A4" s="5140" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4725" t="s">
+      <c r="B4" s="5148" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4733" t="s">
+      <c r="C4" s="5156" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4741" t="s">
+      <c r="D4" s="5164" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4749" t="s">
+      <c r="E4" s="5172" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="4757" t="s">
+      <c r="F4" s="5180" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4718" t="s">
+      <c r="A5" s="5141" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4726" t="s">
+      <c r="B5" s="5149" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4734" t="s">
+      <c r="C5" s="5157" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4742" t="s">
+      <c r="D5" s="5165" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="4750" t="s">
+      <c r="E5" s="5173" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="4758" t="s">
+      <c r="F5" s="5181" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4719" t="s">
+      <c r="A6" s="5142" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4727" t="s">
+      <c r="B6" s="5150" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4735" t="s">
+      <c r="C6" s="5158" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4743" t="s">
+      <c r="D6" s="5166" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4751" t="s">
+      <c r="E6" s="5174" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="4759" t="s">
+      <c r="F6" s="5182" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4720" t="s">
+      <c r="A7" s="5143" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4728" t="s">
+      <c r="B7" s="5151" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4736" t="s">
+      <c r="C7" s="5159" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="4744" t="s">
+      <c r="D7" s="5167" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4752" t="s">
+      <c r="E7" s="5175" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4760" t="s">
+      <c r="F7" s="5183" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4721" t="s">
+      <c r="A8" s="5144" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4729" t="s">
+      <c r="B8" s="5152" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4737" t="s">
+      <c r="C8" s="5160" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4745" t="s">
+      <c r="D8" s="5168" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4753" t="s">
+      <c r="E8" s="5176" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="4761" t="s">
+      <c r="F8" s="5184" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4722" t="s">
+      <c r="A9" s="5145" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4730" t="s">
+      <c r="B9" s="5153" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4738" t="s">
+      <c r="C9" s="5161" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4746" t="s">
+      <c r="D9" s="5169" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="4754" t="s">
+      <c r="E9" s="5177" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="4762" t="s">
+      <c r="F9" s="5185" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4723" t="s">
+      <c r="A10" s="5146" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4731" t="s">
+      <c r="B10" s="5154" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4739" t="s">
+      <c r="C10" s="5162" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4747" t="s">
+      <c r="D10" s="5170" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4755" t="s">
+      <c r="E10" s="5178" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="4763" t="s">
+      <c r="F10" s="5186" t="s">
         <v>40</v>
       </c>
     </row>
@@ -24901,25 +26170,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="4764" t="s">
+      <c r="C3" s="5187" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4773" t="s">
+      <c r="D3" s="5196" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="4782" t="s">
+      <c r="E3" s="5205" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="4791" t="s">
+      <c r="F3" s="5214" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="4800" t="s">
+      <c r="G3" s="5223" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="4809" t="s">
+      <c r="H3" s="5232" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="4818" t="s">
+      <c r="I3" s="5241" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -24927,25 +26196,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="4765" t="s">
+      <c r="C4" s="5188" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4774" t="s">
+      <c r="D4" s="5197" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="4783" t="s">
+      <c r="E4" s="5206" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="4792" t="s">
+      <c r="F4" s="5215" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="4801" t="s">
+      <c r="G4" s="5224" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="4810" t="s">
+      <c r="H4" s="5233" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="4819" t="s">
+      <c r="I4" s="5242" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -24953,25 +26222,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="4766" t="s">
+      <c r="C5" s="5189" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4775" t="s">
+      <c r="D5" s="5198" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="4784" t="s">
+      <c r="E5" s="5207" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="4793" t="s">
+      <c r="F5" s="5216" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="4802" t="s">
+      <c r="G5" s="5225" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="4811" t="s">
+      <c r="H5" s="5234" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="4820" t="s">
+      <c r="I5" s="5243" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -24979,25 +26248,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="4767" t="s">
+      <c r="C6" s="5190" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4776" t="s">
+      <c r="D6" s="5199" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="4785" t="s">
+      <c r="E6" s="5208" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="4794" t="s">
+      <c r="F6" s="5217" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="4803" t="s">
+      <c r="G6" s="5226" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="4812" t="s">
+      <c r="H6" s="5235" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="4821" t="s">
+      <c r="I6" s="5244" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -25005,25 +26274,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="4768" t="s">
+      <c r="C7" s="5191" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4777" t="s">
+      <c r="D7" s="5200" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="4786" t="s">
+      <c r="E7" s="5209" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="4795" t="s">
+      <c r="F7" s="5218" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="4804" t="s">
+      <c r="G7" s="5227" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="4813" t="s">
+      <c r="H7" s="5236" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="4822" t="s">
+      <c r="I7" s="5245" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -25031,25 +26300,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="4769" t="s">
+      <c r="C8" s="5192" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4778" t="s">
+      <c r="D8" s="5201" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="4787" t="s">
+      <c r="E8" s="5210" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="4796" t="s">
+      <c r="F8" s="5219" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="4805" t="s">
+      <c r="G8" s="5228" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="4814" t="s">
+      <c r="H8" s="5237" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="4823" t="s">
+      <c r="I8" s="5246" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -25057,25 +26326,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="4770" t="s">
+      <c r="C9" s="5193" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4779" t="s">
+      <c r="D9" s="5202" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="4788" t="s">
+      <c r="E9" s="5211" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="4797" t="s">
+      <c r="F9" s="5220" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="4806" t="s">
+      <c r="G9" s="5229" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="4815" t="s">
+      <c r="H9" s="5238" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="4824" t="s">
+      <c r="I9" s="5247" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -25083,25 +26352,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="4771" t="s">
+      <c r="C10" s="5194" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4780" t="s">
+      <c r="D10" s="5203" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="4789" t="s">
+      <c r="E10" s="5212" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="4798" t="s">
+      <c r="F10" s="5221" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="4807" t="s">
+      <c r="G10" s="5230" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="4816" t="s">
+      <c r="H10" s="5239" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="4825" t="s">
+      <c r="I10" s="5248" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -25109,25 +26378,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="4772" t="s">
+      <c r="C11" s="5195" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4781" t="s">
+      <c r="D11" s="5204" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="4790" t="s">
+      <c r="E11" s="5213" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="4799" t="s">
+      <c r="F11" s="5222" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="4808" t="s">
+      <c r="G11" s="5231" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="4817" t="s">
+      <c r="H11" s="5240" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="4826" t="s">
+      <c r="I11" s="5249" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -25723,31 +26992,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="4827" t="s">
+      <c r="C3" s="5250" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4848" t="s">
+      <c r="D3" s="5271" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="4869" t="s">
+      <c r="E3" s="5292" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="4887" t="s">
+      <c r="F3" s="5310" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4908" t="s">
+      <c r="G3" s="5331" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="4929" t="s">
+      <c r="H3" s="5352" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="4950" t="s">
+      <c r="I3" s="5373" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="4971" t="s">
+      <c r="J3" s="5394" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="4992" t="s">
+      <c r="K3" s="5415" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -25761,31 +27030,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="4828" t="s">
+      <c r="C4" s="5251" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4849" t="s">
+      <c r="D4" s="5272" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="4870" t="s">
+      <c r="E4" s="5293" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="4888" t="s">
+      <c r="F4" s="5311" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4909" t="s">
+      <c r="G4" s="5332" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="4930" t="s">
+      <c r="H4" s="5353" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="4951" t="s">
+      <c r="I4" s="5374" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="4972" t="s">
+      <c r="J4" s="5395" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="4993" t="s">
+      <c r="K4" s="5416" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -25799,31 +27068,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="4829" t="s">
+      <c r="C5" s="5252" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4850" t="s">
+      <c r="D5" s="5273" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="4871" t="s">
+      <c r="E5" s="5294" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="4889" t="s">
+      <c r="F5" s="5312" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4910" t="s">
+      <c r="G5" s="5333" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="4931" t="s">
+      <c r="H5" s="5354" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="4952" t="s">
+      <c r="I5" s="5375" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="4973" t="s">
+      <c r="J5" s="5396" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="4994" t="s">
+      <c r="K5" s="5417" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -25837,31 +27106,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="4830" t="s">
+      <c r="C6" s="5253" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4851" t="s">
+      <c r="D6" s="5274" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="4872" t="s">
+      <c r="E6" s="5295" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="4890" t="s">
+      <c r="F6" s="5313" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4911" t="s">
+      <c r="G6" s="5334" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="4932" t="s">
+      <c r="H6" s="5355" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="4953" t="s">
+      <c r="I6" s="5376" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="4974" t="s">
+      <c r="J6" s="5397" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="4995" t="s">
+      <c r="K6" s="5418" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -25875,31 +27144,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="4831" t="s">
+      <c r="C7" s="5254" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4852" t="s">
+      <c r="D7" s="5275" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="4873" t="s">
+      <c r="E7" s="5296" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="4891" t="s">
+      <c r="F7" s="5314" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4912" t="s">
+      <c r="G7" s="5335" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="4933" t="s">
+      <c r="H7" s="5356" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="4954" t="s">
+      <c r="I7" s="5377" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="4975" t="s">
+      <c r="J7" s="5398" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="4996" t="s">
+      <c r="K7" s="5419" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -25913,31 +27182,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="4832" t="s">
+      <c r="C8" s="5255" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4853" t="s">
+      <c r="D8" s="5276" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="4874" t="s">
+      <c r="E8" s="5297" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="4892" t="s">
+      <c r="F8" s="5315" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4913" t="s">
+      <c r="G8" s="5336" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="4934" t="s">
+      <c r="H8" s="5357" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="4955" t="s">
+      <c r="I8" s="5378" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="4976" t="s">
+      <c r="J8" s="5399" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="4997" t="s">
+      <c r="K8" s="5420" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -25951,29 +27220,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="4833" t="s">
+      <c r="C9" s="5256" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4854" t="s">
+      <c r="D9" s="5277" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="4893" t="s">
+      <c r="F9" s="5316" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="4914" t="s">
+      <c r="G9" s="5337" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="4935" t="s">
+      <c r="H9" s="5358" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="4956" t="s">
+      <c r="I9" s="5379" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="4977" t="s">
+      <c r="J9" s="5400" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="4998" t="s">
+      <c r="K9" s="5421" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -25987,31 +27256,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="4834" t="s">
+      <c r="C10" s="5257" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4855" t="s">
+      <c r="D10" s="5278" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="4875" t="s">
+      <c r="E10" s="5298" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="4894" t="s">
+      <c r="F10" s="5317" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4915" t="s">
+      <c r="G10" s="5338" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="4936" t="s">
+      <c r="H10" s="5359" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="4957" t="s">
+      <c r="I10" s="5380" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="4978" t="s">
+      <c r="J10" s="5401" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="4999" t="s">
+      <c r="K10" s="5422" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -26025,31 +27294,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="4835" t="s">
+      <c r="C11" s="5258" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4856" t="s">
+      <c r="D11" s="5279" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="4876" t="s">
+      <c r="E11" s="5299" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="4895" t="s">
+      <c r="F11" s="5318" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="4916" t="s">
+      <c r="G11" s="5339" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="4937" t="s">
+      <c r="H11" s="5360" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="4958" t="s">
+      <c r="I11" s="5381" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="4979" t="s">
+      <c r="J11" s="5402" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="5000" t="s">
+      <c r="K11" s="5423" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -26063,31 +27332,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="4836" t="s">
+      <c r="C12" s="5259" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="4857" t="s">
+      <c r="D12" s="5280" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="4877" t="s">
+      <c r="E12" s="5300" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="4896" t="s">
+      <c r="F12" s="5319" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="4917" t="s">
+      <c r="G12" s="5340" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="4938" t="s">
+      <c r="H12" s="5361" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="4959" t="s">
+      <c r="I12" s="5382" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="4980" t="s">
+      <c r="J12" s="5403" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="5001" t="s">
+      <c r="K12" s="5424" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -26101,31 +27370,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="4837" t="s">
+      <c r="C13" s="5260" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4858" t="s">
+      <c r="D13" s="5281" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="4878" t="s">
+      <c r="E13" s="5301" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="4897" t="s">
+      <c r="F13" s="5320" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="4918" t="s">
+      <c r="G13" s="5341" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="4939" t="s">
+      <c r="H13" s="5362" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="4960" t="s">
+      <c r="I13" s="5383" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="4981" t="s">
+      <c r="J13" s="5404" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="5002" t="s">
+      <c r="K13" s="5425" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -26139,31 +27408,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="4838" t="s">
+      <c r="C14" s="5261" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4859" t="s">
+      <c r="D14" s="5282" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="4879" t="s">
+      <c r="E14" s="5302" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="4898" t="s">
+      <c r="F14" s="5321" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="4919" t="s">
+      <c r="G14" s="5342" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="4940" t="s">
+      <c r="H14" s="5363" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="4961" t="s">
+      <c r="I14" s="5384" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="4982" t="s">
+      <c r="J14" s="5405" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="5003" t="s">
+      <c r="K14" s="5426" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -26177,31 +27446,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="4839" t="s">
+      <c r="C15" s="5262" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4860" t="s">
+      <c r="D15" s="5283" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="4880" t="s">
+      <c r="E15" s="5303" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="4899" t="s">
+      <c r="F15" s="5322" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="4920" t="s">
+      <c r="G15" s="5343" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="4941" t="s">
+      <c r="H15" s="5364" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="4962" t="s">
+      <c r="I15" s="5385" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="4983" t="s">
+      <c r="J15" s="5406" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="5004" t="s">
+      <c r="K15" s="5427" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -26215,29 +27484,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="4840" t="s">
+      <c r="C16" s="5263" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="4861" t="s">
+      <c r="D16" s="5284" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="4900" t="s">
+      <c r="F16" s="5323" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="4921" t="s">
+      <c r="G16" s="5344" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="4942" t="s">
+      <c r="H16" s="5365" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="4963" t="s">
+      <c r="I16" s="5386" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="4984" t="s">
+      <c r="J16" s="5407" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="5005" t="s">
+      <c r="K16" s="5428" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -26251,31 +27520,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="4841" t="s">
+      <c r="C17" s="5264" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4862" t="s">
+      <c r="D17" s="5285" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="4881" t="s">
+      <c r="E17" s="5304" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="4901" t="s">
+      <c r="F17" s="5324" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="4922" t="s">
+      <c r="G17" s="5345" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="4943" t="s">
+      <c r="H17" s="5366" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="4964" t="s">
+      <c r="I17" s="5387" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="4985" t="s">
+      <c r="J17" s="5408" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="5006" t="s">
+      <c r="K17" s="5429" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -26289,31 +27558,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="4842" t="s">
+      <c r="C18" s="5265" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4863" t="s">
+      <c r="D18" s="5286" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="4882" t="s">
+      <c r="E18" s="5305" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="4902" t="s">
+      <c r="F18" s="5325" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="4923" t="s">
+      <c r="G18" s="5346" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="4944" t="s">
+      <c r="H18" s="5367" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="4965" t="s">
+      <c r="I18" s="5388" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="4986" t="s">
+      <c r="J18" s="5409" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="5007" t="s">
+      <c r="K18" s="5430" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -26327,31 +27596,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="4843" t="s">
+      <c r="C19" s="5266" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4864" t="s">
+      <c r="D19" s="5287" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="4883" t="s">
+      <c r="E19" s="5306" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="4903" t="s">
+      <c r="F19" s="5326" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="4924" t="s">
+      <c r="G19" s="5347" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="4945" t="s">
+      <c r="H19" s="5368" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="4966" t="s">
+      <c r="I19" s="5389" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="4987" t="s">
+      <c r="J19" s="5410" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="5008" t="s">
+      <c r="K19" s="5431" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -26365,31 +27634,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="4844" t="s">
+      <c r="C20" s="5267" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4865" t="s">
+      <c r="D20" s="5288" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="4884" t="s">
+      <c r="E20" s="5307" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="4904" t="s">
+      <c r="F20" s="5327" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="4925" t="s">
+      <c r="G20" s="5348" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="4946" t="s">
+      <c r="H20" s="5369" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="4967" t="s">
+      <c r="I20" s="5390" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="4988" t="s">
+      <c r="J20" s="5411" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="5009" t="s">
+      <c r="K20" s="5432" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -26403,31 +27672,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="4845" t="s">
+      <c r="C21" s="5268" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4866" t="s">
+      <c r="D21" s="5289" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="4885" t="s">
+      <c r="E21" s="5308" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="4905" t="s">
+      <c r="F21" s="5328" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="4926" t="s">
+      <c r="G21" s="5349" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="4947" t="s">
+      <c r="H21" s="5370" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="4968" t="s">
+      <c r="I21" s="5391" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="4989" t="s">
+      <c r="J21" s="5412" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="5010" t="s">
+      <c r="K21" s="5433" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -26441,31 +27710,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="4846" t="s">
+      <c r="C22" s="5269" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="4867" t="s">
+      <c r="D22" s="5290" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="4886" t="s">
+      <c r="E22" s="5309" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="4906" t="s">
+      <c r="F22" s="5329" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="4927" t="s">
+      <c r="G22" s="5350" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="4948" t="s">
+      <c r="H22" s="5371" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="4969" t="s">
+      <c r="I22" s="5392" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="4990" t="s">
+      <c r="J22" s="5413" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="5011" t="s">
+      <c r="K22" s="5434" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -26479,29 +27748,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="4847" t="s">
+      <c r="C23" s="5270" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4868" t="s">
+      <c r="D23" s="5291" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="4907" t="s">
+      <c r="F23" s="5330" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="4928" t="s">
+      <c r="G23" s="5351" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="4949" t="s">
+      <c r="H23" s="5372" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="4970" t="s">
+      <c r="I23" s="5393" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="4991" t="s">
+      <c r="J23" s="5414" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="5012" t="s">
+      <c r="K23" s="5435" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -27487,28 +28756,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="5013" t="s">
+      <c r="C3" s="5436" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5022" t="s">
+      <c r="D3" s="5445" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5031" t="s">
+      <c r="E3" s="5454" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="5040" t="s">
+      <c r="F3" s="5463" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="5049" t="s">
+      <c r="G3" s="5472" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="5058" t="s">
+      <c r="H3" s="5481" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="5067" t="s">
+      <c r="I3" s="5490" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="5076" t="s">
+      <c r="J3" s="5499" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -27516,28 +28785,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="5014" t="s">
+      <c r="C4" s="5437" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5023" t="s">
+      <c r="D4" s="5446" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="5032" t="s">
+      <c r="E4" s="5455" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="5041" t="s">
+      <c r="F4" s="5464" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="5050" t="s">
+      <c r="G4" s="5473" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="5059" t="s">
+      <c r="H4" s="5482" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="5068" t="s">
+      <c r="I4" s="5491" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="5077" t="s">
+      <c r="J4" s="5500" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -27545,28 +28814,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="5015" t="s">
+      <c r="C5" s="5438" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5024" t="s">
+      <c r="D5" s="5447" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5033" t="s">
+      <c r="E5" s="5456" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="5042" t="s">
+      <c r="F5" s="5465" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="5051" t="s">
+      <c r="G5" s="5474" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="5060" t="s">
+      <c r="H5" s="5483" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="5069" t="s">
+      <c r="I5" s="5492" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="5078" t="s">
+      <c r="J5" s="5501" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -27574,28 +28843,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="5016" t="s">
+      <c r="C6" s="5439" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5025" t="s">
+      <c r="D6" s="5448" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="5034" t="s">
+      <c r="E6" s="5457" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="5043" t="s">
+      <c r="F6" s="5466" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="5052" t="s">
+      <c r="G6" s="5475" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="5061" t="s">
+      <c r="H6" s="5484" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="5070" t="s">
+      <c r="I6" s="5493" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="5079" t="s">
+      <c r="J6" s="5502" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -27603,28 +28872,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="5017" t="s">
+      <c r="C7" s="5440" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5026" t="s">
+      <c r="D7" s="5449" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="5035" t="s">
+      <c r="E7" s="5458" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="5044" t="s">
+      <c r="F7" s="5467" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="5053" t="s">
+      <c r="G7" s="5476" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="5062" t="s">
+      <c r="H7" s="5485" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="5071" t="s">
+      <c r="I7" s="5494" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="5080" t="s">
+      <c r="J7" s="5503" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -27632,28 +28901,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="5018" t="s">
+      <c r="C8" s="5441" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5027" t="s">
+      <c r="D8" s="5450" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5036" t="s">
+      <c r="E8" s="5459" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="5045" t="s">
+      <c r="F8" s="5468" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="5054" t="s">
+      <c r="G8" s="5477" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="5063" t="s">
+      <c r="H8" s="5486" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="5072" t="s">
+      <c r="I8" s="5495" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="5081" t="s">
+      <c r="J8" s="5504" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -27661,28 +28930,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="5019" t="s">
+      <c r="C9" s="5442" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5028" t="s">
+      <c r="D9" s="5451" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="5037" t="s">
+      <c r="E9" s="5460" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="5046" t="s">
+      <c r="F9" s="5469" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="5055" t="s">
+      <c r="G9" s="5478" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="5064" t="s">
+      <c r="H9" s="5487" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="5073" t="s">
+      <c r="I9" s="5496" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="5082" t="s">
+      <c r="J9" s="5505" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -27690,28 +28959,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="5020" t="s">
+      <c r="C10" s="5443" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5029" t="s">
+      <c r="D10" s="5452" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="5038" t="s">
+      <c r="E10" s="5461" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="5047" t="s">
+      <c r="F10" s="5470" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="5056" t="s">
+      <c r="G10" s="5479" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="5065" t="s">
+      <c r="H10" s="5488" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="5074" t="s">
+      <c r="I10" s="5497" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="5083" t="s">
+      <c r="J10" s="5506" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -27719,28 +28988,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="5021" t="s">
+      <c r="C11" s="5444" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="5030" t="s">
+      <c r="D11" s="5453" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="5039" t="s">
+      <c r="E11" s="5462" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="5048" t="s">
+      <c r="F11" s="5471" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="5057" t="s">
+      <c r="G11" s="5480" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="5066" t="s">
+      <c r="H11" s="5489" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="5075" t="s">
+      <c r="I11" s="5498" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="5084" t="s">
+      <c r="J11" s="5507" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -28427,31 +29696,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="5085" t="s">
+      <c r="C3" s="5508" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5091" t="s">
+      <c r="D3" s="5514" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="5097" t="s">
+      <c r="E3" s="5520" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="5103" t="s">
+      <c r="F3" s="5526" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="5109" t="s">
+      <c r="G3" s="5532" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="5115" t="s">
+      <c r="H3" s="5538" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="5121" t="s">
+      <c r="I3" s="5544" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="5127" t="s">
+      <c r="J3" s="5550" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="5133" t="s">
+      <c r="K3" s="5556" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -28467,31 +29736,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="5086" t="s">
+      <c r="C4" s="5509" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5092" t="s">
+      <c r="D4" s="5515" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="5098" t="s">
+      <c r="E4" s="5521" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="5104" t="s">
+      <c r="F4" s="5527" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="5110" t="s">
+      <c r="G4" s="5533" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="5116" t="s">
+      <c r="H4" s="5539" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="5122" t="s">
+      <c r="I4" s="5545" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="5128" t="s">
+      <c r="J4" s="5551" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="5134" t="s">
+      <c r="K4" s="5557" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -28507,31 +29776,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="5087" t="s">
+      <c r="C5" s="5510" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="5093" t="s">
+      <c r="D5" s="5516" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5099" t="s">
+      <c r="E5" s="5522" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="5105" t="s">
+      <c r="F5" s="5528" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="5111" t="s">
+      <c r="G5" s="5534" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="5117" t="s">
+      <c r="H5" s="5540" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="5123" t="s">
+      <c r="I5" s="5546" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="5129" t="s">
+      <c r="J5" s="5552" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="5135" t="s">
+      <c r="K5" s="5558" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -28547,31 +29816,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="5088" t="s">
+      <c r="C6" s="5511" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5094" t="s">
+      <c r="D6" s="5517" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="5100" t="s">
+      <c r="E6" s="5523" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="5106" t="s">
+      <c r="F6" s="5529" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="5112" t="s">
+      <c r="G6" s="5535" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="5118" t="s">
+      <c r="H6" s="5541" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="5124" t="s">
+      <c r="I6" s="5547" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="5130" t="s">
+      <c r="J6" s="5553" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="5136" t="s">
+      <c r="K6" s="5559" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -28587,31 +29856,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="5089" t="s">
+      <c r="C7" s="5512" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5095" t="s">
+      <c r="D7" s="5518" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="5101" t="s">
+      <c r="E7" s="5524" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="5107" t="s">
+      <c r="F7" s="5530" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="5113" t="s">
+      <c r="G7" s="5536" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="5119" t="s">
+      <c r="H7" s="5542" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="5125" t="s">
+      <c r="I7" s="5548" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="5131" t="s">
+      <c r="J7" s="5554" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="5137" t="s">
+      <c r="K7" s="5560" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -28627,31 +29896,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="5090" t="s">
+      <c r="C8" s="5513" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5096" t="s">
+      <c r="D8" s="5519" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5102" t="s">
+      <c r="E8" s="5525" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="5108" t="s">
+      <c r="F8" s="5531" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="5114" t="s">
+      <c r="G8" s="5537" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="5120" t="s">
+      <c r="H8" s="5543" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="5126" t="s">
+      <c r="I8" s="5549" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="5132" t="s">
+      <c r="J8" s="5555" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="5138" t="s">
+      <c r="K8" s="5561" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5562">
+  <cellXfs count="6408">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,2544 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -25887,162 +28425,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="5139" t="s">
+      <c r="A3" s="5985" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5147" t="s">
+      <c r="B3" s="5993" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5155" t="s">
+      <c r="C3" s="6001" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5163" t="s">
+      <c r="D3" s="6009" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="5171" t="s">
+      <c r="E3" s="6017" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="5179" t="s">
+      <c r="F3" s="6025" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5140" t="s">
+      <c r="A4" s="5986" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5148" t="s">
+      <c r="B4" s="5994" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="5156" t="s">
+      <c r="C4" s="6002" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="5164" t="s">
+      <c r="D4" s="6010" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="5172" t="s">
+      <c r="E4" s="6018" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="5180" t="s">
+      <c r="F4" s="6026" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5141" t="s">
+      <c r="A5" s="5987" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5149" t="s">
+      <c r="B5" s="5995" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="5157" t="s">
+      <c r="C5" s="6003" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5165" t="s">
+      <c r="D5" s="6011" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5173" t="s">
+      <c r="E5" s="6019" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="5181" t="s">
+      <c r="F5" s="6027" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5142" t="s">
+      <c r="A6" s="5988" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5150" t="s">
+      <c r="B6" s="5996" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5158" t="s">
+      <c r="C6" s="6004" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5166" t="s">
+      <c r="D6" s="6012" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="5174" t="s">
+      <c r="E6" s="6020" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="5182" t="s">
+      <c r="F6" s="6028" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5143" t="s">
+      <c r="A7" s="5989" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5151" t="s">
+      <c r="B7" s="5997" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5159" t="s">
+      <c r="C7" s="6005" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5167" t="s">
+      <c r="D7" s="6013" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="5175" t="s">
+      <c r="E7" s="6021" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="5183" t="s">
+      <c r="F7" s="6029" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5144" t="s">
+      <c r="A8" s="5990" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5152" t="s">
+      <c r="B8" s="5998" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5160" t="s">
+      <c r="C8" s="6006" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="5168" t="s">
+      <c r="D8" s="6014" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5176" t="s">
+      <c r="E8" s="6022" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="5184" t="s">
+      <c r="F8" s="6030" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5145" t="s">
+      <c r="A9" s="5991" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5153" t="s">
+      <c r="B9" s="5999" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="5161" t="s">
+      <c r="C9" s="6007" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5169" t="s">
+      <c r="D9" s="6015" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="5177" t="s">
+      <c r="E9" s="6023" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="5185" t="s">
+      <c r="F9" s="6031" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5146" t="s">
+      <c r="A10" s="5992" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5154" t="s">
+      <c r="B10" s="6000" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5162" t="s">
+      <c r="C10" s="6008" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5170" t="s">
+      <c r="D10" s="6016" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="5178" t="s">
+      <c r="E10" s="6024" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="5186" t="s">
+      <c r="F10" s="6032" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26170,25 +28708,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="5187" t="s">
+      <c r="C3" s="6033" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5196" t="s">
+      <c r="D3" s="6042" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5205" t="s">
+      <c r="E3" s="6051" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="5214" t="s">
+      <c r="F3" s="6060" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="5223" t="s">
+      <c r="G3" s="6069" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="5232" t="s">
+      <c r="H3" s="6078" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="5241" t="s">
+      <c r="I3" s="6087" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -26196,25 +28734,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="5188" t="s">
+      <c r="C4" s="6034" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5197" t="s">
+      <c r="D4" s="6043" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="5206" t="s">
+      <c r="E4" s="6052" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="5215" t="s">
+      <c r="F4" s="6061" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="5224" t="s">
+      <c r="G4" s="6070" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="5233" t="s">
+      <c r="H4" s="6079" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="5242" t="s">
+      <c r="I4" s="6088" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -26222,25 +28760,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="5189" t="s">
+      <c r="C5" s="6035" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5198" t="s">
+      <c r="D5" s="6044" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5207" t="s">
+      <c r="E5" s="6053" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="5216" t="s">
+      <c r="F5" s="6062" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="5225" t="s">
+      <c r="G5" s="6071" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="5234" t="s">
+      <c r="H5" s="6080" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="5243" t="s">
+      <c r="I5" s="6089" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -26248,25 +28786,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="5190" t="s">
+      <c r="C6" s="6036" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5199" t="s">
+      <c r="D6" s="6045" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="5208" t="s">
+      <c r="E6" s="6054" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="5217" t="s">
+      <c r="F6" s="6063" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="5226" t="s">
+      <c r="G6" s="6072" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="5235" t="s">
+      <c r="H6" s="6081" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="5244" t="s">
+      <c r="I6" s="6090" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -26274,25 +28812,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="5191" t="s">
+      <c r="C7" s="6037" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5200" t="s">
+      <c r="D7" s="6046" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="5209" t="s">
+      <c r="E7" s="6055" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="5218" t="s">
+      <c r="F7" s="6064" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="5227" t="s">
+      <c r="G7" s="6073" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="5236" t="s">
+      <c r="H7" s="6082" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="5245" t="s">
+      <c r="I7" s="6091" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -26300,25 +28838,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="5192" t="s">
+      <c r="C8" s="6038" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5201" t="s">
+      <c r="D8" s="6047" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5210" t="s">
+      <c r="E8" s="6056" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="5219" t="s">
+      <c r="F8" s="6065" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="5228" t="s">
+      <c r="G8" s="6074" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="5237" t="s">
+      <c r="H8" s="6083" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="5246" t="s">
+      <c r="I8" s="6092" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -26326,25 +28864,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="5193" t="s">
+      <c r="C9" s="6039" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5202" t="s">
+      <c r="D9" s="6048" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="5211" t="s">
+      <c r="E9" s="6057" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="5220" t="s">
+      <c r="F9" s="6066" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="5229" t="s">
+      <c r="G9" s="6075" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="5238" t="s">
+      <c r="H9" s="6084" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="5247" t="s">
+      <c r="I9" s="6093" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -26352,25 +28890,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="5194" t="s">
+      <c r="C10" s="6040" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5203" t="s">
+      <c r="D10" s="6049" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="5212" t="s">
+      <c r="E10" s="6058" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="5221" t="s">
+      <c r="F10" s="6067" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="5230" t="s">
+      <c r="G10" s="6076" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="5239" t="s">
+      <c r="H10" s="6085" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="5248" t="s">
+      <c r="I10" s="6094" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -26378,25 +28916,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="5195" t="s">
+      <c r="C11" s="6041" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="5204" t="s">
+      <c r="D11" s="6050" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="5213" t="s">
+      <c r="E11" s="6059" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="5222" t="s">
+      <c r="F11" s="6068" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="5231" t="s">
+      <c r="G11" s="6077" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="5240" t="s">
+      <c r="H11" s="6086" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="5249" t="s">
+      <c r="I11" s="6095" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -26992,31 +29530,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="5250" t="s">
+      <c r="C3" s="6096" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5271" t="s">
+      <c r="D3" s="6117" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5292" t="s">
+      <c r="E3" s="6138" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="5310" t="s">
+      <c r="F3" s="6156" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5331" t="s">
+      <c r="G3" s="6177" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="5352" t="s">
+      <c r="H3" s="6198" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="5373" t="s">
+      <c r="I3" s="6219" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="5394" t="s">
+      <c r="J3" s="6240" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="5415" t="s">
+      <c r="K3" s="6261" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -27030,31 +29568,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="5251" t="s">
+      <c r="C4" s="6097" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5272" t="s">
+      <c r="D4" s="6118" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="5293" t="s">
+      <c r="E4" s="6139" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="5311" t="s">
+      <c r="F4" s="6157" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5332" t="s">
+      <c r="G4" s="6178" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="5353" t="s">
+      <c r="H4" s="6199" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="5374" t="s">
+      <c r="I4" s="6220" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="5395" t="s">
+      <c r="J4" s="6241" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="5416" t="s">
+      <c r="K4" s="6262" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -27068,31 +29606,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="5252" t="s">
+      <c r="C5" s="6098" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5273" t="s">
+      <c r="D5" s="6119" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="5294" t="s">
+      <c r="E5" s="6140" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="5312" t="s">
+      <c r="F5" s="6158" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5333" t="s">
+      <c r="G5" s="6179" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="5354" t="s">
+      <c r="H5" s="6200" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="5375" t="s">
+      <c r="I5" s="6221" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="5396" t="s">
+      <c r="J5" s="6242" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="5417" t="s">
+      <c r="K5" s="6263" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -27106,31 +29644,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="5253" t="s">
+      <c r="C6" s="6099" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5274" t="s">
+      <c r="D6" s="6120" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="5295" t="s">
+      <c r="E6" s="6141" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="5313" t="s">
+      <c r="F6" s="6159" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5334" t="s">
+      <c r="G6" s="6180" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="5355" t="s">
+      <c r="H6" s="6201" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="5376" t="s">
+      <c r="I6" s="6222" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="5397" t="s">
+      <c r="J6" s="6243" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="5418" t="s">
+      <c r="K6" s="6264" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -27144,31 +29682,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="5254" t="s">
+      <c r="C7" s="6100" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5275" t="s">
+      <c r="D7" s="6121" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="5296" t="s">
+      <c r="E7" s="6142" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="5314" t="s">
+      <c r="F7" s="6160" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5335" t="s">
+      <c r="G7" s="6181" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="5356" t="s">
+      <c r="H7" s="6202" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="5377" t="s">
+      <c r="I7" s="6223" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="5398" t="s">
+      <c r="J7" s="6244" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="5419" t="s">
+      <c r="K7" s="6265" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -27182,31 +29720,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="5255" t="s">
+      <c r="C8" s="6101" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5276" t="s">
+      <c r="D8" s="6122" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5297" t="s">
+      <c r="E8" s="6143" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="5315" t="s">
+      <c r="F8" s="6161" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5336" t="s">
+      <c r="G8" s="6182" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="5357" t="s">
+      <c r="H8" s="6203" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="5378" t="s">
+      <c r="I8" s="6224" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="5399" t="s">
+      <c r="J8" s="6245" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="5420" t="s">
+      <c r="K8" s="6266" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -27220,29 +29758,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="5256" t="s">
+      <c r="C9" s="6102" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5277" t="s">
+      <c r="D9" s="6123" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="5316" t="s">
+      <c r="F9" s="6162" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="5337" t="s">
+      <c r="G9" s="6183" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="5358" t="s">
+      <c r="H9" s="6204" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="5379" t="s">
+      <c r="I9" s="6225" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="5400" t="s">
+      <c r="J9" s="6246" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="5421" t="s">
+      <c r="K9" s="6267" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -27256,31 +29794,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="5257" t="s">
+      <c r="C10" s="6103" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5278" t="s">
+      <c r="D10" s="6124" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="5298" t="s">
+      <c r="E10" s="6144" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="5317" t="s">
+      <c r="F10" s="6163" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5338" t="s">
+      <c r="G10" s="6184" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="5359" t="s">
+      <c r="H10" s="6205" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="5380" t="s">
+      <c r="I10" s="6226" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="5401" t="s">
+      <c r="J10" s="6247" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="5422" t="s">
+      <c r="K10" s="6268" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -27294,31 +29832,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="5258" t="s">
+      <c r="C11" s="6104" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5279" t="s">
+      <c r="D11" s="6125" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="5299" t="s">
+      <c r="E11" s="6145" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="5318" t="s">
+      <c r="F11" s="6164" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5339" t="s">
+      <c r="G11" s="6185" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="5360" t="s">
+      <c r="H11" s="6206" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="5381" t="s">
+      <c r="I11" s="6227" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="5402" t="s">
+      <c r="J11" s="6248" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="5423" t="s">
+      <c r="K11" s="6269" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -27332,31 +29870,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="5259" t="s">
+      <c r="C12" s="6105" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="5280" t="s">
+      <c r="D12" s="6126" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="5300" t="s">
+      <c r="E12" s="6146" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="5319" t="s">
+      <c r="F12" s="6165" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5340" t="s">
+      <c r="G12" s="6186" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="5361" t="s">
+      <c r="H12" s="6207" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="5382" t="s">
+      <c r="I12" s="6228" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="5403" t="s">
+      <c r="J12" s="6249" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="5424" t="s">
+      <c r="K12" s="6270" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -27370,31 +29908,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="5260" t="s">
+      <c r="C13" s="6106" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5281" t="s">
+      <c r="D13" s="6127" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="5301" t="s">
+      <c r="E13" s="6147" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="5320" t="s">
+      <c r="F13" s="6166" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="5341" t="s">
+      <c r="G13" s="6187" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="5362" t="s">
+      <c r="H13" s="6208" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="5383" t="s">
+      <c r="I13" s="6229" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="5404" t="s">
+      <c r="J13" s="6250" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="5425" t="s">
+      <c r="K13" s="6271" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -27408,31 +29946,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="5261" t="s">
+      <c r="C14" s="6107" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="5282" t="s">
+      <c r="D14" s="6128" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="5302" t="s">
+      <c r="E14" s="6148" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="5321" t="s">
+      <c r="F14" s="6167" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5342" t="s">
+      <c r="G14" s="6188" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="5363" t="s">
+      <c r="H14" s="6209" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="5384" t="s">
+      <c r="I14" s="6230" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="5405" t="s">
+      <c r="J14" s="6251" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="5426" t="s">
+      <c r="K14" s="6272" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -27446,31 +29984,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="5262" t="s">
+      <c r="C15" s="6108" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5283" t="s">
+      <c r="D15" s="6129" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="5303" t="s">
+      <c r="E15" s="6149" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="5322" t="s">
+      <c r="F15" s="6168" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="5343" t="s">
+      <c r="G15" s="6189" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="5364" t="s">
+      <c r="H15" s="6210" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="5385" t="s">
+      <c r="I15" s="6231" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="5406" t="s">
+      <c r="J15" s="6252" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="5427" t="s">
+      <c r="K15" s="6273" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -27484,29 +30022,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="5263" t="s">
+      <c r="C16" s="6109" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="5284" t="s">
+      <c r="D16" s="6130" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="5323" t="s">
+      <c r="F16" s="6169" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="5344" t="s">
+      <c r="G16" s="6190" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="5365" t="s">
+      <c r="H16" s="6211" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="5386" t="s">
+      <c r="I16" s="6232" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="5407" t="s">
+      <c r="J16" s="6253" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="5428" t="s">
+      <c r="K16" s="6274" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -27520,31 +30058,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="5264" t="s">
+      <c r="C17" s="6110" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="5285" t="s">
+      <c r="D17" s="6131" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="5304" t="s">
+      <c r="E17" s="6150" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="5324" t="s">
+      <c r="F17" s="6170" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="5345" t="s">
+      <c r="G17" s="6191" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="5366" t="s">
+      <c r="H17" s="6212" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="5387" t="s">
+      <c r="I17" s="6233" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="5408" t="s">
+      <c r="J17" s="6254" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="5429" t="s">
+      <c r="K17" s="6275" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -27558,31 +30096,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="5265" t="s">
+      <c r="C18" s="6111" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5286" t="s">
+      <c r="D18" s="6132" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="5305" t="s">
+      <c r="E18" s="6151" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="5325" t="s">
+      <c r="F18" s="6171" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="5346" t="s">
+      <c r="G18" s="6192" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="5367" t="s">
+      <c r="H18" s="6213" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="5388" t="s">
+      <c r="I18" s="6234" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="5409" t="s">
+      <c r="J18" s="6255" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="5430" t="s">
+      <c r="K18" s="6276" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -27596,31 +30134,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="5266" t="s">
+      <c r="C19" s="6112" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5287" t="s">
+      <c r="D19" s="6133" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="5306" t="s">
+      <c r="E19" s="6152" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="5326" t="s">
+      <c r="F19" s="6172" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="5347" t="s">
+      <c r="G19" s="6193" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="5368" t="s">
+      <c r="H19" s="6214" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="5389" t="s">
+      <c r="I19" s="6235" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="5410" t="s">
+      <c r="J19" s="6256" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="5431" t="s">
+      <c r="K19" s="6277" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -27634,31 +30172,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="5267" t="s">
+      <c r="C20" s="6113" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="5288" t="s">
+      <c r="D20" s="6134" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="5307" t="s">
+      <c r="E20" s="6153" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="5327" t="s">
+      <c r="F20" s="6173" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="5348" t="s">
+      <c r="G20" s="6194" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="5369" t="s">
+      <c r="H20" s="6215" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="5390" t="s">
+      <c r="I20" s="6236" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="5411" t="s">
+      <c r="J20" s="6257" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="5432" t="s">
+      <c r="K20" s="6278" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -27672,31 +30210,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="5268" t="s">
+      <c r="C21" s="6114" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5289" t="s">
+      <c r="D21" s="6135" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="5308" t="s">
+      <c r="E21" s="6154" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="5328" t="s">
+      <c r="F21" s="6174" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="5349" t="s">
+      <c r="G21" s="6195" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="5370" t="s">
+      <c r="H21" s="6216" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="5391" t="s">
+      <c r="I21" s="6237" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="5412" t="s">
+      <c r="J21" s="6258" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="5433" t="s">
+      <c r="K21" s="6279" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -27710,31 +30248,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="5269" t="s">
+      <c r="C22" s="6115" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="5290" t="s">
+      <c r="D22" s="6136" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="5309" t="s">
+      <c r="E22" s="6155" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="5329" t="s">
+      <c r="F22" s="6175" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="5350" t="s">
+      <c r="G22" s="6196" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="5371" t="s">
+      <c r="H22" s="6217" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="5392" t="s">
+      <c r="I22" s="6238" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="5413" t="s">
+      <c r="J22" s="6259" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="5434" t="s">
+      <c r="K22" s="6280" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -27748,29 +30286,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="5270" t="s">
+      <c r="C23" s="6116" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="5291" t="s">
+      <c r="D23" s="6137" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="5330" t="s">
+      <c r="F23" s="6176" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="5351" t="s">
+      <c r="G23" s="6197" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="5372" t="s">
+      <c r="H23" s="6218" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="5393" t="s">
+      <c r="I23" s="6239" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="5414" t="s">
+      <c r="J23" s="6260" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="5435" t="s">
+      <c r="K23" s="6281" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -28756,28 +31294,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="5436" t="s">
+      <c r="C3" s="6282" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5445" t="s">
+      <c r="D3" s="6291" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="5454" t="s">
+      <c r="E3" s="6300" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="5463" t="s">
+      <c r="F3" s="6309" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="5472" t="s">
+      <c r="G3" s="6318" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="5481" t="s">
+      <c r="H3" s="6327" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="5490" t="s">
+      <c r="I3" s="6336" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="5499" t="s">
+      <c r="J3" s="6345" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -28785,28 +31323,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="5437" t="s">
+      <c r="C4" s="6283" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5446" t="s">
+      <c r="D4" s="6292" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="5455" t="s">
+      <c r="E4" s="6301" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="5464" t="s">
+      <c r="F4" s="6310" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="5473" t="s">
+      <c r="G4" s="6319" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="5482" t="s">
+      <c r="H4" s="6328" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="5491" t="s">
+      <c r="I4" s="6337" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="5500" t="s">
+      <c r="J4" s="6346" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -28814,28 +31352,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="5438" t="s">
+      <c r="C5" s="6284" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5447" t="s">
+      <c r="D5" s="6293" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5456" t="s">
+      <c r="E5" s="6302" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="5465" t="s">
+      <c r="F5" s="6311" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="5474" t="s">
+      <c r="G5" s="6320" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="5483" t="s">
+      <c r="H5" s="6329" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="5492" t="s">
+      <c r="I5" s="6338" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="5501" t="s">
+      <c r="J5" s="6347" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -28843,28 +31381,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="5439" t="s">
+      <c r="C6" s="6285" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5448" t="s">
+      <c r="D6" s="6294" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="5457" t="s">
+      <c r="E6" s="6303" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="5466" t="s">
+      <c r="F6" s="6312" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="5475" t="s">
+      <c r="G6" s="6321" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="5484" t="s">
+      <c r="H6" s="6330" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="5493" t="s">
+      <c r="I6" s="6339" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="5502" t="s">
+      <c r="J6" s="6348" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -28872,28 +31410,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="5440" t="s">
+      <c r="C7" s="6286" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5449" t="s">
+      <c r="D7" s="6295" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="5458" t="s">
+      <c r="E7" s="6304" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="5467" t="s">
+      <c r="F7" s="6313" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="5476" t="s">
+      <c r="G7" s="6322" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="5485" t="s">
+      <c r="H7" s="6331" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="5494" t="s">
+      <c r="I7" s="6340" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="5503" t="s">
+      <c r="J7" s="6349" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -28901,28 +31439,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="5441" t="s">
+      <c r="C8" s="6287" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5450" t="s">
+      <c r="D8" s="6296" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5459" t="s">
+      <c r="E8" s="6305" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="5468" t="s">
+      <c r="F8" s="6314" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="5477" t="s">
+      <c r="G8" s="6323" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="5486" t="s">
+      <c r="H8" s="6332" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="5495" t="s">
+      <c r="I8" s="6341" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="5504" t="s">
+      <c r="J8" s="6350" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -28930,28 +31468,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="5442" t="s">
+      <c r="C9" s="6288" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5451" t="s">
+      <c r="D9" s="6297" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="5460" t="s">
+      <c r="E9" s="6306" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="5469" t="s">
+      <c r="F9" s="6315" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="5478" t="s">
+      <c r="G9" s="6324" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="5487" t="s">
+      <c r="H9" s="6333" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="5496" t="s">
+      <c r="I9" s="6342" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="5505" t="s">
+      <c r="J9" s="6351" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -28959,28 +31497,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="5443" t="s">
+      <c r="C10" s="6289" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5452" t="s">
+      <c r="D10" s="6298" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="5461" t="s">
+      <c r="E10" s="6307" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="5470" t="s">
+      <c r="F10" s="6316" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="5479" t="s">
+      <c r="G10" s="6325" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="5488" t="s">
+      <c r="H10" s="6334" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="5497" t="s">
+      <c r="I10" s="6343" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="5506" t="s">
+      <c r="J10" s="6352" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -28988,28 +31526,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="5444" t="s">
+      <c r="C11" s="6290" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="5453" t="s">
+      <c r="D11" s="6299" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="5462" t="s">
+      <c r="E11" s="6308" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="5471" t="s">
+      <c r="F11" s="6317" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="5480" t="s">
+      <c r="G11" s="6326" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="5489" t="s">
+      <c r="H11" s="6335" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="5498" t="s">
+      <c r="I11" s="6344" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="5507" t="s">
+      <c r="J11" s="6353" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -29696,31 +32234,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="5508" t="s">
+      <c r="C3" s="6354" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5514" t="s">
+      <c r="D3" s="6360" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="5520" t="s">
+      <c r="E3" s="6366" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="5526" t="s">
+      <c r="F3" s="6372" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="5532" t="s">
+      <c r="G3" s="6378" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="5538" t="s">
+      <c r="H3" s="6384" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="5544" t="s">
+      <c r="I3" s="6390" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="5550" t="s">
+      <c r="J3" s="6396" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="5556" t="s">
+      <c r="K3" s="6402" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -29736,31 +32274,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="5509" t="s">
+      <c r="C4" s="6355" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5515" t="s">
+      <c r="D4" s="6361" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="5521" t="s">
+      <c r="E4" s="6367" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="5527" t="s">
+      <c r="F4" s="6373" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="5533" t="s">
+      <c r="G4" s="6379" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="5539" t="s">
+      <c r="H4" s="6385" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="5545" t="s">
+      <c r="I4" s="6391" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="5551" t="s">
+      <c r="J4" s="6397" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="5557" t="s">
+      <c r="K4" s="6403" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -29776,31 +32314,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="5510" t="s">
+      <c r="C5" s="6356" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="5516" t="s">
+      <c r="D5" s="6362" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5522" t="s">
+      <c r="E5" s="6368" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="5528" t="s">
+      <c r="F5" s="6374" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="5534" t="s">
+      <c r="G5" s="6380" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="5540" t="s">
+      <c r="H5" s="6386" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="5546" t="s">
+      <c r="I5" s="6392" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="5552" t="s">
+      <c r="J5" s="6398" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="5558" t="s">
+      <c r="K5" s="6404" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -29816,31 +32354,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="5511" t="s">
+      <c r="C6" s="6357" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5517" t="s">
+      <c r="D6" s="6363" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="5523" t="s">
+      <c r="E6" s="6369" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="5529" t="s">
+      <c r="F6" s="6375" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="5535" t="s">
+      <c r="G6" s="6381" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="5541" t="s">
+      <c r="H6" s="6387" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="5547" t="s">
+      <c r="I6" s="6393" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="5553" t="s">
+      <c r="J6" s="6399" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="5559" t="s">
+      <c r="K6" s="6405" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -29856,31 +32394,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="5512" t="s">
+      <c r="C7" s="6358" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5518" t="s">
+      <c r="D7" s="6364" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="5524" t="s">
+      <c r="E7" s="6370" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="5530" t="s">
+      <c r="F7" s="6376" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="5536" t="s">
+      <c r="G7" s="6382" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="5542" t="s">
+      <c r="H7" s="6388" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="5548" t="s">
+      <c r="I7" s="6394" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="5554" t="s">
+      <c r="J7" s="6400" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="5560" t="s">
+      <c r="K7" s="6406" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -29896,31 +32434,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="5513" t="s">
+      <c r="C8" s="6359" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5519" t="s">
+      <c r="D8" s="6365" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5525" t="s">
+      <c r="E8" s="6371" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="5531" t="s">
+      <c r="F8" s="6377" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="5537" t="s">
+      <c r="G8" s="6383" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="5543" t="s">
+      <c r="H8" s="6389" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="5549" t="s">
+      <c r="I8" s="6395" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="5555" t="s">
+      <c r="J8" s="6401" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="5561" t="s">
+      <c r="K8" s="6407" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8650" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6408">
+  <cellXfs count="7677">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,3813 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -28425,162 +32232,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="5985" t="s">
+      <c r="A3" s="7254" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5993" t="s">
+      <c r="B3" s="7262" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="6001" t="s">
+      <c r="C3" s="7270" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6009" t="s">
+      <c r="D3" s="7278" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="6017" t="s">
+      <c r="E3" s="7286" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="6025" t="s">
+      <c r="F3" s="7294" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5986" t="s">
+      <c r="A4" s="7255" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5994" t="s">
+      <c r="B4" s="7263" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="6002" t="s">
+      <c r="C4" s="7271" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6010" t="s">
+      <c r="D4" s="7279" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="6018" t="s">
+      <c r="E4" s="7287" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="6026" t="s">
+      <c r="F4" s="7295" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5987" t="s">
+      <c r="A5" s="7256" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5995" t="s">
+      <c r="B5" s="7264" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="6003" t="s">
+      <c r="C5" s="7272" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6011" t="s">
+      <c r="D5" s="7280" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="6019" t="s">
+      <c r="E5" s="7288" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="6027" t="s">
+      <c r="F5" s="7296" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5988" t="s">
+      <c r="A6" s="7257" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5996" t="s">
+      <c r="B6" s="7265" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6004" t="s">
+      <c r="C6" s="7273" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="6012" t="s">
+      <c r="D6" s="7281" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="6020" t="s">
+      <c r="E6" s="7289" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="6028" t="s">
+      <c r="F6" s="7297" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5989" t="s">
+      <c r="A7" s="7258" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5997" t="s">
+      <c r="B7" s="7266" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6005" t="s">
+      <c r="C7" s="7274" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6013" t="s">
+      <c r="D7" s="7282" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="6021" t="s">
+      <c r="E7" s="7290" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="6029" t="s">
+      <c r="F7" s="7298" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5990" t="s">
+      <c r="A8" s="7259" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5998" t="s">
+      <c r="B8" s="7267" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6006" t="s">
+      <c r="C8" s="7275" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6014" t="s">
+      <c r="D8" s="7283" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6022" t="s">
+      <c r="E8" s="7291" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="6030" t="s">
+      <c r="F8" s="7299" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5991" t="s">
+      <c r="A9" s="7260" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5999" t="s">
+      <c r="B9" s="7268" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="6007" t="s">
+      <c r="C9" s="7276" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6015" t="s">
+      <c r="D9" s="7284" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="6023" t="s">
+      <c r="E9" s="7292" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="6031" t="s">
+      <c r="F9" s="7300" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5992" t="s">
+      <c r="A10" s="7261" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6000" t="s">
+      <c r="B10" s="7269" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6008" t="s">
+      <c r="C10" s="7277" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6016" t="s">
+      <c r="D10" s="7285" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="6024" t="s">
+      <c r="E10" s="7293" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="6032" t="s">
+      <c r="F10" s="7301" t="s">
         <v>40</v>
       </c>
     </row>
@@ -28708,25 +32515,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="6033" t="s">
+      <c r="C3" s="7302" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6042" t="s">
+      <c r="D3" s="7311" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="6051" t="s">
+      <c r="E3" s="7320" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="6060" t="s">
+      <c r="F3" s="7329" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="6069" t="s">
+      <c r="G3" s="7338" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="6078" t="s">
+      <c r="H3" s="7347" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="6087" t="s">
+      <c r="I3" s="7356" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -28734,25 +32541,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="6034" t="s">
+      <c r="C4" s="7303" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6043" t="s">
+      <c r="D4" s="7312" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="6052" t="s">
+      <c r="E4" s="7321" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="6061" t="s">
+      <c r="F4" s="7330" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="6070" t="s">
+      <c r="G4" s="7339" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="6079" t="s">
+      <c r="H4" s="7348" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="6088" t="s">
+      <c r="I4" s="7357" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -28760,25 +32567,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="6035" t="s">
+      <c r="C5" s="7304" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6044" t="s">
+      <c r="D5" s="7313" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="6053" t="s">
+      <c r="E5" s="7322" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="6062" t="s">
+      <c r="F5" s="7331" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="6071" t="s">
+      <c r="G5" s="7340" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="6080" t="s">
+      <c r="H5" s="7349" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="6089" t="s">
+      <c r="I5" s="7358" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -28786,25 +32593,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="6036" t="s">
+      <c r="C6" s="7305" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6045" t="s">
+      <c r="D6" s="7314" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="6054" t="s">
+      <c r="E6" s="7323" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="6063" t="s">
+      <c r="F6" s="7332" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="6072" t="s">
+      <c r="G6" s="7341" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="6081" t="s">
+      <c r="H6" s="7350" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="6090" t="s">
+      <c r="I6" s="7359" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -28812,25 +32619,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="6037" t="s">
+      <c r="C7" s="7306" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="6046" t="s">
+      <c r="D7" s="7315" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="6055" t="s">
+      <c r="E7" s="7324" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="6064" t="s">
+      <c r="F7" s="7333" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="6073" t="s">
+      <c r="G7" s="7342" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="6082" t="s">
+      <c r="H7" s="7351" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="6091" t="s">
+      <c r="I7" s="7360" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -28838,25 +32645,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="6038" t="s">
+      <c r="C8" s="7307" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6047" t="s">
+      <c r="D8" s="7316" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="6056" t="s">
+      <c r="E8" s="7325" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="6065" t="s">
+      <c r="F8" s="7334" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="6074" t="s">
+      <c r="G8" s="7343" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="6083" t="s">
+      <c r="H8" s="7352" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="6092" t="s">
+      <c r="I8" s="7361" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -28864,25 +32671,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="6039" t="s">
+      <c r="C9" s="7308" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="6048" t="s">
+      <c r="D9" s="7317" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="6057" t="s">
+      <c r="E9" s="7326" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="6066" t="s">
+      <c r="F9" s="7335" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="6075" t="s">
+      <c r="G9" s="7344" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="6084" t="s">
+      <c r="H9" s="7353" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="6093" t="s">
+      <c r="I9" s="7362" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -28890,25 +32697,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="6040" t="s">
+      <c r="C10" s="7309" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="6049" t="s">
+      <c r="D10" s="7318" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="6058" t="s">
+      <c r="E10" s="7327" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="6067" t="s">
+      <c r="F10" s="7336" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="6076" t="s">
+      <c r="G10" s="7345" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="6085" t="s">
+      <c r="H10" s="7354" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="6094" t="s">
+      <c r="I10" s="7363" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -28916,25 +32723,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="6041" t="s">
+      <c r="C11" s="7310" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6050" t="s">
+      <c r="D11" s="7319" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="6059" t="s">
+      <c r="E11" s="7328" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="6068" t="s">
+      <c r="F11" s="7337" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="6077" t="s">
+      <c r="G11" s="7346" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="6086" t="s">
+      <c r="H11" s="7355" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="6095" t="s">
+      <c r="I11" s="7364" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -29530,31 +33337,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="6096" t="s">
+      <c r="C3" s="7365" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6117" t="s">
+      <c r="D3" s="7386" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="6138" t="s">
+      <c r="E3" s="7407" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="6156" t="s">
+      <c r="F3" s="7425" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6177" t="s">
+      <c r="G3" s="7446" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="6198" t="s">
+      <c r="H3" s="7467" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="6219" t="s">
+      <c r="I3" s="7488" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="6240" t="s">
+      <c r="J3" s="7509" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="6261" t="s">
+      <c r="K3" s="7530" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -29568,31 +33375,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="6097" t="s">
+      <c r="C4" s="7366" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6118" t="s">
+      <c r="D4" s="7387" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="6139" t="s">
+      <c r="E4" s="7408" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="6157" t="s">
+      <c r="F4" s="7426" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6178" t="s">
+      <c r="G4" s="7447" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="6199" t="s">
+      <c r="H4" s="7468" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="6220" t="s">
+      <c r="I4" s="7489" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="6241" t="s">
+      <c r="J4" s="7510" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="6262" t="s">
+      <c r="K4" s="7531" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -29606,31 +33413,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="6098" t="s">
+      <c r="C5" s="7367" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6119" t="s">
+      <c r="D5" s="7388" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="6140" t="s">
+      <c r="E5" s="7409" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="6158" t="s">
+      <c r="F5" s="7427" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6179" t="s">
+      <c r="G5" s="7448" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="6200" t="s">
+      <c r="H5" s="7469" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="6221" t="s">
+      <c r="I5" s="7490" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="6242" t="s">
+      <c r="J5" s="7511" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="6263" t="s">
+      <c r="K5" s="7532" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -29644,31 +33451,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="6099" t="s">
+      <c r="C6" s="7368" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6120" t="s">
+      <c r="D6" s="7389" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="6141" t="s">
+      <c r="E6" s="7410" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="6159" t="s">
+      <c r="F6" s="7428" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6180" t="s">
+      <c r="G6" s="7449" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="6201" t="s">
+      <c r="H6" s="7470" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="6222" t="s">
+      <c r="I6" s="7491" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="6243" t="s">
+      <c r="J6" s="7512" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="6264" t="s">
+      <c r="K6" s="7533" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -29682,31 +33489,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="6100" t="s">
+      <c r="C7" s="7369" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6121" t="s">
+      <c r="D7" s="7390" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="6142" t="s">
+      <c r="E7" s="7411" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="6160" t="s">
+      <c r="F7" s="7429" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6181" t="s">
+      <c r="G7" s="7450" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="6202" t="s">
+      <c r="H7" s="7471" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="6223" t="s">
+      <c r="I7" s="7492" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="6244" t="s">
+      <c r="J7" s="7513" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="6265" t="s">
+      <c r="K7" s="7534" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -29720,31 +33527,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="6101" t="s">
+      <c r="C8" s="7370" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6122" t="s">
+      <c r="D8" s="7391" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="6143" t="s">
+      <c r="E8" s="7412" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="6161" t="s">
+      <c r="F8" s="7430" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6182" t="s">
+      <c r="G8" s="7451" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="6203" t="s">
+      <c r="H8" s="7472" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="6224" t="s">
+      <c r="I8" s="7493" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="6245" t="s">
+      <c r="J8" s="7514" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="6266" t="s">
+      <c r="K8" s="7535" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -29758,29 +33565,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="6102" t="s">
+      <c r="C9" s="7371" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6123" t="s">
+      <c r="D9" s="7392" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="6162" t="s">
+      <c r="F9" s="7431" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="6183" t="s">
+      <c r="G9" s="7452" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="6204" t="s">
+      <c r="H9" s="7473" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="6225" t="s">
+      <c r="I9" s="7494" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="6246" t="s">
+      <c r="J9" s="7515" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="6267" t="s">
+      <c r="K9" s="7536" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -29794,31 +33601,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="6103" t="s">
+      <c r="C10" s="7372" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="6124" t="s">
+      <c r="D10" s="7393" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="6144" t="s">
+      <c r="E10" s="7413" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="6163" t="s">
+      <c r="F10" s="7432" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="6184" t="s">
+      <c r="G10" s="7453" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="6205" t="s">
+      <c r="H10" s="7474" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="6226" t="s">
+      <c r="I10" s="7495" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="6247" t="s">
+      <c r="J10" s="7516" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="6268" t="s">
+      <c r="K10" s="7537" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -29832,31 +33639,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="6104" t="s">
+      <c r="C11" s="7373" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="6125" t="s">
+      <c r="D11" s="7394" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="6145" t="s">
+      <c r="E11" s="7414" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="6164" t="s">
+      <c r="F11" s="7433" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6185" t="s">
+      <c r="G11" s="7454" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="6206" t="s">
+      <c r="H11" s="7475" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="6227" t="s">
+      <c r="I11" s="7496" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="6248" t="s">
+      <c r="J11" s="7517" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="6269" t="s">
+      <c r="K11" s="7538" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -29870,31 +33677,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="6105" t="s">
+      <c r="C12" s="7374" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6126" t="s">
+      <c r="D12" s="7395" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="6146" t="s">
+      <c r="E12" s="7415" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="6165" t="s">
+      <c r="F12" s="7434" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6186" t="s">
+      <c r="G12" s="7455" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="6207" t="s">
+      <c r="H12" s="7476" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="6228" t="s">
+      <c r="I12" s="7497" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="6249" t="s">
+      <c r="J12" s="7518" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="6270" t="s">
+      <c r="K12" s="7539" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -29908,31 +33715,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="6106" t="s">
+      <c r="C13" s="7375" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="6127" t="s">
+      <c r="D13" s="7396" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="6147" t="s">
+      <c r="E13" s="7416" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="6166" t="s">
+      <c r="F13" s="7435" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="6187" t="s">
+      <c r="G13" s="7456" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="6208" t="s">
+      <c r="H13" s="7477" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="6229" t="s">
+      <c r="I13" s="7498" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="6250" t="s">
+      <c r="J13" s="7519" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="6271" t="s">
+      <c r="K13" s="7540" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -29946,31 +33753,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="6107" t="s">
+      <c r="C14" s="7376" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6128" t="s">
+      <c r="D14" s="7397" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="6148" t="s">
+      <c r="E14" s="7417" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="6167" t="s">
+      <c r="F14" s="7436" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="6188" t="s">
+      <c r="G14" s="7457" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="6209" t="s">
+      <c r="H14" s="7478" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="6230" t="s">
+      <c r="I14" s="7499" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="6251" t="s">
+      <c r="J14" s="7520" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="6272" t="s">
+      <c r="K14" s="7541" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -29984,31 +33791,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="6108" t="s">
+      <c r="C15" s="7377" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6129" t="s">
+      <c r="D15" s="7398" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="6149" t="s">
+      <c r="E15" s="7418" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="6168" t="s">
+      <c r="F15" s="7437" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="6189" t="s">
+      <c r="G15" s="7458" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="6210" t="s">
+      <c r="H15" s="7479" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="6231" t="s">
+      <c r="I15" s="7500" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="6252" t="s">
+      <c r="J15" s="7521" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="6273" t="s">
+      <c r="K15" s="7542" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -30022,29 +33829,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="6109" t="s">
+      <c r="C16" s="7378" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6130" t="s">
+      <c r="D16" s="7399" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="6169" t="s">
+      <c r="F16" s="7438" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="6190" t="s">
+      <c r="G16" s="7459" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="6211" t="s">
+      <c r="H16" s="7480" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="6232" t="s">
+      <c r="I16" s="7501" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="6253" t="s">
+      <c r="J16" s="7522" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="6274" t="s">
+      <c r="K16" s="7543" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -30058,31 +33865,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="6110" t="s">
+      <c r="C17" s="7379" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="6131" t="s">
+      <c r="D17" s="7400" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="6150" t="s">
+      <c r="E17" s="7419" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="6170" t="s">
+      <c r="F17" s="7439" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="6191" t="s">
+      <c r="G17" s="7460" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="6212" t="s">
+      <c r="H17" s="7481" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="6233" t="s">
+      <c r="I17" s="7502" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="6254" t="s">
+      <c r="J17" s="7523" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="6275" t="s">
+      <c r="K17" s="7544" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -30096,31 +33903,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="6111" t="s">
+      <c r="C18" s="7380" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="6132" t="s">
+      <c r="D18" s="7401" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="6151" t="s">
+      <c r="E18" s="7420" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="6171" t="s">
+      <c r="F18" s="7440" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="6192" t="s">
+      <c r="G18" s="7461" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="6213" t="s">
+      <c r="H18" s="7482" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="6234" t="s">
+      <c r="I18" s="7503" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="6255" t="s">
+      <c r="J18" s="7524" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="6276" t="s">
+      <c r="K18" s="7545" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -30134,31 +33941,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="6112" t="s">
+      <c r="C19" s="7381" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="6133" t="s">
+      <c r="D19" s="7402" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="6152" t="s">
+      <c r="E19" s="7421" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="6172" t="s">
+      <c r="F19" s="7441" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="6193" t="s">
+      <c r="G19" s="7462" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="6214" t="s">
+      <c r="H19" s="7483" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="6235" t="s">
+      <c r="I19" s="7504" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="6256" t="s">
+      <c r="J19" s="7525" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="6277" t="s">
+      <c r="K19" s="7546" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -30172,31 +33979,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="6113" t="s">
+      <c r="C20" s="7382" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="6134" t="s">
+      <c r="D20" s="7403" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="6153" t="s">
+      <c r="E20" s="7422" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="6173" t="s">
+      <c r="F20" s="7442" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="6194" t="s">
+      <c r="G20" s="7463" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="6215" t="s">
+      <c r="H20" s="7484" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="6236" t="s">
+      <c r="I20" s="7505" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="6257" t="s">
+      <c r="J20" s="7526" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="6278" t="s">
+      <c r="K20" s="7547" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -30210,31 +34017,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="6114" t="s">
+      <c r="C21" s="7383" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="6135" t="s">
+      <c r="D21" s="7404" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="6154" t="s">
+      <c r="E21" s="7423" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="6174" t="s">
+      <c r="F21" s="7443" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="6195" t="s">
+      <c r="G21" s="7464" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="6216" t="s">
+      <c r="H21" s="7485" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="6237" t="s">
+      <c r="I21" s="7506" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="6258" t="s">
+      <c r="J21" s="7527" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="6279" t="s">
+      <c r="K21" s="7548" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -30248,31 +34055,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="6115" t="s">
+      <c r="C22" s="7384" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6136" t="s">
+      <c r="D22" s="7405" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="6155" t="s">
+      <c r="E22" s="7424" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="6175" t="s">
+      <c r="F22" s="7444" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="6196" t="s">
+      <c r="G22" s="7465" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="6217" t="s">
+      <c r="H22" s="7486" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="6238" t="s">
+      <c r="I22" s="7507" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="6259" t="s">
+      <c r="J22" s="7528" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="6280" t="s">
+      <c r="K22" s="7549" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -30286,29 +34093,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="6116" t="s">
+      <c r="C23" s="7385" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="6137" t="s">
+      <c r="D23" s="7406" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="6176" t="s">
+      <c r="F23" s="7445" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="6197" t="s">
+      <c r="G23" s="7466" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="6218" t="s">
+      <c r="H23" s="7487" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="6239" t="s">
+      <c r="I23" s="7508" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="6260" t="s">
+      <c r="J23" s="7529" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="6281" t="s">
+      <c r="K23" s="7550" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -31294,28 +35101,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="6282" t="s">
+      <c r="C3" s="7551" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6291" t="s">
+      <c r="D3" s="7560" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="6300" t="s">
+      <c r="E3" s="7569" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="6309" t="s">
+      <c r="F3" s="7578" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="6318" t="s">
+      <c r="G3" s="7587" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="6327" t="s">
+      <c r="H3" s="7596" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="6336" t="s">
+      <c r="I3" s="7605" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="6345" t="s">
+      <c r="J3" s="7614" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -31323,28 +35130,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="6283" t="s">
+      <c r="C4" s="7552" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6292" t="s">
+      <c r="D4" s="7561" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="6301" t="s">
+      <c r="E4" s="7570" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="6310" t="s">
+      <c r="F4" s="7579" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="6319" t="s">
+      <c r="G4" s="7588" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="6328" t="s">
+      <c r="H4" s="7597" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="6337" t="s">
+      <c r="I4" s="7606" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="6346" t="s">
+      <c r="J4" s="7615" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -31352,28 +35159,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="6284" t="s">
+      <c r="C5" s="7553" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6293" t="s">
+      <c r="D5" s="7562" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="6302" t="s">
+      <c r="E5" s="7571" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="6311" t="s">
+      <c r="F5" s="7580" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="6320" t="s">
+      <c r="G5" s="7589" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="6329" t="s">
+      <c r="H5" s="7598" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="6338" t="s">
+      <c r="I5" s="7607" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="6347" t="s">
+      <c r="J5" s="7616" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -31381,28 +35188,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="6285" t="s">
+      <c r="C6" s="7554" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6294" t="s">
+      <c r="D6" s="7563" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="6303" t="s">
+      <c r="E6" s="7572" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="6312" t="s">
+      <c r="F6" s="7581" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="6321" t="s">
+      <c r="G6" s="7590" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="6330" t="s">
+      <c r="H6" s="7599" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="6339" t="s">
+      <c r="I6" s="7608" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="6348" t="s">
+      <c r="J6" s="7617" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -31410,28 +35217,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="6286" t="s">
+      <c r="C7" s="7555" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="6295" t="s">
+      <c r="D7" s="7564" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="6304" t="s">
+      <c r="E7" s="7573" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="6313" t="s">
+      <c r="F7" s="7582" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="6322" t="s">
+      <c r="G7" s="7591" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="6331" t="s">
+      <c r="H7" s="7600" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="6340" t="s">
+      <c r="I7" s="7609" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="6349" t="s">
+      <c r="J7" s="7618" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -31439,28 +35246,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="6287" t="s">
+      <c r="C8" s="7556" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6296" t="s">
+      <c r="D8" s="7565" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="6305" t="s">
+      <c r="E8" s="7574" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="6314" t="s">
+      <c r="F8" s="7583" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="6323" t="s">
+      <c r="G8" s="7592" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="6332" t="s">
+      <c r="H8" s="7601" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="6341" t="s">
+      <c r="I8" s="7610" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="6350" t="s">
+      <c r="J8" s="7619" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -31468,28 +35275,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="6288" t="s">
+      <c r="C9" s="7557" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="6297" t="s">
+      <c r="D9" s="7566" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="6306" t="s">
+      <c r="E9" s="7575" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="6315" t="s">
+      <c r="F9" s="7584" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="6324" t="s">
+      <c r="G9" s="7593" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="6333" t="s">
+      <c r="H9" s="7602" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="6342" t="s">
+      <c r="I9" s="7611" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="6351" t="s">
+      <c r="J9" s="7620" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -31497,28 +35304,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="6289" t="s">
+      <c r="C10" s="7558" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="6298" t="s">
+      <c r="D10" s="7567" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="6307" t="s">
+      <c r="E10" s="7576" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="6316" t="s">
+      <c r="F10" s="7585" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="6325" t="s">
+      <c r="G10" s="7594" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="6334" t="s">
+      <c r="H10" s="7603" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="6343" t="s">
+      <c r="I10" s="7612" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="6352" t="s">
+      <c r="J10" s="7621" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -31526,28 +35333,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="6290" t="s">
+      <c r="C11" s="7559" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6299" t="s">
+      <c r="D11" s="7568" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="6308" t="s">
+      <c r="E11" s="7577" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="6317" t="s">
+      <c r="F11" s="7586" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="6326" t="s">
+      <c r="G11" s="7595" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="6335" t="s">
+      <c r="H11" s="7604" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="6344" t="s">
+      <c r="I11" s="7613" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="6353" t="s">
+      <c r="J11" s="7622" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -32234,31 +36041,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="6354" t="s">
+      <c r="C3" s="7623" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6360" t="s">
+      <c r="D3" s="7629" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="6366" t="s">
+      <c r="E3" s="7635" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="6372" t="s">
+      <c r="F3" s="7641" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="6378" t="s">
+      <c r="G3" s="7647" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="6384" t="s">
+      <c r="H3" s="7653" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="6390" t="s">
+      <c r="I3" s="7659" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="6396" t="s">
+      <c r="J3" s="7665" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="6402" t="s">
+      <c r="K3" s="7671" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -32274,31 +36081,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="6355" t="s">
+      <c r="C4" s="7624" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6361" t="s">
+      <c r="D4" s="7630" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="6367" t="s">
+      <c r="E4" s="7636" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="6373" t="s">
+      <c r="F4" s="7642" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="6379" t="s">
+      <c r="G4" s="7648" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="6385" t="s">
+      <c r="H4" s="7654" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="6391" t="s">
+      <c r="I4" s="7660" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="6397" t="s">
+      <c r="J4" s="7666" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="6403" t="s">
+      <c r="K4" s="7672" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -32314,31 +36121,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="6356" t="s">
+      <c r="C5" s="7625" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="6362" t="s">
+      <c r="D5" s="7631" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="6368" t="s">
+      <c r="E5" s="7637" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="6374" t="s">
+      <c r="F5" s="7643" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="6380" t="s">
+      <c r="G5" s="7649" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="6386" t="s">
+      <c r="H5" s="7655" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="6392" t="s">
+      <c r="I5" s="7661" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="6398" t="s">
+      <c r="J5" s="7667" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="6404" t="s">
+      <c r="K5" s="7673" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -32354,31 +36161,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="6357" t="s">
+      <c r="C6" s="7626" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6363" t="s">
+      <c r="D6" s="7632" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="6369" t="s">
+      <c r="E6" s="7638" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="6375" t="s">
+      <c r="F6" s="7644" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="6381" t="s">
+      <c r="G6" s="7650" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="6387" t="s">
+      <c r="H6" s="7656" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="6393" t="s">
+      <c r="I6" s="7662" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="6399" t="s">
+      <c r="J6" s="7668" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="6405" t="s">
+      <c r="K6" s="7674" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -32394,31 +36201,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="6358" t="s">
+      <c r="C7" s="7627" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6364" t="s">
+      <c r="D7" s="7633" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="6370" t="s">
+      <c r="E7" s="7639" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="6376" t="s">
+      <c r="F7" s="7645" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="6382" t="s">
+      <c r="G7" s="7651" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="6388" t="s">
+      <c r="H7" s="7657" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="6394" t="s">
+      <c r="I7" s="7663" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="6400" t="s">
+      <c r="J7" s="7669" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="6406" t="s">
+      <c r="K7" s="7675" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -32434,31 +36241,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="6359" t="s">
+      <c r="C8" s="7628" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="6365" t="s">
+      <c r="D8" s="7634" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="6371" t="s">
+      <c r="E8" s="7640" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="6377" t="s">
+      <c r="F8" s="7646" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="6383" t="s">
+      <c r="G8" s="7652" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="6389" t="s">
+      <c r="H8" s="7658" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="6395" t="s">
+      <c r="I8" s="7664" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="6401" t="s">
+      <c r="J8" s="7670" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="6407" t="s">
+      <c r="K8" s="7676" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8650" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9073" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7677">
+  <cellXfs count="8100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,1275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -32232,162 +33501,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7254" t="s">
+      <c r="A3" s="7677" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7262" t="s">
+      <c r="B3" s="7685" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7270" t="s">
+      <c r="C3" s="7693" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7278" t="s">
+      <c r="D3" s="7701" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7286" t="s">
+      <c r="E3" s="7709" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7294" t="s">
+      <c r="F3" s="7717" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7255" t="s">
+      <c r="A4" s="7678" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7263" t="s">
+      <c r="B4" s="7686" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="7271" t="s">
+      <c r="C4" s="7694" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="7279" t="s">
+      <c r="D4" s="7702" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="7287" t="s">
+      <c r="E4" s="7710" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="7295" t="s">
+      <c r="F4" s="7718" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7256" t="s">
+      <c r="A5" s="7679" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7264" t="s">
+      <c r="B5" s="7687" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7272" t="s">
+      <c r="C5" s="7695" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7280" t="s">
+      <c r="D5" s="7703" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="7288" t="s">
+      <c r="E5" s="7711" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="7296" t="s">
+      <c r="F5" s="7719" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7257" t="s">
+      <c r="A6" s="7680" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7265" t="s">
+      <c r="B6" s="7688" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="7273" t="s">
+      <c r="C6" s="7696" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="7281" t="s">
+      <c r="D6" s="7704" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="7289" t="s">
+      <c r="E6" s="7712" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="7297" t="s">
+      <c r="F6" s="7720" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7258" t="s">
+      <c r="A7" s="7681" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7266" t="s">
+      <c r="B7" s="7689" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7274" t="s">
+      <c r="C7" s="7697" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7282" t="s">
+      <c r="D7" s="7705" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="7290" t="s">
+      <c r="E7" s="7713" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="7298" t="s">
+      <c r="F7" s="7721" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7259" t="s">
+      <c r="A8" s="7682" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7267" t="s">
+      <c r="B8" s="7690" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7275" t="s">
+      <c r="C8" s="7698" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7283" t="s">
+      <c r="D8" s="7706" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7291" t="s">
+      <c r="E8" s="7714" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="7299" t="s">
+      <c r="F8" s="7722" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7260" t="s">
+      <c r="A9" s="7683" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7268" t="s">
+      <c r="B9" s="7691" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="7276" t="s">
+      <c r="C9" s="7699" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7284" t="s">
+      <c r="D9" s="7707" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="7292" t="s">
+      <c r="E9" s="7715" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="7300" t="s">
+      <c r="F9" s="7723" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7261" t="s">
+      <c r="A10" s="7684" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7269" t="s">
+      <c r="B10" s="7692" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7277" t="s">
+      <c r="C10" s="7700" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7285" t="s">
+      <c r="D10" s="7708" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="7293" t="s">
+      <c r="E10" s="7716" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7301" t="s">
+      <c r="F10" s="7724" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32515,25 +33784,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="7302" t="s">
+      <c r="C3" s="7725" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7311" t="s">
+      <c r="D3" s="7734" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7320" t="s">
+      <c r="E3" s="7743" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="7329" t="s">
+      <c r="F3" s="7752" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="7338" t="s">
+      <c r="G3" s="7761" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="7347" t="s">
+      <c r="H3" s="7770" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="7356" t="s">
+      <c r="I3" s="7779" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -32541,25 +33810,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="7303" t="s">
+      <c r="C4" s="7726" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7312" t="s">
+      <c r="D4" s="7735" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="7321" t="s">
+      <c r="E4" s="7744" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="7330" t="s">
+      <c r="F4" s="7753" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="7339" t="s">
+      <c r="G4" s="7762" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="7348" t="s">
+      <c r="H4" s="7771" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="7357" t="s">
+      <c r="I4" s="7780" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -32567,25 +33836,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="7304" t="s">
+      <c r="C5" s="7727" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7313" t="s">
+      <c r="D5" s="7736" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="7322" t="s">
+      <c r="E5" s="7745" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="7331" t="s">
+      <c r="F5" s="7754" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="7340" t="s">
+      <c r="G5" s="7763" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="7349" t="s">
+      <c r="H5" s="7772" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="7358" t="s">
+      <c r="I5" s="7781" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -32593,25 +33862,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="7305" t="s">
+      <c r="C6" s="7728" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7314" t="s">
+      <c r="D6" s="7737" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="7323" t="s">
+      <c r="E6" s="7746" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="7332" t="s">
+      <c r="F6" s="7755" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="7341" t="s">
+      <c r="G6" s="7764" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="7350" t="s">
+      <c r="H6" s="7773" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="7359" t="s">
+      <c r="I6" s="7782" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -32619,25 +33888,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="7306" t="s">
+      <c r="C7" s="7729" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7315" t="s">
+      <c r="D7" s="7738" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="7324" t="s">
+      <c r="E7" s="7747" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="7333" t="s">
+      <c r="F7" s="7756" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="7342" t="s">
+      <c r="G7" s="7765" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="7351" t="s">
+      <c r="H7" s="7774" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="7360" t="s">
+      <c r="I7" s="7783" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -32645,25 +33914,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="7307" t="s">
+      <c r="C8" s="7730" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7316" t="s">
+      <c r="D8" s="7739" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="7325" t="s">
+      <c r="E8" s="7748" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="7334" t="s">
+      <c r="F8" s="7757" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="7343" t="s">
+      <c r="G8" s="7766" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="7352" t="s">
+      <c r="H8" s="7775" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="7361" t="s">
+      <c r="I8" s="7784" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -32671,25 +33940,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="7308" t="s">
+      <c r="C9" s="7731" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7317" t="s">
+      <c r="D9" s="7740" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="7326" t="s">
+      <c r="E9" s="7749" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="7335" t="s">
+      <c r="F9" s="7758" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="7344" t="s">
+      <c r="G9" s="7767" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="7353" t="s">
+      <c r="H9" s="7776" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="7362" t="s">
+      <c r="I9" s="7785" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -32697,25 +33966,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="7309" t="s">
+      <c r="C10" s="7732" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7318" t="s">
+      <c r="D10" s="7741" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="7327" t="s">
+      <c r="E10" s="7750" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="7336" t="s">
+      <c r="F10" s="7759" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="7345" t="s">
+      <c r="G10" s="7768" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="7354" t="s">
+      <c r="H10" s="7777" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="7363" t="s">
+      <c r="I10" s="7786" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -32723,25 +33992,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="7310" t="s">
+      <c r="C11" s="7733" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7319" t="s">
+      <c r="D11" s="7742" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="7328" t="s">
+      <c r="E11" s="7751" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="7337" t="s">
+      <c r="F11" s="7760" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="7346" t="s">
+      <c r="G11" s="7769" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7355" t="s">
+      <c r="H11" s="7778" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="7364" t="s">
+      <c r="I11" s="7787" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -33337,31 +34606,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="7365" t="s">
+      <c r="C3" s="7788" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7386" t="s">
+      <c r="D3" s="7809" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7407" t="s">
+      <c r="E3" s="7830" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="7425" t="s">
+      <c r="F3" s="7848" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7446" t="s">
+      <c r="G3" s="7869" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="7467" t="s">
+      <c r="H3" s="7890" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="7488" t="s">
+      <c r="I3" s="7911" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="7509" t="s">
+      <c r="J3" s="7932" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="7530" t="s">
+      <c r="K3" s="7953" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -33375,31 +34644,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="7366" t="s">
+      <c r="C4" s="7789" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7387" t="s">
+      <c r="D4" s="7810" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="7408" t="s">
+      <c r="E4" s="7831" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="7426" t="s">
+      <c r="F4" s="7849" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7447" t="s">
+      <c r="G4" s="7870" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="7468" t="s">
+      <c r="H4" s="7891" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="7489" t="s">
+      <c r="I4" s="7912" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="7510" t="s">
+      <c r="J4" s="7933" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="7531" t="s">
+      <c r="K4" s="7954" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -33413,31 +34682,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="7367" t="s">
+      <c r="C5" s="7790" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7388" t="s">
+      <c r="D5" s="7811" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="7409" t="s">
+      <c r="E5" s="7832" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="7427" t="s">
+      <c r="F5" s="7850" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7448" t="s">
+      <c r="G5" s="7871" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="7469" t="s">
+      <c r="H5" s="7892" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="7490" t="s">
+      <c r="I5" s="7913" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="7511" t="s">
+      <c r="J5" s="7934" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="7532" t="s">
+      <c r="K5" s="7955" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -33451,31 +34720,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="7368" t="s">
+      <c r="C6" s="7791" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="7389" t="s">
+      <c r="D6" s="7812" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="7410" t="s">
+      <c r="E6" s="7833" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7428" t="s">
+      <c r="F6" s="7851" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7449" t="s">
+      <c r="G6" s="7872" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="7470" t="s">
+      <c r="H6" s="7893" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="7491" t="s">
+      <c r="I6" s="7914" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="7512" t="s">
+      <c r="J6" s="7935" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="7533" t="s">
+      <c r="K6" s="7956" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -33489,31 +34758,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="7369" t="s">
+      <c r="C7" s="7792" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7390" t="s">
+      <c r="D7" s="7813" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="7411" t="s">
+      <c r="E7" s="7834" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="7429" t="s">
+      <c r="F7" s="7852" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7450" t="s">
+      <c r="G7" s="7873" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="7471" t="s">
+      <c r="H7" s="7894" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="7492" t="s">
+      <c r="I7" s="7915" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="7513" t="s">
+      <c r="J7" s="7936" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="7534" t="s">
+      <c r="K7" s="7957" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -33527,31 +34796,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="7370" t="s">
+      <c r="C8" s="7793" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7391" t="s">
+      <c r="D8" s="7814" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="7412" t="s">
+      <c r="E8" s="7835" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="7430" t="s">
+      <c r="F8" s="7853" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7451" t="s">
+      <c r="G8" s="7874" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="7472" t="s">
+      <c r="H8" s="7895" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="7493" t="s">
+      <c r="I8" s="7916" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="7514" t="s">
+      <c r="J8" s="7937" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="7535" t="s">
+      <c r="K8" s="7958" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -33565,29 +34834,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="7371" t="s">
+      <c r="C9" s="7794" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="7392" t="s">
+      <c r="D9" s="7815" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="7431" t="s">
+      <c r="F9" s="7854" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="7452" t="s">
+      <c r="G9" s="7875" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="7473" t="s">
+      <c r="H9" s="7896" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="7494" t="s">
+      <c r="I9" s="7917" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="7515" t="s">
+      <c r="J9" s="7938" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="7536" t="s">
+      <c r="K9" s="7959" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -33601,31 +34870,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="7372" t="s">
+      <c r="C10" s="7795" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7393" t="s">
+      <c r="D10" s="7816" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="7413" t="s">
+      <c r="E10" s="7836" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="7432" t="s">
+      <c r="F10" s="7855" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7453" t="s">
+      <c r="G10" s="7876" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="7474" t="s">
+      <c r="H10" s="7897" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="7495" t="s">
+      <c r="I10" s="7918" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="7516" t="s">
+      <c r="J10" s="7939" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="7537" t="s">
+      <c r="K10" s="7960" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -33639,31 +34908,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="7373" t="s">
+      <c r="C11" s="7796" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="7394" t="s">
+      <c r="D11" s="7817" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="7414" t="s">
+      <c r="E11" s="7837" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="7433" t="s">
+      <c r="F11" s="7856" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="7454" t="s">
+      <c r="G11" s="7877" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="7475" t="s">
+      <c r="H11" s="7898" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="7496" t="s">
+      <c r="I11" s="7919" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="7517" t="s">
+      <c r="J11" s="7940" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7538" t="s">
+      <c r="K11" s="7961" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -33677,31 +34946,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="7374" t="s">
+      <c r="C12" s="7797" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7395" t="s">
+      <c r="D12" s="7818" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="7415" t="s">
+      <c r="E12" s="7838" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="7434" t="s">
+      <c r="F12" s="7857" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7455" t="s">
+      <c r="G12" s="7878" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="7476" t="s">
+      <c r="H12" s="7899" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="7497" t="s">
+      <c r="I12" s="7920" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="7518" t="s">
+      <c r="J12" s="7941" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="7539" t="s">
+      <c r="K12" s="7962" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -33715,31 +34984,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="7375" t="s">
+      <c r="C13" s="7798" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7396" t="s">
+      <c r="D13" s="7819" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="7416" t="s">
+      <c r="E13" s="7839" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="7435" t="s">
+      <c r="F13" s="7858" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7456" t="s">
+      <c r="G13" s="7879" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="7477" t="s">
+      <c r="H13" s="7900" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="7498" t="s">
+      <c r="I13" s="7921" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="7519" t="s">
+      <c r="J13" s="7942" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="7540" t="s">
+      <c r="K13" s="7963" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -33753,31 +35022,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="7376" t="s">
+      <c r="C14" s="7799" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="7397" t="s">
+      <c r="D14" s="7820" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="7417" t="s">
+      <c r="E14" s="7840" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="7436" t="s">
+      <c r="F14" s="7859" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7457" t="s">
+      <c r="G14" s="7880" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="7478" t="s">
+      <c r="H14" s="7901" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="7499" t="s">
+      <c r="I14" s="7922" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="7520" t="s">
+      <c r="J14" s="7943" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="7541" t="s">
+      <c r="K14" s="7964" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -33791,31 +35060,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="7377" t="s">
+      <c r="C15" s="7800" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="7398" t="s">
+      <c r="D15" s="7821" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="7418" t="s">
+      <c r="E15" s="7841" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="7437" t="s">
+      <c r="F15" s="7860" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="7458" t="s">
+      <c r="G15" s="7881" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="7479" t="s">
+      <c r="H15" s="7902" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="7500" t="s">
+      <c r="I15" s="7923" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="7521" t="s">
+      <c r="J15" s="7944" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="7542" t="s">
+      <c r="K15" s="7965" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -33829,29 +35098,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="7378" t="s">
+      <c r="C16" s="7801" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7399" t="s">
+      <c r="D16" s="7822" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="7438" t="s">
+      <c r="F16" s="7861" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="7459" t="s">
+      <c r="G16" s="7882" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="7480" t="s">
+      <c r="H16" s="7903" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="7501" t="s">
+      <c r="I16" s="7924" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="7522" t="s">
+      <c r="J16" s="7945" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="7543" t="s">
+      <c r="K16" s="7966" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -33865,31 +35134,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="7379" t="s">
+      <c r="C17" s="7802" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="7400" t="s">
+      <c r="D17" s="7823" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="7419" t="s">
+      <c r="E17" s="7842" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7439" t="s">
+      <c r="F17" s="7862" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="7460" t="s">
+      <c r="G17" s="7883" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="7481" t="s">
+      <c r="H17" s="7904" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="7502" t="s">
+      <c r="I17" s="7925" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="7523" t="s">
+      <c r="J17" s="7946" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="7544" t="s">
+      <c r="K17" s="7967" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -33903,31 +35172,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="7380" t="s">
+      <c r="C18" s="7803" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7401" t="s">
+      <c r="D18" s="7824" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="7420" t="s">
+      <c r="E18" s="7843" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7440" t="s">
+      <c r="F18" s="7863" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7461" t="s">
+      <c r="G18" s="7884" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="7482" t="s">
+      <c r="H18" s="7905" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="7503" t="s">
+      <c r="I18" s="7926" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="7524" t="s">
+      <c r="J18" s="7947" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="7545" t="s">
+      <c r="K18" s="7968" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -33941,31 +35210,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="7381" t="s">
+      <c r="C19" s="7804" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="7402" t="s">
+      <c r="D19" s="7825" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="7421" t="s">
+      <c r="E19" s="7844" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7441" t="s">
+      <c r="F19" s="7864" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7462" t="s">
+      <c r="G19" s="7885" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="7483" t="s">
+      <c r="H19" s="7906" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="7504" t="s">
+      <c r="I19" s="7927" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="7525" t="s">
+      <c r="J19" s="7948" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="7546" t="s">
+      <c r="K19" s="7969" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -33979,31 +35248,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="7382" t="s">
+      <c r="C20" s="7805" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7403" t="s">
+      <c r="D20" s="7826" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="7422" t="s">
+      <c r="E20" s="7845" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7442" t="s">
+      <c r="F20" s="7865" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="7463" t="s">
+      <c r="G20" s="7886" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="7484" t="s">
+      <c r="H20" s="7907" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="7505" t="s">
+      <c r="I20" s="7928" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="7526" t="s">
+      <c r="J20" s="7949" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="7547" t="s">
+      <c r="K20" s="7970" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -34017,31 +35286,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="7383" t="s">
+      <c r="C21" s="7806" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7404" t="s">
+      <c r="D21" s="7827" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="7423" t="s">
+      <c r="E21" s="7846" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="7443" t="s">
+      <c r="F21" s="7866" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="7464" t="s">
+      <c r="G21" s="7887" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="7485" t="s">
+      <c r="H21" s="7908" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="7506" t="s">
+      <c r="I21" s="7929" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="7527" t="s">
+      <c r="J21" s="7950" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="7548" t="s">
+      <c r="K21" s="7971" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -34055,31 +35324,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="7384" t="s">
+      <c r="C22" s="7807" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="7405" t="s">
+      <c r="D22" s="7828" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="7424" t="s">
+      <c r="E22" s="7847" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="7444" t="s">
+      <c r="F22" s="7867" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="7465" t="s">
+      <c r="G22" s="7888" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="7486" t="s">
+      <c r="H22" s="7909" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="7507" t="s">
+      <c r="I22" s="7930" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="7528" t="s">
+      <c r="J22" s="7951" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="7549" t="s">
+      <c r="K22" s="7972" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -34093,29 +35362,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="7385" t="s">
+      <c r="C23" s="7808" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="7406" t="s">
+      <c r="D23" s="7829" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="7445" t="s">
+      <c r="F23" s="7868" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="7466" t="s">
+      <c r="G23" s="7889" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="7487" t="s">
+      <c r="H23" s="7910" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="7508" t="s">
+      <c r="I23" s="7931" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="7529" t="s">
+      <c r="J23" s="7952" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="7550" t="s">
+      <c r="K23" s="7973" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -35101,28 +36370,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="7551" t="s">
+      <c r="C3" s="7974" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7560" t="s">
+      <c r="D3" s="7983" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7569" t="s">
+      <c r="E3" s="7992" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="7578" t="s">
+      <c r="F3" s="8001" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="7587" t="s">
+      <c r="G3" s="8010" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="7596" t="s">
+      <c r="H3" s="8019" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="7605" t="s">
+      <c r="I3" s="8028" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="7614" t="s">
+      <c r="J3" s="8037" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -35130,28 +36399,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="7552" t="s">
+      <c r="C4" s="7975" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7561" t="s">
+      <c r="D4" s="7984" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="7570" t="s">
+      <c r="E4" s="7993" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="7579" t="s">
+      <c r="F4" s="8002" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="7588" t="s">
+      <c r="G4" s="8011" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="7597" t="s">
+      <c r="H4" s="8020" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="7606" t="s">
+      <c r="I4" s="8029" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="7615" t="s">
+      <c r="J4" s="8038" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -35159,28 +36428,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="7553" t="s">
+      <c r="C5" s="7976" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7562" t="s">
+      <c r="D5" s="7985" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="7571" t="s">
+      <c r="E5" s="7994" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="7580" t="s">
+      <c r="F5" s="8003" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="7589" t="s">
+      <c r="G5" s="8012" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="7598" t="s">
+      <c r="H5" s="8021" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="7607" t="s">
+      <c r="I5" s="8030" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="7616" t="s">
+      <c r="J5" s="8039" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -35188,28 +36457,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="7554" t="s">
+      <c r="C6" s="7977" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7563" t="s">
+      <c r="D6" s="7986" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="7572" t="s">
+      <c r="E6" s="7995" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="7581" t="s">
+      <c r="F6" s="8004" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="7590" t="s">
+      <c r="G6" s="8013" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="7599" t="s">
+      <c r="H6" s="8022" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="7608" t="s">
+      <c r="I6" s="8031" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="7617" t="s">
+      <c r="J6" s="8040" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -35217,28 +36486,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="7555" t="s">
+      <c r="C7" s="7978" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7564" t="s">
+      <c r="D7" s="7987" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="7573" t="s">
+      <c r="E7" s="7996" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="7582" t="s">
+      <c r="F7" s="8005" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="7591" t="s">
+      <c r="G7" s="8014" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="7600" t="s">
+      <c r="H7" s="8023" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="7609" t="s">
+      <c r="I7" s="8032" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="7618" t="s">
+      <c r="J7" s="8041" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -35246,28 +36515,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="7556" t="s">
+      <c r="C8" s="7979" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7565" t="s">
+      <c r="D8" s="7988" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="7574" t="s">
+      <c r="E8" s="7997" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="7583" t="s">
+      <c r="F8" s="8006" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="7592" t="s">
+      <c r="G8" s="8015" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="7601" t="s">
+      <c r="H8" s="8024" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="7610" t="s">
+      <c r="I8" s="8033" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="7619" t="s">
+      <c r="J8" s="8042" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -35275,28 +36544,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="7557" t="s">
+      <c r="C9" s="7980" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7566" t="s">
+      <c r="D9" s="7989" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="7575" t="s">
+      <c r="E9" s="7998" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="7584" t="s">
+      <c r="F9" s="8007" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="7593" t="s">
+      <c r="G9" s="8016" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="7602" t="s">
+      <c r="H9" s="8025" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="7611" t="s">
+      <c r="I9" s="8034" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="7620" t="s">
+      <c r="J9" s="8043" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -35304,28 +36573,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="7558" t="s">
+      <c r="C10" s="7981" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7567" t="s">
+      <c r="D10" s="7990" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="7576" t="s">
+      <c r="E10" s="7999" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="7585" t="s">
+      <c r="F10" s="8008" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="7594" t="s">
+      <c r="G10" s="8017" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="7603" t="s">
+      <c r="H10" s="8026" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="7612" t="s">
+      <c r="I10" s="8035" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="7621" t="s">
+      <c r="J10" s="8044" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -35333,28 +36602,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="7559" t="s">
+      <c r="C11" s="7982" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7568" t="s">
+      <c r="D11" s="7991" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="7577" t="s">
+      <c r="E11" s="8000" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="7586" t="s">
+      <c r="F11" s="8009" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="7595" t="s">
+      <c r="G11" s="8018" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7604" t="s">
+      <c r="H11" s="8027" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="7613" t="s">
+      <c r="I11" s="8036" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="7622" t="s">
+      <c r="J11" s="8045" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -36041,31 +37310,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="7623" t="s">
+      <c r="C3" s="8046" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7629" t="s">
+      <c r="D3" s="8052" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="7635" t="s">
+      <c r="E3" s="8058" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="7641" t="s">
+      <c r="F3" s="8064" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="7647" t="s">
+      <c r="G3" s="8070" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="7653" t="s">
+      <c r="H3" s="8076" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="7659" t="s">
+      <c r="I3" s="8082" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="7665" t="s">
+      <c r="J3" s="8088" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="7671" t="s">
+      <c r="K3" s="8094" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -36081,31 +37350,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="7624" t="s">
+      <c r="C4" s="8047" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7630" t="s">
+      <c r="D4" s="8053" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="7636" t="s">
+      <c r="E4" s="8059" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="7642" t="s">
+      <c r="F4" s="8065" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="7648" t="s">
+      <c r="G4" s="8071" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="7654" t="s">
+      <c r="H4" s="8077" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="7660" t="s">
+      <c r="I4" s="8083" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="7666" t="s">
+      <c r="J4" s="8089" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="7672" t="s">
+      <c r="K4" s="8095" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -36121,31 +37390,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="7625" t="s">
+      <c r="C5" s="8048" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="7631" t="s">
+      <c r="D5" s="8054" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="7637" t="s">
+      <c r="E5" s="8060" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="7643" t="s">
+      <c r="F5" s="8066" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="7649" t="s">
+      <c r="G5" s="8072" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="7655" t="s">
+      <c r="H5" s="8078" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="7661" t="s">
+      <c r="I5" s="8084" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="7667" t="s">
+      <c r="J5" s="8090" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="7673" t="s">
+      <c r="K5" s="8096" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -36161,31 +37430,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="7626" t="s">
+      <c r="C6" s="8049" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7632" t="s">
+      <c r="D6" s="8055" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="7638" t="s">
+      <c r="E6" s="8061" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7644" t="s">
+      <c r="F6" s="8067" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="7650" t="s">
+      <c r="G6" s="8073" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="7656" t="s">
+      <c r="H6" s="8079" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="7662" t="s">
+      <c r="I6" s="8085" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="7668" t="s">
+      <c r="J6" s="8091" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="7674" t="s">
+      <c r="K6" s="8097" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -36201,31 +37470,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="7627" t="s">
+      <c r="C7" s="8050" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7633" t="s">
+      <c r="D7" s="8056" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="7639" t="s">
+      <c r="E7" s="8062" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="7645" t="s">
+      <c r="F7" s="8068" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="7651" t="s">
+      <c r="G7" s="8074" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="7657" t="s">
+      <c r="H7" s="8080" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="7663" t="s">
+      <c r="I7" s="8086" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="7669" t="s">
+      <c r="J7" s="8092" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="7675" t="s">
+      <c r="K7" s="8098" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -36241,31 +37510,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="7628" t="s">
+      <c r="C8" s="8051" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="7634" t="s">
+      <c r="D8" s="8057" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="7640" t="s">
+      <c r="E8" s="8063" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="7646" t="s">
+      <c r="F8" s="8069" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="7652" t="s">
+      <c r="G8" s="8075" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="7658" t="s">
+      <c r="H8" s="8081" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="7664" t="s">
+      <c r="I8" s="8087" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="7670" t="s">
+      <c r="J8" s="8093" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="7676" t="s">
+      <c r="K8" s="8099" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9073" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9496" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8100">
+  <cellXfs count="8523">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,1275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -33501,162 +34770,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7677" t="s">
+      <c r="A3" s="8100" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7685" t="s">
+      <c r="B3" s="8108" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7693" t="s">
+      <c r="C3" s="8116" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7701" t="s">
+      <c r="D3" s="8124" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7709" t="s">
+      <c r="E3" s="8132" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7717" t="s">
+      <c r="F3" s="8140" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7678" t="s">
+      <c r="A4" s="8101" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7686" t="s">
+      <c r="B4" s="8109" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="7694" t="s">
+      <c r="C4" s="8117" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="7702" t="s">
+      <c r="D4" s="8125" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="7710" t="s">
+      <c r="E4" s="8133" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="7718" t="s">
+      <c r="F4" s="8141" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7679" t="s">
+      <c r="A5" s="8102" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7687" t="s">
+      <c r="B5" s="8110" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7695" t="s">
+      <c r="C5" s="8118" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7703" t="s">
+      <c r="D5" s="8126" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="7711" t="s">
+      <c r="E5" s="8134" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="7719" t="s">
+      <c r="F5" s="8142" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7680" t="s">
+      <c r="A6" s="8103" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7688" t="s">
+      <c r="B6" s="8111" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="7696" t="s">
+      <c r="C6" s="8119" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="7704" t="s">
+      <c r="D6" s="8127" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="7712" t="s">
+      <c r="E6" s="8135" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="7720" t="s">
+      <c r="F6" s="8143" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7681" t="s">
+      <c r="A7" s="8104" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7689" t="s">
+      <c r="B7" s="8112" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7697" t="s">
+      <c r="C7" s="8120" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7705" t="s">
+      <c r="D7" s="8128" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="7713" t="s">
+      <c r="E7" s="8136" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="7721" t="s">
+      <c r="F7" s="8144" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7682" t="s">
+      <c r="A8" s="8105" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7690" t="s">
+      <c r="B8" s="8113" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7698" t="s">
+      <c r="C8" s="8121" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7706" t="s">
+      <c r="D8" s="8129" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7714" t="s">
+      <c r="E8" s="8137" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="7722" t="s">
+      <c r="F8" s="8145" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7683" t="s">
+      <c r="A9" s="8106" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7691" t="s">
+      <c r="B9" s="8114" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="7699" t="s">
+      <c r="C9" s="8122" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7707" t="s">
+      <c r="D9" s="8130" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="7715" t="s">
+      <c r="E9" s="8138" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="7723" t="s">
+      <c r="F9" s="8146" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7684" t="s">
+      <c r="A10" s="8107" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7692" t="s">
+      <c r="B10" s="8115" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7700" t="s">
+      <c r="C10" s="8123" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7708" t="s">
+      <c r="D10" s="8131" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="7716" t="s">
+      <c r="E10" s="8139" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7724" t="s">
+      <c r="F10" s="8147" t="s">
         <v>40</v>
       </c>
     </row>
@@ -33784,25 +35053,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="7725" t="s">
+      <c r="C3" s="8148" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7734" t="s">
+      <c r="D3" s="8157" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7743" t="s">
+      <c r="E3" s="8166" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="7752" t="s">
+      <c r="F3" s="8175" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="7761" t="s">
+      <c r="G3" s="8184" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="7770" t="s">
+      <c r="H3" s="8193" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="7779" t="s">
+      <c r="I3" s="8202" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -33810,25 +35079,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="7726" t="s">
+      <c r="C4" s="8149" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7735" t="s">
+      <c r="D4" s="8158" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="7744" t="s">
+      <c r="E4" s="8167" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="7753" t="s">
+      <c r="F4" s="8176" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="7762" t="s">
+      <c r="G4" s="8185" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="7771" t="s">
+      <c r="H4" s="8194" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="7780" t="s">
+      <c r="I4" s="8203" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -33836,25 +35105,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="7727" t="s">
+      <c r="C5" s="8150" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7736" t="s">
+      <c r="D5" s="8159" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="7745" t="s">
+      <c r="E5" s="8168" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="7754" t="s">
+      <c r="F5" s="8177" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="7763" t="s">
+      <c r="G5" s="8186" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="7772" t="s">
+      <c r="H5" s="8195" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="7781" t="s">
+      <c r="I5" s="8204" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -33862,25 +35131,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="7728" t="s">
+      <c r="C6" s="8151" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7737" t="s">
+      <c r="D6" s="8160" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="7746" t="s">
+      <c r="E6" s="8169" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="7755" t="s">
+      <c r="F6" s="8178" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="7764" t="s">
+      <c r="G6" s="8187" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="7773" t="s">
+      <c r="H6" s="8196" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="7782" t="s">
+      <c r="I6" s="8205" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -33888,25 +35157,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="7729" t="s">
+      <c r="C7" s="8152" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7738" t="s">
+      <c r="D7" s="8161" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="7747" t="s">
+      <c r="E7" s="8170" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="7756" t="s">
+      <c r="F7" s="8179" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="7765" t="s">
+      <c r="G7" s="8188" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="7774" t="s">
+      <c r="H7" s="8197" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="7783" t="s">
+      <c r="I7" s="8206" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -33914,25 +35183,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="7730" t="s">
+      <c r="C8" s="8153" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7739" t="s">
+      <c r="D8" s="8162" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="7748" t="s">
+      <c r="E8" s="8171" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="7757" t="s">
+      <c r="F8" s="8180" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="7766" t="s">
+      <c r="G8" s="8189" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="7775" t="s">
+      <c r="H8" s="8198" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="7784" t="s">
+      <c r="I8" s="8207" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -33940,25 +35209,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="7731" t="s">
+      <c r="C9" s="8154" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7740" t="s">
+      <c r="D9" s="8163" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="7749" t="s">
+      <c r="E9" s="8172" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="7758" t="s">
+      <c r="F9" s="8181" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="7767" t="s">
+      <c r="G9" s="8190" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="7776" t="s">
+      <c r="H9" s="8199" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="7785" t="s">
+      <c r="I9" s="8208" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -33966,25 +35235,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="7732" t="s">
+      <c r="C10" s="8155" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7741" t="s">
+      <c r="D10" s="8164" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="7750" t="s">
+      <c r="E10" s="8173" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="7759" t="s">
+      <c r="F10" s="8182" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="7768" t="s">
+      <c r="G10" s="8191" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="7777" t="s">
+      <c r="H10" s="8200" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="7786" t="s">
+      <c r="I10" s="8209" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -33992,25 +35261,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="7733" t="s">
+      <c r="C11" s="8156" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7742" t="s">
+      <c r="D11" s="8165" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="7751" t="s">
+      <c r="E11" s="8174" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="7760" t="s">
+      <c r="F11" s="8183" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="7769" t="s">
+      <c r="G11" s="8192" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7778" t="s">
+      <c r="H11" s="8201" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="7787" t="s">
+      <c r="I11" s="8210" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -34606,31 +35875,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="7788" t="s">
+      <c r="C3" s="8211" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7809" t="s">
+      <c r="D3" s="8232" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7830" t="s">
+      <c r="E3" s="8253" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="7848" t="s">
+      <c r="F3" s="8271" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7869" t="s">
+      <c r="G3" s="8292" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="7890" t="s">
+      <c r="H3" s="8313" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="7911" t="s">
+      <c r="I3" s="8334" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="7932" t="s">
+      <c r="J3" s="8355" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="7953" t="s">
+      <c r="K3" s="8376" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -34644,31 +35913,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="7789" t="s">
+      <c r="C4" s="8212" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7810" t="s">
+      <c r="D4" s="8233" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="7831" t="s">
+      <c r="E4" s="8254" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="7849" t="s">
+      <c r="F4" s="8272" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7870" t="s">
+      <c r="G4" s="8293" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="7891" t="s">
+      <c r="H4" s="8314" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="7912" t="s">
+      <c r="I4" s="8335" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="7933" t="s">
+      <c r="J4" s="8356" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="7954" t="s">
+      <c r="K4" s="8377" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -34682,31 +35951,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="7790" t="s">
+      <c r="C5" s="8213" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7811" t="s">
+      <c r="D5" s="8234" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="7832" t="s">
+      <c r="E5" s="8255" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="7850" t="s">
+      <c r="F5" s="8273" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7871" t="s">
+      <c r="G5" s="8294" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="7892" t="s">
+      <c r="H5" s="8315" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="7913" t="s">
+      <c r="I5" s="8336" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="7934" t="s">
+      <c r="J5" s="8357" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="7955" t="s">
+      <c r="K5" s="8378" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -34720,31 +35989,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="7791" t="s">
+      <c r="C6" s="8214" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="7812" t="s">
+      <c r="D6" s="8235" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="7833" t="s">
+      <c r="E6" s="8256" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7851" t="s">
+      <c r="F6" s="8274" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7872" t="s">
+      <c r="G6" s="8295" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="7893" t="s">
+      <c r="H6" s="8316" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="7914" t="s">
+      <c r="I6" s="8337" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="7935" t="s">
+      <c r="J6" s="8358" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="7956" t="s">
+      <c r="K6" s="8379" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -34758,31 +36027,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="7792" t="s">
+      <c r="C7" s="8215" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7813" t="s">
+      <c r="D7" s="8236" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="7834" t="s">
+      <c r="E7" s="8257" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="7852" t="s">
+      <c r="F7" s="8275" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7873" t="s">
+      <c r="G7" s="8296" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="7894" t="s">
+      <c r="H7" s="8317" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="7915" t="s">
+      <c r="I7" s="8338" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="7936" t="s">
+      <c r="J7" s="8359" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="7957" t="s">
+      <c r="K7" s="8380" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -34796,31 +36065,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="7793" t="s">
+      <c r="C8" s="8216" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7814" t="s">
+      <c r="D8" s="8237" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="7835" t="s">
+      <c r="E8" s="8258" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="7853" t="s">
+      <c r="F8" s="8276" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7874" t="s">
+      <c r="G8" s="8297" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="7895" t="s">
+      <c r="H8" s="8318" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="7916" t="s">
+      <c r="I8" s="8339" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="7937" t="s">
+      <c r="J8" s="8360" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="7958" t="s">
+      <c r="K8" s="8381" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -34834,29 +36103,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="7794" t="s">
+      <c r="C9" s="8217" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="7815" t="s">
+      <c r="D9" s="8238" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="7854" t="s">
+      <c r="F9" s="8277" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="7875" t="s">
+      <c r="G9" s="8298" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="7896" t="s">
+      <c r="H9" s="8319" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="7917" t="s">
+      <c r="I9" s="8340" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="7938" t="s">
+      <c r="J9" s="8361" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="7959" t="s">
+      <c r="K9" s="8382" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -34870,31 +36139,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="7795" t="s">
+      <c r="C10" s="8218" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7816" t="s">
+      <c r="D10" s="8239" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="7836" t="s">
+      <c r="E10" s="8259" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="7855" t="s">
+      <c r="F10" s="8278" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7876" t="s">
+      <c r="G10" s="8299" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="7897" t="s">
+      <c r="H10" s="8320" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="7918" t="s">
+      <c r="I10" s="8341" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="7939" t="s">
+      <c r="J10" s="8362" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="7960" t="s">
+      <c r="K10" s="8383" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -34908,31 +36177,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="7796" t="s">
+      <c r="C11" s="8219" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="7817" t="s">
+      <c r="D11" s="8240" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="7837" t="s">
+      <c r="E11" s="8260" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="7856" t="s">
+      <c r="F11" s="8279" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="7877" t="s">
+      <c r="G11" s="8300" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="7898" t="s">
+      <c r="H11" s="8321" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="7919" t="s">
+      <c r="I11" s="8342" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="7940" t="s">
+      <c r="J11" s="8363" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7961" t="s">
+      <c r="K11" s="8384" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -34946,31 +36215,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="7797" t="s">
+      <c r="C12" s="8220" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7818" t="s">
+      <c r="D12" s="8241" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="7838" t="s">
+      <c r="E12" s="8261" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="7857" t="s">
+      <c r="F12" s="8280" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7878" t="s">
+      <c r="G12" s="8301" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="7899" t="s">
+      <c r="H12" s="8322" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="7920" t="s">
+      <c r="I12" s="8343" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="7941" t="s">
+      <c r="J12" s="8364" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="7962" t="s">
+      <c r="K12" s="8385" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -34984,31 +36253,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="7798" t="s">
+      <c r="C13" s="8221" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7819" t="s">
+      <c r="D13" s="8242" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="7839" t="s">
+      <c r="E13" s="8262" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="7858" t="s">
+      <c r="F13" s="8281" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7879" t="s">
+      <c r="G13" s="8302" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="7900" t="s">
+      <c r="H13" s="8323" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="7921" t="s">
+      <c r="I13" s="8344" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="7942" t="s">
+      <c r="J13" s="8365" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="7963" t="s">
+      <c r="K13" s="8386" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -35022,31 +36291,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="7799" t="s">
+      <c r="C14" s="8222" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="7820" t="s">
+      <c r="D14" s="8243" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="7840" t="s">
+      <c r="E14" s="8263" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="7859" t="s">
+      <c r="F14" s="8282" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7880" t="s">
+      <c r="G14" s="8303" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="7901" t="s">
+      <c r="H14" s="8324" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="7922" t="s">
+      <c r="I14" s="8345" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="7943" t="s">
+      <c r="J14" s="8366" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="7964" t="s">
+      <c r="K14" s="8387" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -35060,31 +36329,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="7800" t="s">
+      <c r="C15" s="8223" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="7821" t="s">
+      <c r="D15" s="8244" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="7841" t="s">
+      <c r="E15" s="8264" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="7860" t="s">
+      <c r="F15" s="8283" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="7881" t="s">
+      <c r="G15" s="8304" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="7902" t="s">
+      <c r="H15" s="8325" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="7923" t="s">
+      <c r="I15" s="8346" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="7944" t="s">
+      <c r="J15" s="8367" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="7965" t="s">
+      <c r="K15" s="8388" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -35098,29 +36367,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="7801" t="s">
+      <c r="C16" s="8224" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7822" t="s">
+      <c r="D16" s="8245" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="7861" t="s">
+      <c r="F16" s="8284" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="7882" t="s">
+      <c r="G16" s="8305" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="7903" t="s">
+      <c r="H16" s="8326" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="7924" t="s">
+      <c r="I16" s="8347" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="7945" t="s">
+      <c r="J16" s="8368" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="7966" t="s">
+      <c r="K16" s="8389" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -35134,31 +36403,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="7802" t="s">
+      <c r="C17" s="8225" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="7823" t="s">
+      <c r="D17" s="8246" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="7842" t="s">
+      <c r="E17" s="8265" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7862" t="s">
+      <c r="F17" s="8285" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="7883" t="s">
+      <c r="G17" s="8306" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="7904" t="s">
+      <c r="H17" s="8327" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="7925" t="s">
+      <c r="I17" s="8348" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="7946" t="s">
+      <c r="J17" s="8369" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="7967" t="s">
+      <c r="K17" s="8390" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -35172,31 +36441,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="7803" t="s">
+      <c r="C18" s="8226" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7824" t="s">
+      <c r="D18" s="8247" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="7843" t="s">
+      <c r="E18" s="8266" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7863" t="s">
+      <c r="F18" s="8286" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7884" t="s">
+      <c r="G18" s="8307" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="7905" t="s">
+      <c r="H18" s="8328" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="7926" t="s">
+      <c r="I18" s="8349" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="7947" t="s">
+      <c r="J18" s="8370" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="7968" t="s">
+      <c r="K18" s="8391" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -35210,31 +36479,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="7804" t="s">
+      <c r="C19" s="8227" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="7825" t="s">
+      <c r="D19" s="8248" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="7844" t="s">
+      <c r="E19" s="8267" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7864" t="s">
+      <c r="F19" s="8287" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7885" t="s">
+      <c r="G19" s="8308" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="7906" t="s">
+      <c r="H19" s="8329" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="7927" t="s">
+      <c r="I19" s="8350" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="7948" t="s">
+      <c r="J19" s="8371" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="7969" t="s">
+      <c r="K19" s="8392" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -35248,31 +36517,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="7805" t="s">
+      <c r="C20" s="8228" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7826" t="s">
+      <c r="D20" s="8249" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="7845" t="s">
+      <c r="E20" s="8268" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7865" t="s">
+      <c r="F20" s="8288" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="7886" t="s">
+      <c r="G20" s="8309" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="7907" t="s">
+      <c r="H20" s="8330" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="7928" t="s">
+      <c r="I20" s="8351" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="7949" t="s">
+      <c r="J20" s="8372" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="7970" t="s">
+      <c r="K20" s="8393" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -35286,31 +36555,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="7806" t="s">
+      <c r="C21" s="8229" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7827" t="s">
+      <c r="D21" s="8250" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="7846" t="s">
+      <c r="E21" s="8269" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="7866" t="s">
+      <c r="F21" s="8289" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="7887" t="s">
+      <c r="G21" s="8310" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="7908" t="s">
+      <c r="H21" s="8331" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="7929" t="s">
+      <c r="I21" s="8352" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="7950" t="s">
+      <c r="J21" s="8373" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="7971" t="s">
+      <c r="K21" s="8394" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -35324,31 +36593,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="7807" t="s">
+      <c r="C22" s="8230" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="7828" t="s">
+      <c r="D22" s="8251" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="7847" t="s">
+      <c r="E22" s="8270" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="7867" t="s">
+      <c r="F22" s="8290" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="7888" t="s">
+      <c r="G22" s="8311" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="7909" t="s">
+      <c r="H22" s="8332" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="7930" t="s">
+      <c r="I22" s="8353" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="7951" t="s">
+      <c r="J22" s="8374" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="7972" t="s">
+      <c r="K22" s="8395" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -35362,29 +36631,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="7808" t="s">
+      <c r="C23" s="8231" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="7829" t="s">
+      <c r="D23" s="8252" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="7868" t="s">
+      <c r="F23" s="8291" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="7889" t="s">
+      <c r="G23" s="8312" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="7910" t="s">
+      <c r="H23" s="8333" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="7931" t="s">
+      <c r="I23" s="8354" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="7952" t="s">
+      <c r="J23" s="8375" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="7973" t="s">
+      <c r="K23" s="8396" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -36370,28 +37639,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="7974" t="s">
+      <c r="C3" s="8397" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7983" t="s">
+      <c r="D3" s="8406" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7992" t="s">
+      <c r="E3" s="8415" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="8001" t="s">
+      <c r="F3" s="8424" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="8010" t="s">
+      <c r="G3" s="8433" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="8019" t="s">
+      <c r="H3" s="8442" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="8028" t="s">
+      <c r="I3" s="8451" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="8037" t="s">
+      <c r="J3" s="8460" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -36399,28 +37668,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="7975" t="s">
+      <c r="C4" s="8398" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7984" t="s">
+      <c r="D4" s="8407" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="7993" t="s">
+      <c r="E4" s="8416" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="8002" t="s">
+      <c r="F4" s="8425" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="8011" t="s">
+      <c r="G4" s="8434" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="8020" t="s">
+      <c r="H4" s="8443" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="8029" t="s">
+      <c r="I4" s="8452" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="8038" t="s">
+      <c r="J4" s="8461" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -36428,28 +37697,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="7976" t="s">
+      <c r="C5" s="8399" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7985" t="s">
+      <c r="D5" s="8408" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="7994" t="s">
+      <c r="E5" s="8417" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="8003" t="s">
+      <c r="F5" s="8426" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="8012" t="s">
+      <c r="G5" s="8435" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="8021" t="s">
+      <c r="H5" s="8444" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="8030" t="s">
+      <c r="I5" s="8453" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="8039" t="s">
+      <c r="J5" s="8462" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -36457,28 +37726,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="7977" t="s">
+      <c r="C6" s="8400" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7986" t="s">
+      <c r="D6" s="8409" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="7995" t="s">
+      <c r="E6" s="8418" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="8004" t="s">
+      <c r="F6" s="8427" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="8013" t="s">
+      <c r="G6" s="8436" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="8022" t="s">
+      <c r="H6" s="8445" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="8031" t="s">
+      <c r="I6" s="8454" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="8040" t="s">
+      <c r="J6" s="8463" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -36486,28 +37755,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="7978" t="s">
+      <c r="C7" s="8401" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7987" t="s">
+      <c r="D7" s="8410" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="7996" t="s">
+      <c r="E7" s="8419" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="8005" t="s">
+      <c r="F7" s="8428" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="8014" t="s">
+      <c r="G7" s="8437" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="8023" t="s">
+      <c r="H7" s="8446" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="8032" t="s">
+      <c r="I7" s="8455" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="8041" t="s">
+      <c r="J7" s="8464" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -36515,28 +37784,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="7979" t="s">
+      <c r="C8" s="8402" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7988" t="s">
+      <c r="D8" s="8411" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="7997" t="s">
+      <c r="E8" s="8420" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="8006" t="s">
+      <c r="F8" s="8429" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="8015" t="s">
+      <c r="G8" s="8438" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="8024" t="s">
+      <c r="H8" s="8447" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="8033" t="s">
+      <c r="I8" s="8456" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="8042" t="s">
+      <c r="J8" s="8465" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -36544,28 +37813,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="7980" t="s">
+      <c r="C9" s="8403" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7989" t="s">
+      <c r="D9" s="8412" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="7998" t="s">
+      <c r="E9" s="8421" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="8007" t="s">
+      <c r="F9" s="8430" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="8016" t="s">
+      <c r="G9" s="8439" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="8025" t="s">
+      <c r="H9" s="8448" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="8034" t="s">
+      <c r="I9" s="8457" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="8043" t="s">
+      <c r="J9" s="8466" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -36573,28 +37842,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="7981" t="s">
+      <c r="C10" s="8404" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7990" t="s">
+      <c r="D10" s="8413" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="7999" t="s">
+      <c r="E10" s="8422" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="8008" t="s">
+      <c r="F10" s="8431" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="8017" t="s">
+      <c r="G10" s="8440" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="8026" t="s">
+      <c r="H10" s="8449" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="8035" t="s">
+      <c r="I10" s="8458" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="8044" t="s">
+      <c r="J10" s="8467" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -36602,28 +37871,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="7982" t="s">
+      <c r="C11" s="8405" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7991" t="s">
+      <c r="D11" s="8414" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="8000" t="s">
+      <c r="E11" s="8423" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="8009" t="s">
+      <c r="F11" s="8432" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="8018" t="s">
+      <c r="G11" s="8441" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="8027" t="s">
+      <c r="H11" s="8450" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="8036" t="s">
+      <c r="I11" s="8459" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="8045" t="s">
+      <c r="J11" s="8468" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -37310,31 +38579,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8046" t="s">
+      <c r="C3" s="8469" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8052" t="s">
+      <c r="D3" s="8475" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="8058" t="s">
+      <c r="E3" s="8481" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="8064" t="s">
+      <c r="F3" s="8487" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="8070" t="s">
+      <c r="G3" s="8493" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="8076" t="s">
+      <c r="H3" s="8499" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="8082" t="s">
+      <c r="I3" s="8505" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="8088" t="s">
+      <c r="J3" s="8511" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="8094" t="s">
+      <c r="K3" s="8517" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -37350,31 +38619,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8047" t="s">
+      <c r="C4" s="8470" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8053" t="s">
+      <c r="D4" s="8476" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="8059" t="s">
+      <c r="E4" s="8482" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="8065" t="s">
+      <c r="F4" s="8488" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="8071" t="s">
+      <c r="G4" s="8494" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="8077" t="s">
+      <c r="H4" s="8500" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="8083" t="s">
+      <c r="I4" s="8506" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="8089" t="s">
+      <c r="J4" s="8512" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="8095" t="s">
+      <c r="K4" s="8518" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -37390,31 +38659,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8048" t="s">
+      <c r="C5" s="8471" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8054" t="s">
+      <c r="D5" s="8477" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="8060" t="s">
+      <c r="E5" s="8483" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="8066" t="s">
+      <c r="F5" s="8489" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="8072" t="s">
+      <c r="G5" s="8495" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="8078" t="s">
+      <c r="H5" s="8501" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="8084" t="s">
+      <c r="I5" s="8507" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="8090" t="s">
+      <c r="J5" s="8513" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="8096" t="s">
+      <c r="K5" s="8519" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -37430,31 +38699,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8049" t="s">
+      <c r="C6" s="8472" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8055" t="s">
+      <c r="D6" s="8478" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="8061" t="s">
+      <c r="E6" s="8484" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="8067" t="s">
+      <c r="F6" s="8490" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="8073" t="s">
+      <c r="G6" s="8496" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="8079" t="s">
+      <c r="H6" s="8502" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="8085" t="s">
+      <c r="I6" s="8508" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="8091" t="s">
+      <c r="J6" s="8514" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="8097" t="s">
+      <c r="K6" s="8520" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -37470,31 +38739,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8050" t="s">
+      <c r="C7" s="8473" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8056" t="s">
+      <c r="D7" s="8479" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="8062" t="s">
+      <c r="E7" s="8485" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="8068" t="s">
+      <c r="F7" s="8491" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="8074" t="s">
+      <c r="G7" s="8497" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="8080" t="s">
+      <c r="H7" s="8503" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="8086" t="s">
+      <c r="I7" s="8509" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="8092" t="s">
+      <c r="J7" s="8515" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="8098" t="s">
+      <c r="K7" s="8521" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -37510,31 +38779,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8051" t="s">
+      <c r="C8" s="8474" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8057" t="s">
+      <c r="D8" s="8480" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8063" t="s">
+      <c r="E8" s="8486" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="8069" t="s">
+      <c r="F8" s="8492" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="8075" t="s">
+      <c r="G8" s="8498" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="8081" t="s">
+      <c r="H8" s="8504" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="8087" t="s">
+      <c r="I8" s="8510" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="8093" t="s">
+      <c r="J8" s="8516" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="8099" t="s">
+      <c r="K8" s="8522" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9496" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9919" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8523">
+  <cellXfs count="8946">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,1275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -34770,162 +36039,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="8100" t="s">
+      <c r="A3" s="8523" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8108" t="s">
+      <c r="B3" s="8531" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8116" t="s">
+      <c r="C3" s="8539" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8124" t="s">
+      <c r="D3" s="8547" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8132" t="s">
+      <c r="E3" s="8555" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="8140" t="s">
+      <c r="F3" s="8563" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8101" t="s">
+      <c r="A4" s="8524" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8109" t="s">
+      <c r="B4" s="8532" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8117" t="s">
+      <c r="C4" s="8540" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8125" t="s">
+      <c r="D4" s="8548" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8133" t="s">
+      <c r="E4" s="8556" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="8141" t="s">
+      <c r="F4" s="8564" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8102" t="s">
+      <c r="A5" s="8525" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8110" t="s">
+      <c r="B5" s="8533" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="8118" t="s">
+      <c r="C5" s="8541" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8126" t="s">
+      <c r="D5" s="8549" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="8134" t="s">
+      <c r="E5" s="8557" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="8142" t="s">
+      <c r="F5" s="8565" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8103" t="s">
+      <c r="A6" s="8526" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8111" t="s">
+      <c r="B6" s="8534" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8119" t="s">
+      <c r="C6" s="8542" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8127" t="s">
+      <c r="D6" s="8550" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="8135" t="s">
+      <c r="E6" s="8558" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="8143" t="s">
+      <c r="F6" s="8566" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8104" t="s">
+      <c r="A7" s="8527" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8112" t="s">
+      <c r="B7" s="8535" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8120" t="s">
+      <c r="C7" s="8543" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8128" t="s">
+      <c r="D7" s="8551" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8136" t="s">
+      <c r="E7" s="8559" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="8144" t="s">
+      <c r="F7" s="8567" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8105" t="s">
+      <c r="A8" s="8528" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8113" t="s">
+      <c r="B8" s="8536" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8121" t="s">
+      <c r="C8" s="8544" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8129" t="s">
+      <c r="D8" s="8552" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="8137" t="s">
+      <c r="E8" s="8560" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="8145" t="s">
+      <c r="F8" s="8568" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8106" t="s">
+      <c r="A9" s="8529" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8114" t="s">
+      <c r="B9" s="8537" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8122" t="s">
+      <c r="C9" s="8545" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8130" t="s">
+      <c r="D9" s="8553" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8138" t="s">
+      <c r="E9" s="8561" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="8146" t="s">
+      <c r="F9" s="8569" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8107" t="s">
+      <c r="A10" s="8530" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8115" t="s">
+      <c r="B10" s="8538" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8123" t="s">
+      <c r="C10" s="8546" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8131" t="s">
+      <c r="D10" s="8554" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="8139" t="s">
+      <c r="E10" s="8562" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="8147" t="s">
+      <c r="F10" s="8570" t="s">
         <v>40</v>
       </c>
     </row>
@@ -35053,25 +36322,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8148" t="s">
+      <c r="C3" s="8571" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8157" t="s">
+      <c r="D3" s="8580" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="8166" t="s">
+      <c r="E3" s="8589" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="8175" t="s">
+      <c r="F3" s="8598" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="8184" t="s">
+      <c r="G3" s="8607" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="8193" t="s">
+      <c r="H3" s="8616" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="8202" t="s">
+      <c r="I3" s="8625" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -35079,25 +36348,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8149" t="s">
+      <c r="C4" s="8572" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8158" t="s">
+      <c r="D4" s="8581" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="8167" t="s">
+      <c r="E4" s="8590" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="8176" t="s">
+      <c r="F4" s="8599" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="8185" t="s">
+      <c r="G4" s="8608" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="8194" t="s">
+      <c r="H4" s="8617" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="8203" t="s">
+      <c r="I4" s="8626" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -35105,25 +36374,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8150" t="s">
+      <c r="C5" s="8573" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8159" t="s">
+      <c r="D5" s="8582" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="8168" t="s">
+      <c r="E5" s="8591" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="8177" t="s">
+      <c r="F5" s="8600" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="8186" t="s">
+      <c r="G5" s="8609" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="8195" t="s">
+      <c r="H5" s="8618" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="8204" t="s">
+      <c r="I5" s="8627" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -35131,25 +36400,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8151" t="s">
+      <c r="C6" s="8574" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8160" t="s">
+      <c r="D6" s="8583" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="8169" t="s">
+      <c r="E6" s="8592" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="8178" t="s">
+      <c r="F6" s="8601" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="8187" t="s">
+      <c r="G6" s="8610" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="8196" t="s">
+      <c r="H6" s="8619" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="8205" t="s">
+      <c r="I6" s="8628" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -35157,25 +36426,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8152" t="s">
+      <c r="C7" s="8575" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8161" t="s">
+      <c r="D7" s="8584" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="8170" t="s">
+      <c r="E7" s="8593" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="8179" t="s">
+      <c r="F7" s="8602" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="8188" t="s">
+      <c r="G7" s="8611" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="8197" t="s">
+      <c r="H7" s="8620" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="8206" t="s">
+      <c r="I7" s="8629" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -35183,25 +36452,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8153" t="s">
+      <c r="C8" s="8576" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="8162" t="s">
+      <c r="D8" s="8585" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8171" t="s">
+      <c r="E8" s="8594" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="8180" t="s">
+      <c r="F8" s="8603" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="8189" t="s">
+      <c r="G8" s="8612" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="8198" t="s">
+      <c r="H8" s="8621" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="8207" t="s">
+      <c r="I8" s="8630" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -35209,25 +36478,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="8154" t="s">
+      <c r="C9" s="8577" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="8163" t="s">
+      <c r="D9" s="8586" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="8172" t="s">
+      <c r="E9" s="8595" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="8181" t="s">
+      <c r="F9" s="8604" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="8190" t="s">
+      <c r="G9" s="8613" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="8199" t="s">
+      <c r="H9" s="8622" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="8208" t="s">
+      <c r="I9" s="8631" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -35235,25 +36504,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="8155" t="s">
+      <c r="C10" s="8578" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8164" t="s">
+      <c r="D10" s="8587" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8173" t="s">
+      <c r="E10" s="8596" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="8182" t="s">
+      <c r="F10" s="8605" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="8191" t="s">
+      <c r="G10" s="8614" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="8200" t="s">
+      <c r="H10" s="8623" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="8209" t="s">
+      <c r="I10" s="8632" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -35261,25 +36530,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="8156" t="s">
+      <c r="C11" s="8579" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8165" t="s">
+      <c r="D11" s="8588" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="8174" t="s">
+      <c r="E11" s="8597" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="8183" t="s">
+      <c r="F11" s="8606" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="8192" t="s">
+      <c r="G11" s="8615" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="8201" t="s">
+      <c r="H11" s="8624" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="8210" t="s">
+      <c r="I11" s="8633" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -35875,31 +37144,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8211" t="s">
+      <c r="C3" s="8634" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8232" t="s">
+      <c r="D3" s="8655" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="8253" t="s">
+      <c r="E3" s="8676" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="8271" t="s">
+      <c r="F3" s="8694" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8292" t="s">
+      <c r="G3" s="8715" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="8313" t="s">
+      <c r="H3" s="8736" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="8334" t="s">
+      <c r="I3" s="8757" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="8355" t="s">
+      <c r="J3" s="8778" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="8376" t="s">
+      <c r="K3" s="8799" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -35913,31 +37182,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8212" t="s">
+      <c r="C4" s="8635" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8233" t="s">
+      <c r="D4" s="8656" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="8254" t="s">
+      <c r="E4" s="8677" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="8272" t="s">
+      <c r="F4" s="8695" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8293" t="s">
+      <c r="G4" s="8716" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="8314" t="s">
+      <c r="H4" s="8737" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="8335" t="s">
+      <c r="I4" s="8758" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="8356" t="s">
+      <c r="J4" s="8779" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="8377" t="s">
+      <c r="K4" s="8800" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -35951,31 +37220,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8213" t="s">
+      <c r="C5" s="8636" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8234" t="s">
+      <c r="D5" s="8657" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="8255" t="s">
+      <c r="E5" s="8678" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="8273" t="s">
+      <c r="F5" s="8696" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8294" t="s">
+      <c r="G5" s="8717" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="8315" t="s">
+      <c r="H5" s="8738" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="8336" t="s">
+      <c r="I5" s="8759" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="8357" t="s">
+      <c r="J5" s="8780" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="8378" t="s">
+      <c r="K5" s="8801" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -35989,31 +37258,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8214" t="s">
+      <c r="C6" s="8637" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8235" t="s">
+      <c r="D6" s="8658" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="8256" t="s">
+      <c r="E6" s="8679" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="8274" t="s">
+      <c r="F6" s="8697" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8295" t="s">
+      <c r="G6" s="8718" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="8316" t="s">
+      <c r="H6" s="8739" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="8337" t="s">
+      <c r="I6" s="8760" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="8358" t="s">
+      <c r="J6" s="8781" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="8379" t="s">
+      <c r="K6" s="8802" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -36027,31 +37296,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8215" t="s">
+      <c r="C7" s="8638" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8236" t="s">
+      <c r="D7" s="8659" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="8257" t="s">
+      <c r="E7" s="8680" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="8275" t="s">
+      <c r="F7" s="8698" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8296" t="s">
+      <c r="G7" s="8719" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="8317" t="s">
+      <c r="H7" s="8740" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="8338" t="s">
+      <c r="I7" s="8761" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="8359" t="s">
+      <c r="J7" s="8782" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="8380" t="s">
+      <c r="K7" s="8803" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -36065,31 +37334,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8216" t="s">
+      <c r="C8" s="8639" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8237" t="s">
+      <c r="D8" s="8660" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8258" t="s">
+      <c r="E8" s="8681" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="8276" t="s">
+      <c r="F8" s="8699" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8297" t="s">
+      <c r="G8" s="8720" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="8318" t="s">
+      <c r="H8" s="8741" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="8339" t="s">
+      <c r="I8" s="8762" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="8360" t="s">
+      <c r="J8" s="8783" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="8381" t="s">
+      <c r="K8" s="8804" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -36103,29 +37372,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="8217" t="s">
+      <c r="C9" s="8640" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8238" t="s">
+      <c r="D9" s="8661" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="8277" t="s">
+      <c r="F9" s="8700" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="8298" t="s">
+      <c r="G9" s="8721" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="8319" t="s">
+      <c r="H9" s="8742" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="8340" t="s">
+      <c r="I9" s="8763" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="8361" t="s">
+      <c r="J9" s="8784" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="8382" t="s">
+      <c r="K9" s="8805" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -36139,31 +37408,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="8218" t="s">
+      <c r="C10" s="8641" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="8239" t="s">
+      <c r="D10" s="8662" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="8259" t="s">
+      <c r="E10" s="8682" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="8278" t="s">
+      <c r="F10" s="8701" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8299" t="s">
+      <c r="G10" s="8722" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="8320" t="s">
+      <c r="H10" s="8743" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="8341" t="s">
+      <c r="I10" s="8764" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="8362" t="s">
+      <c r="J10" s="8785" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="8383" t="s">
+      <c r="K10" s="8806" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -36177,31 +37446,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="8219" t="s">
+      <c r="C11" s="8642" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8240" t="s">
+      <c r="D11" s="8663" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="8260" t="s">
+      <c r="E11" s="8683" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="8279" t="s">
+      <c r="F11" s="8702" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8300" t="s">
+      <c r="G11" s="8723" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="8321" t="s">
+      <c r="H11" s="8744" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="8342" t="s">
+      <c r="I11" s="8765" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="8363" t="s">
+      <c r="J11" s="8786" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="8384" t="s">
+      <c r="K11" s="8807" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -36215,31 +37484,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="8220" t="s">
+      <c r="C12" s="8643" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8241" t="s">
+      <c r="D12" s="8664" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="8261" t="s">
+      <c r="E12" s="8684" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="8280" t="s">
+      <c r="F12" s="8703" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8301" t="s">
+      <c r="G12" s="8724" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="8322" t="s">
+      <c r="H12" s="8745" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="8343" t="s">
+      <c r="I12" s="8766" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="8364" t="s">
+      <c r="J12" s="8787" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="8385" t="s">
+      <c r="K12" s="8808" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -36253,31 +37522,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="8221" t="s">
+      <c r="C13" s="8644" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="8242" t="s">
+      <c r="D13" s="8665" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="8262" t="s">
+      <c r="E13" s="8685" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="8281" t="s">
+      <c r="F13" s="8704" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="8302" t="s">
+      <c r="G13" s="8725" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="8323" t="s">
+      <c r="H13" s="8746" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="8344" t="s">
+      <c r="I13" s="8767" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="8365" t="s">
+      <c r="J13" s="8788" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="8386" t="s">
+      <c r="K13" s="8809" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -36291,31 +37560,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="8222" t="s">
+      <c r="C14" s="8645" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8243" t="s">
+      <c r="D14" s="8666" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="8263" t="s">
+      <c r="E14" s="8686" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="8282" t="s">
+      <c r="F14" s="8705" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="8303" t="s">
+      <c r="G14" s="8726" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="8324" t="s">
+      <c r="H14" s="8747" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="8345" t="s">
+      <c r="I14" s="8768" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="8366" t="s">
+      <c r="J14" s="8789" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="8387" t="s">
+      <c r="K14" s="8810" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -36329,31 +37598,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="8223" t="s">
+      <c r="C15" s="8646" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8244" t="s">
+      <c r="D15" s="8667" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="8264" t="s">
+      <c r="E15" s="8687" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="8283" t="s">
+      <c r="F15" s="8706" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="8304" t="s">
+      <c r="G15" s="8727" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="8325" t="s">
+      <c r="H15" s="8748" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="8346" t="s">
+      <c r="I15" s="8769" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="8367" t="s">
+      <c r="J15" s="8790" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="8388" t="s">
+      <c r="K15" s="8811" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -36367,29 +37636,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="8224" t="s">
+      <c r="C16" s="8647" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="8245" t="s">
+      <c r="D16" s="8668" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="8284" t="s">
+      <c r="F16" s="8707" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="8305" t="s">
+      <c r="G16" s="8728" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="8326" t="s">
+      <c r="H16" s="8749" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="8347" t="s">
+      <c r="I16" s="8770" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="8368" t="s">
+      <c r="J16" s="8791" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="8389" t="s">
+      <c r="K16" s="8812" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -36403,31 +37672,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="8225" t="s">
+      <c r="C17" s="8648" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="8246" t="s">
+      <c r="D17" s="8669" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="8265" t="s">
+      <c r="E17" s="8688" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="8285" t="s">
+      <c r="F17" s="8708" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="8306" t="s">
+      <c r="G17" s="8729" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="8327" t="s">
+      <c r="H17" s="8750" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="8348" t="s">
+      <c r="I17" s="8771" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="8369" t="s">
+      <c r="J17" s="8792" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="8390" t="s">
+      <c r="K17" s="8813" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -36441,31 +37710,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="8226" t="s">
+      <c r="C18" s="8649" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="8247" t="s">
+      <c r="D18" s="8670" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="8266" t="s">
+      <c r="E18" s="8689" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="8286" t="s">
+      <c r="F18" s="8709" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="8307" t="s">
+      <c r="G18" s="8730" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="8328" t="s">
+      <c r="H18" s="8751" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="8349" t="s">
+      <c r="I18" s="8772" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="8370" t="s">
+      <c r="J18" s="8793" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="8391" t="s">
+      <c r="K18" s="8814" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -36479,31 +37748,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="8227" t="s">
+      <c r="C19" s="8650" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="8248" t="s">
+      <c r="D19" s="8671" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="8267" t="s">
+      <c r="E19" s="8690" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="8287" t="s">
+      <c r="F19" s="8710" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="8308" t="s">
+      <c r="G19" s="8731" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="8329" t="s">
+      <c r="H19" s="8752" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="8350" t="s">
+      <c r="I19" s="8773" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="8371" t="s">
+      <c r="J19" s="8794" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="8392" t="s">
+      <c r="K19" s="8815" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -36517,31 +37786,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="8228" t="s">
+      <c r="C20" s="8651" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="8249" t="s">
+      <c r="D20" s="8672" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="8268" t="s">
+      <c r="E20" s="8691" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="8288" t="s">
+      <c r="F20" s="8711" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="8309" t="s">
+      <c r="G20" s="8732" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="8330" t="s">
+      <c r="H20" s="8753" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="8351" t="s">
+      <c r="I20" s="8774" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="8372" t="s">
+      <c r="J20" s="8795" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="8393" t="s">
+      <c r="K20" s="8816" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -36555,31 +37824,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="8229" t="s">
+      <c r="C21" s="8652" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="8250" t="s">
+      <c r="D21" s="8673" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="8269" t="s">
+      <c r="E21" s="8692" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="8289" t="s">
+      <c r="F21" s="8712" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="8310" t="s">
+      <c r="G21" s="8733" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="8331" t="s">
+      <c r="H21" s="8754" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="8352" t="s">
+      <c r="I21" s="8775" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="8373" t="s">
+      <c r="J21" s="8796" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="8394" t="s">
+      <c r="K21" s="8817" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -36593,31 +37862,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="8230" t="s">
+      <c r="C22" s="8653" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="8251" t="s">
+      <c r="D22" s="8674" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="8270" t="s">
+      <c r="E22" s="8693" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="8290" t="s">
+      <c r="F22" s="8713" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="8311" t="s">
+      <c r="G22" s="8734" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="8332" t="s">
+      <c r="H22" s="8755" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="8353" t="s">
+      <c r="I22" s="8776" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="8374" t="s">
+      <c r="J22" s="8797" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="8395" t="s">
+      <c r="K22" s="8818" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -36631,29 +37900,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="8231" t="s">
+      <c r="C23" s="8654" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="8252" t="s">
+      <c r="D23" s="8675" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="8291" t="s">
+      <c r="F23" s="8714" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="8312" t="s">
+      <c r="G23" s="8735" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="8333" t="s">
+      <c r="H23" s="8756" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="8354" t="s">
+      <c r="I23" s="8777" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="8375" t="s">
+      <c r="J23" s="8798" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="8396" t="s">
+      <c r="K23" s="8819" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -37639,28 +38908,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8397" t="s">
+      <c r="C3" s="8820" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8406" t="s">
+      <c r="D3" s="8829" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="8415" t="s">
+      <c r="E3" s="8838" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="8424" t="s">
+      <c r="F3" s="8847" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="8433" t="s">
+      <c r="G3" s="8856" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="8442" t="s">
+      <c r="H3" s="8865" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="8451" t="s">
+      <c r="I3" s="8874" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="8460" t="s">
+      <c r="J3" s="8883" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -37668,28 +38937,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8398" t="s">
+      <c r="C4" s="8821" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8407" t="s">
+      <c r="D4" s="8830" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="8416" t="s">
+      <c r="E4" s="8839" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="8425" t="s">
+      <c r="F4" s="8848" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="8434" t="s">
+      <c r="G4" s="8857" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="8443" t="s">
+      <c r="H4" s="8866" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="8452" t="s">
+      <c r="I4" s="8875" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="8461" t="s">
+      <c r="J4" s="8884" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -37697,28 +38966,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8399" t="s">
+      <c r="C5" s="8822" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8408" t="s">
+      <c r="D5" s="8831" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="8417" t="s">
+      <c r="E5" s="8840" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="8426" t="s">
+      <c r="F5" s="8849" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="8435" t="s">
+      <c r="G5" s="8858" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="8444" t="s">
+      <c r="H5" s="8867" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="8453" t="s">
+      <c r="I5" s="8876" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="8462" t="s">
+      <c r="J5" s="8885" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -37726,28 +38995,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8400" t="s">
+      <c r="C6" s="8823" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8409" t="s">
+      <c r="D6" s="8832" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="8418" t="s">
+      <c r="E6" s="8841" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="8427" t="s">
+      <c r="F6" s="8850" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="8436" t="s">
+      <c r="G6" s="8859" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="8445" t="s">
+      <c r="H6" s="8868" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="8454" t="s">
+      <c r="I6" s="8877" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="8463" t="s">
+      <c r="J6" s="8886" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -37755,28 +39024,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8401" t="s">
+      <c r="C7" s="8824" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8410" t="s">
+      <c r="D7" s="8833" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="8419" t="s">
+      <c r="E7" s="8842" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="8428" t="s">
+      <c r="F7" s="8851" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="8437" t="s">
+      <c r="G7" s="8860" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="8446" t="s">
+      <c r="H7" s="8869" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="8455" t="s">
+      <c r="I7" s="8878" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="8464" t="s">
+      <c r="J7" s="8887" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -37784,28 +39053,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8402" t="s">
+      <c r="C8" s="8825" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="8411" t="s">
+      <c r="D8" s="8834" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8420" t="s">
+      <c r="E8" s="8843" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="8429" t="s">
+      <c r="F8" s="8852" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="8438" t="s">
+      <c r="G8" s="8861" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="8447" t="s">
+      <c r="H8" s="8870" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="8456" t="s">
+      <c r="I8" s="8879" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="8465" t="s">
+      <c r="J8" s="8888" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -37813,28 +39082,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="8403" t="s">
+      <c r="C9" s="8826" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="8412" t="s">
+      <c r="D9" s="8835" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="8421" t="s">
+      <c r="E9" s="8844" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="8430" t="s">
+      <c r="F9" s="8853" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="8439" t="s">
+      <c r="G9" s="8862" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="8448" t="s">
+      <c r="H9" s="8871" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="8457" t="s">
+      <c r="I9" s="8880" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="8466" t="s">
+      <c r="J9" s="8889" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -37842,28 +39111,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="8404" t="s">
+      <c r="C10" s="8827" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8413" t="s">
+      <c r="D10" s="8836" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8422" t="s">
+      <c r="E10" s="8845" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="8431" t="s">
+      <c r="F10" s="8854" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="8440" t="s">
+      <c r="G10" s="8863" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="8449" t="s">
+      <c r="H10" s="8872" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="8458" t="s">
+      <c r="I10" s="8881" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="8467" t="s">
+      <c r="J10" s="8890" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -37871,28 +39140,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="8405" t="s">
+      <c r="C11" s="8828" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8414" t="s">
+      <c r="D11" s="8837" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="8423" t="s">
+      <c r="E11" s="8846" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="8432" t="s">
+      <c r="F11" s="8855" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="8441" t="s">
+      <c r="G11" s="8864" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="8450" t="s">
+      <c r="H11" s="8873" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="8459" t="s">
+      <c r="I11" s="8882" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="8468" t="s">
+      <c r="J11" s="8891" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -38579,31 +39848,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8469" t="s">
+      <c r="C3" s="8892" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8475" t="s">
+      <c r="D3" s="8898" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="8481" t="s">
+      <c r="E3" s="8904" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="8487" t="s">
+      <c r="F3" s="8910" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="8493" t="s">
+      <c r="G3" s="8916" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="8499" t="s">
+      <c r="H3" s="8922" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="8505" t="s">
+      <c r="I3" s="8928" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="8511" t="s">
+      <c r="J3" s="8934" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="8517" t="s">
+      <c r="K3" s="8940" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -38619,31 +39888,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8470" t="s">
+      <c r="C4" s="8893" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8476" t="s">
+      <c r="D4" s="8899" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="8482" t="s">
+      <c r="E4" s="8905" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="8488" t="s">
+      <c r="F4" s="8911" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="8494" t="s">
+      <c r="G4" s="8917" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="8500" t="s">
+      <c r="H4" s="8923" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="8506" t="s">
+      <c r="I4" s="8929" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="8512" t="s">
+      <c r="J4" s="8935" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="8518" t="s">
+      <c r="K4" s="8941" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -38659,31 +39928,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8471" t="s">
+      <c r="C5" s="8894" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8477" t="s">
+      <c r="D5" s="8900" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="8483" t="s">
+      <c r="E5" s="8906" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="8489" t="s">
+      <c r="F5" s="8912" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="8495" t="s">
+      <c r="G5" s="8918" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="8501" t="s">
+      <c r="H5" s="8924" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="8507" t="s">
+      <c r="I5" s="8930" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="8513" t="s">
+      <c r="J5" s="8936" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="8519" t="s">
+      <c r="K5" s="8942" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -38699,31 +39968,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8472" t="s">
+      <c r="C6" s="8895" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8478" t="s">
+      <c r="D6" s="8901" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="8484" t="s">
+      <c r="E6" s="8907" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="8490" t="s">
+      <c r="F6" s="8913" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="8496" t="s">
+      <c r="G6" s="8919" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="8502" t="s">
+      <c r="H6" s="8925" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="8508" t="s">
+      <c r="I6" s="8931" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="8514" t="s">
+      <c r="J6" s="8937" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="8520" t="s">
+      <c r="K6" s="8943" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -38739,31 +40008,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8473" t="s">
+      <c r="C7" s="8896" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8479" t="s">
+      <c r="D7" s="8902" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="8485" t="s">
+      <c r="E7" s="8908" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="8491" t="s">
+      <c r="F7" s="8914" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="8497" t="s">
+      <c r="G7" s="8920" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="8503" t="s">
+      <c r="H7" s="8926" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="8509" t="s">
+      <c r="I7" s="8932" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="8515" t="s">
+      <c r="J7" s="8938" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="8521" t="s">
+      <c r="K7" s="8944" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -38779,31 +40048,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8474" t="s">
+      <c r="C8" s="8897" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8480" t="s">
+      <c r="D8" s="8903" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8486" t="s">
+      <c r="E8" s="8909" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="8492" t="s">
+      <c r="F8" s="8915" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="8498" t="s">
+      <c r="G8" s="8921" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="8504" t="s">
+      <c r="H8" s="8927" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="8510" t="s">
+      <c r="I8" s="8933" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="8516" t="s">
+      <c r="J8" s="8939" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="8522" t="s">
+      <c r="K8" s="8945" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9919" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10342" uniqueCount="304">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1431,7 +1431,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8946">
+  <cellXfs count="9369">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1545,1275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -36039,162 +37308,162 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="8523" t="s">
+      <c r="A3" s="8946" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8531" t="s">
+      <c r="B3" s="8954" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8539" t="s">
+      <c r="C3" s="8962" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8547" t="s">
+      <c r="D3" s="8970" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8555" t="s">
+      <c r="E3" s="8978" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="8563" t="s">
+      <c r="F3" s="8986" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8524" t="s">
+      <c r="A4" s="8947" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8532" t="s">
+      <c r="B4" s="8955" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8540" t="s">
+      <c r="C4" s="8963" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8548" t="s">
+      <c r="D4" s="8971" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8556" t="s">
+      <c r="E4" s="8979" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="8564" t="s">
+      <c r="F4" s="8987" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8525" t="s">
+      <c r="A5" s="8948" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8533" t="s">
+      <c r="B5" s="8956" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="8541" t="s">
+      <c r="C5" s="8964" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8549" t="s">
+      <c r="D5" s="8972" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="8557" t="s">
+      <c r="E5" s="8980" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="8565" t="s">
+      <c r="F5" s="8988" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8526" t="s">
+      <c r="A6" s="8949" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8534" t="s">
+      <c r="B6" s="8957" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8542" t="s">
+      <c r="C6" s="8965" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8550" t="s">
+      <c r="D6" s="8973" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="8558" t="s">
+      <c r="E6" s="8981" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="8566" t="s">
+      <c r="F6" s="8989" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8527" t="s">
+      <c r="A7" s="8950" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8535" t="s">
+      <c r="B7" s="8958" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8543" t="s">
+      <c r="C7" s="8966" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8551" t="s">
+      <c r="D7" s="8974" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8559" t="s">
+      <c r="E7" s="8982" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="8567" t="s">
+      <c r="F7" s="8990" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8528" t="s">
+      <c r="A8" s="8951" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8536" t="s">
+      <c r="B8" s="8959" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8544" t="s">
+      <c r="C8" s="8967" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8552" t="s">
+      <c r="D8" s="8975" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="8560" t="s">
+      <c r="E8" s="8983" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="8568" t="s">
+      <c r="F8" s="8991" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8529" t="s">
+      <c r="A9" s="8952" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8537" t="s">
+      <c r="B9" s="8960" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8545" t="s">
+      <c r="C9" s="8968" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8553" t="s">
+      <c r="D9" s="8976" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8561" t="s">
+      <c r="E9" s="8984" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="8569" t="s">
+      <c r="F9" s="8992" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8530" t="s">
+      <c r="A10" s="8953" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8538" t="s">
+      <c r="B10" s="8961" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8546" t="s">
+      <c r="C10" s="8969" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8554" t="s">
+      <c r="D10" s="8977" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="8562" t="s">
+      <c r="E10" s="8985" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="8570" t="s">
+      <c r="F10" s="8993" t="s">
         <v>40</v>
       </c>
     </row>
@@ -36322,25 +37591,25 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8571" t="s">
+      <c r="C3" s="8994" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8580" t="s">
+      <c r="D3" s="9003" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="8589" t="s">
+      <c r="E3" s="9012" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="8598" t="s">
+      <c r="F3" s="9021" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="8607" t="s">
+      <c r="G3" s="9030" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="8616" t="s">
+      <c r="H3" s="9039" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="8625" t="s">
+      <c r="I3" s="9048" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
@@ -36348,25 +37617,25 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8572" t="s">
+      <c r="C4" s="8995" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8581" t="s">
+      <c r="D4" s="9004" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="8590" t="s">
+      <c r="E4" s="9013" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="8599" t="s">
+      <c r="F4" s="9022" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="8608" t="s">
+      <c r="G4" s="9031" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="8617" t="s">
+      <c r="H4" s="9040" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="8626" t="s">
+      <c r="I4" s="9049" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
@@ -36374,25 +37643,25 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8573" t="s">
+      <c r="C5" s="8996" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8582" t="s">
+      <c r="D5" s="9005" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="8591" t="s">
+      <c r="E5" s="9014" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="8600" t="s">
+      <c r="F5" s="9023" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="8609" t="s">
+      <c r="G5" s="9032" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="8618" t="s">
+      <c r="H5" s="9041" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="8627" t="s">
+      <c r="I5" s="9050" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
@@ -36400,25 +37669,25 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8574" t="s">
+      <c r="C6" s="8997" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8583" t="s">
+      <c r="D6" s="9006" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="8592" t="s">
+      <c r="E6" s="9015" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="8601" t="s">
+      <c r="F6" s="9024" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="8610" t="s">
+      <c r="G6" s="9033" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="8619" t="s">
+      <c r="H6" s="9042" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="8628" t="s">
+      <c r="I6" s="9051" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
@@ -36426,25 +37695,25 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8575" t="s">
+      <c r="C7" s="8998" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8584" t="s">
+      <c r="D7" s="9007" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="8593" t="s">
+      <c r="E7" s="9016" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="8602" t="s">
+      <c r="F7" s="9025" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="8611" t="s">
+      <c r="G7" s="9034" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="8620" t="s">
+      <c r="H7" s="9043" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="8629" t="s">
+      <c r="I7" s="9052" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
@@ -36452,25 +37721,25 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8576" t="s">
+      <c r="C8" s="8999" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="8585" t="s">
+      <c r="D8" s="9008" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8594" t="s">
+      <c r="E8" s="9017" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="8603" t="s">
+      <c r="F8" s="9026" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="8612" t="s">
+      <c r="G8" s="9035" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="8621" t="s">
+      <c r="H8" s="9044" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="8630" t="s">
+      <c r="I8" s="9053" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
@@ -36478,25 +37747,25 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="8577" t="s">
+      <c r="C9" s="9000" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="8586" t="s">
+      <c r="D9" s="9009" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="8595" t="s">
+      <c r="E9" s="9018" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="8604" t="s">
+      <c r="F9" s="9027" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="8613" t="s">
+      <c r="G9" s="9036" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="8622" t="s">
+      <c r="H9" s="9045" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="8631" t="s">
+      <c r="I9" s="9054" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
@@ -36504,25 +37773,25 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="8578" t="s">
+      <c r="C10" s="9001" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8587" t="s">
+      <c r="D10" s="9010" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8596" t="s">
+      <c r="E10" s="9019" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="8605" t="s">
+      <c r="F10" s="9028" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="8614" t="s">
+      <c r="G10" s="9037" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="8623" t="s">
+      <c r="H10" s="9046" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="8632" t="s">
+      <c r="I10" s="9055" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
@@ -36530,25 +37799,25 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="8579" t="s">
+      <c r="C11" s="9002" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8588" t="s">
+      <c r="D11" s="9011" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="8597" t="s">
+      <c r="E11" s="9020" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="8606" t="s">
+      <c r="F11" s="9029" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="8615" t="s">
+      <c r="G11" s="9038" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="8624" t="s">
+      <c r="H11" s="9047" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="8633" t="s">
+      <c r="I11" s="9056" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
@@ -37144,31 +38413,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8634" t="s">
+      <c r="C3" s="9057" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8655" t="s">
+      <c r="D3" s="9078" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="8676" t="s">
+      <c r="E3" s="9099" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="8694" t="s">
+      <c r="F3" s="9117" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8715" t="s">
+      <c r="G3" s="9138" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="8736" t="s">
+      <c r="H3" s="9159" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="8757" t="s">
+      <c r="I3" s="9180" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="8778" t="s">
+      <c r="J3" s="9201" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="8799" t="s">
+      <c r="K3" s="9222" t="s">
         <v>111</v>
       </c>
       <c r="U3" s="9"/>
@@ -37182,31 +38451,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8635" t="s">
+      <c r="C4" s="9058" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8656" t="s">
+      <c r="D4" s="9079" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="8677" t="s">
+      <c r="E4" s="9100" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="8695" t="s">
+      <c r="F4" s="9118" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8716" t="s">
+      <c r="G4" s="9139" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="8737" t="s">
+      <c r="H4" s="9160" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="8758" t="s">
+      <c r="I4" s="9181" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="8779" t="s">
+      <c r="J4" s="9202" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="8800" t="s">
+      <c r="K4" s="9223" t="s">
         <v>115</v>
       </c>
       <c r="U4" s="9"/>
@@ -37220,31 +38489,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8636" t="s">
+      <c r="C5" s="9059" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8657" t="s">
+      <c r="D5" s="9080" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="8678" t="s">
+      <c r="E5" s="9101" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="8696" t="s">
+      <c r="F5" s="9119" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8717" t="s">
+      <c r="G5" s="9140" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="8738" t="s">
+      <c r="H5" s="9161" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="8759" t="s">
+      <c r="I5" s="9182" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="8780" t="s">
+      <c r="J5" s="9203" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="8801" t="s">
+      <c r="K5" s="9224" t="s">
         <v>118</v>
       </c>
       <c r="U5" s="9"/>
@@ -37258,31 +38527,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8637" t="s">
+      <c r="C6" s="9060" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8658" t="s">
+      <c r="D6" s="9081" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="8679" t="s">
+      <c r="E6" s="9102" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="8697" t="s">
+      <c r="F6" s="9120" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8718" t="s">
+      <c r="G6" s="9141" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="8739" t="s">
+      <c r="H6" s="9162" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="8760" t="s">
+      <c r="I6" s="9183" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="8781" t="s">
+      <c r="J6" s="9204" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="8802" t="s">
+      <c r="K6" s="9225" t="s">
         <v>121</v>
       </c>
       <c r="U6" s="9"/>
@@ -37296,31 +38565,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8638" t="s">
+      <c r="C7" s="9061" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8659" t="s">
+      <c r="D7" s="9082" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="8680" t="s">
+      <c r="E7" s="9103" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="8698" t="s">
+      <c r="F7" s="9121" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8719" t="s">
+      <c r="G7" s="9142" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="8740" t="s">
+      <c r="H7" s="9163" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="8761" t="s">
+      <c r="I7" s="9184" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="8782" t="s">
+      <c r="J7" s="9205" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="8803" t="s">
+      <c r="K7" s="9226" t="s">
         <v>124</v>
       </c>
       <c r="U7" s="9"/>
@@ -37334,31 +38603,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8639" t="s">
+      <c r="C8" s="9062" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8660" t="s">
+      <c r="D8" s="9083" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8681" t="s">
+      <c r="E8" s="9104" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="8699" t="s">
+      <c r="F8" s="9122" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8720" t="s">
+      <c r="G8" s="9143" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="8741" t="s">
+      <c r="H8" s="9164" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="8762" t="s">
+      <c r="I8" s="9185" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="8783" t="s">
+      <c r="J8" s="9206" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="8804" t="s">
+      <c r="K8" s="9227" t="s">
         <v>127</v>
       </c>
       <c r="U8" s="9"/>
@@ -37372,29 +38641,29 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="8640" t="s">
+      <c r="C9" s="9063" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8661" t="s">
+      <c r="D9" s="9084" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="8700" t="s">
+      <c r="F9" s="9123" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="8721" t="s">
+      <c r="G9" s="9144" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="8742" t="s">
+      <c r="H9" s="9165" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="8763" t="s">
+      <c r="I9" s="9186" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="8784" t="s">
+      <c r="J9" s="9207" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="8805" t="s">
+      <c r="K9" s="9228" t="s">
         <v>131</v>
       </c>
       <c r="U9" s="9"/>
@@ -37408,31 +38677,31 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="8641" t="s">
+      <c r="C10" s="9064" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="8662" t="s">
+      <c r="D10" s="9085" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="8682" t="s">
+      <c r="E10" s="9105" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="8701" t="s">
+      <c r="F10" s="9124" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8722" t="s">
+      <c r="G10" s="9145" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="8743" t="s">
+      <c r="H10" s="9166" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="8764" t="s">
+      <c r="I10" s="9187" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="8785" t="s">
+      <c r="J10" s="9208" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="8806" t="s">
+      <c r="K10" s="9229" t="s">
         <v>134</v>
       </c>
       <c r="U10" s="9"/>
@@ -37446,31 +38715,31 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="8642" t="s">
+      <c r="C11" s="9065" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8663" t="s">
+      <c r="D11" s="9086" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="8683" t="s">
+      <c r="E11" s="9106" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="8702" t="s">
+      <c r="F11" s="9125" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8723" t="s">
+      <c r="G11" s="9146" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="8744" t="s">
+      <c r="H11" s="9167" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="8765" t="s">
+      <c r="I11" s="9188" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="8786" t="s">
+      <c r="J11" s="9209" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="8807" t="s">
+      <c r="K11" s="9230" t="s">
         <v>137</v>
       </c>
       <c r="U11" s="9"/>
@@ -37484,31 +38753,31 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="8643" t="s">
+      <c r="C12" s="9066" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8664" t="s">
+      <c r="D12" s="9087" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="8684" t="s">
+      <c r="E12" s="9107" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="8703" t="s">
+      <c r="F12" s="9126" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8724" t="s">
+      <c r="G12" s="9147" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="8745" t="s">
+      <c r="H12" s="9168" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="8766" t="s">
+      <c r="I12" s="9189" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="8787" t="s">
+      <c r="J12" s="9210" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="8808" t="s">
+      <c r="K12" s="9231" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="9"/>
@@ -37522,31 +38791,31 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="8644" t="s">
+      <c r="C13" s="9067" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="8665" t="s">
+      <c r="D13" s="9088" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="8685" t="s">
+      <c r="E13" s="9108" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="8704" t="s">
+      <c r="F13" s="9127" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="8725" t="s">
+      <c r="G13" s="9148" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="8746" t="s">
+      <c r="H13" s="9169" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="8767" t="s">
+      <c r="I13" s="9190" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="8788" t="s">
+      <c r="J13" s="9211" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="8809" t="s">
+      <c r="K13" s="9232" t="s">
         <v>143</v>
       </c>
       <c r="U13" s="9"/>
@@ -37560,31 +38829,31 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="8645" t="s">
+      <c r="C14" s="9068" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8666" t="s">
+      <c r="D14" s="9089" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="8686" t="s">
+      <c r="E14" s="9109" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="8705" t="s">
+      <c r="F14" s="9128" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="8726" t="s">
+      <c r="G14" s="9149" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="8747" t="s">
+      <c r="H14" s="9170" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="8768" t="s">
+      <c r="I14" s="9191" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="8789" t="s">
+      <c r="J14" s="9212" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="8810" t="s">
+      <c r="K14" s="9233" t="s">
         <v>146</v>
       </c>
       <c r="U14" s="9"/>
@@ -37598,31 +38867,31 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="8646" t="s">
+      <c r="C15" s="9069" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8667" t="s">
+      <c r="D15" s="9090" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="8687" t="s">
+      <c r="E15" s="9110" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="8706" t="s">
+      <c r="F15" s="9129" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="8727" t="s">
+      <c r="G15" s="9150" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="8748" t="s">
+      <c r="H15" s="9171" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="8769" t="s">
+      <c r="I15" s="9192" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="8790" t="s">
+      <c r="J15" s="9213" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="8811" t="s">
+      <c r="K15" s="9234" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="9"/>
@@ -37636,29 +38905,29 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="8647" t="s">
+      <c r="C16" s="9070" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="8668" t="s">
+      <c r="D16" s="9091" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="8707" t="s">
+      <c r="F16" s="9130" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="8728" t="s">
+      <c r="G16" s="9151" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="8749" t="s">
+      <c r="H16" s="9172" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="8770" t="s">
+      <c r="I16" s="9193" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="8791" t="s">
+      <c r="J16" s="9214" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="8812" t="s">
+      <c r="K16" s="9235" t="s">
         <v>152</v>
       </c>
       <c r="U16" s="9"/>
@@ -37672,31 +38941,31 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="8648" t="s">
+      <c r="C17" s="9071" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="8669" t="s">
+      <c r="D17" s="9092" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="8688" t="s">
+      <c r="E17" s="9111" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="8708" t="s">
+      <c r="F17" s="9131" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="8729" t="s">
+      <c r="G17" s="9152" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="8750" t="s">
+      <c r="H17" s="9173" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="8771" t="s">
+      <c r="I17" s="9194" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="8792" t="s">
+      <c r="J17" s="9215" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="8813" t="s">
+      <c r="K17" s="9236" t="s">
         <v>155</v>
       </c>
       <c r="U17" s="9"/>
@@ -37710,31 +38979,31 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="8649" t="s">
+      <c r="C18" s="9072" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="8670" t="s">
+      <c r="D18" s="9093" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="8689" t="s">
+      <c r="E18" s="9112" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="8709" t="s">
+      <c r="F18" s="9132" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="8730" t="s">
+      <c r="G18" s="9153" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="8751" t="s">
+      <c r="H18" s="9174" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="8772" t="s">
+      <c r="I18" s="9195" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="8793" t="s">
+      <c r="J18" s="9216" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="8814" t="s">
+      <c r="K18" s="9237" t="s">
         <v>158</v>
       </c>
       <c r="U18" s="9"/>
@@ -37748,31 +39017,31 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="8650" t="s">
+      <c r="C19" s="9073" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="8671" t="s">
+      <c r="D19" s="9094" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="8690" t="s">
+      <c r="E19" s="9113" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="8710" t="s">
+      <c r="F19" s="9133" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="8731" t="s">
+      <c r="G19" s="9154" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="8752" t="s">
+      <c r="H19" s="9175" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="8773" t="s">
+      <c r="I19" s="9196" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="8794" t="s">
+      <c r="J19" s="9217" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="8815" t="s">
+      <c r="K19" s="9238" t="s">
         <v>161</v>
       </c>
       <c r="U19" s="9"/>
@@ -37786,31 +39055,31 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="8651" t="s">
+      <c r="C20" s="9074" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="8672" t="s">
+      <c r="D20" s="9095" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="8691" t="s">
+      <c r="E20" s="9114" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="8711" t="s">
+      <c r="F20" s="9134" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="8732" t="s">
+      <c r="G20" s="9155" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="8753" t="s">
+      <c r="H20" s="9176" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="8774" t="s">
+      <c r="I20" s="9197" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="8795" t="s">
+      <c r="J20" s="9218" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="8816" t="s">
+      <c r="K20" s="9239" t="s">
         <v>164</v>
       </c>
       <c r="U20" s="9"/>
@@ -37824,31 +39093,31 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="8652" t="s">
+      <c r="C21" s="9075" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="8673" t="s">
+      <c r="D21" s="9096" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="8692" t="s">
+      <c r="E21" s="9115" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="8712" t="s">
+      <c r="F21" s="9135" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="8733" t="s">
+      <c r="G21" s="9156" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="8754" t="s">
+      <c r="H21" s="9177" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="8775" t="s">
+      <c r="I21" s="9198" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="8796" t="s">
+      <c r="J21" s="9219" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="8817" t="s">
+      <c r="K21" s="9240" t="s">
         <v>167</v>
       </c>
       <c r="U21" s="9"/>
@@ -37862,31 +39131,31 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="8653" t="s">
+      <c r="C22" s="9076" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="8674" t="s">
+      <c r="D22" s="9097" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="8693" t="s">
+      <c r="E22" s="9116" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="8713" t="s">
+      <c r="F22" s="9136" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="8734" t="s">
+      <c r="G22" s="9157" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="8755" t="s">
+      <c r="H22" s="9178" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="8776" t="s">
+      <c r="I22" s="9199" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="8797" t="s">
+      <c r="J22" s="9220" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="8818" t="s">
+      <c r="K22" s="9241" t="s">
         <v>170</v>
       </c>
       <c r="U22" s="9"/>
@@ -37900,29 +39169,29 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="8654" t="s">
+      <c r="C23" s="9077" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="8675" t="s">
+      <c r="D23" s="9098" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="8714" t="s">
+      <c r="F23" s="9137" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="8735" t="s">
+      <c r="G23" s="9158" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="8756" t="s">
+      <c r="H23" s="9179" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="8777" t="s">
+      <c r="I23" s="9200" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="8798" t="s">
+      <c r="J23" s="9221" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="8819" t="s">
+      <c r="K23" s="9242" t="s">
         <v>173</v>
       </c>
       <c r="U23" s="9"/>
@@ -38908,28 +40177,28 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8820" t="s">
+      <c r="C3" s="9243" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8829" t="s">
+      <c r="D3" s="9252" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="8838" t="s">
+      <c r="E3" s="9261" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="8847" t="s">
+      <c r="F3" s="9270" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="8856" t="s">
+      <c r="G3" s="9279" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="8865" t="s">
+      <c r="H3" s="9288" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="8874" t="s">
+      <c r="I3" s="9297" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="8883" t="s">
+      <c r="J3" s="9306" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
@@ -38937,28 +40206,28 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8821" t="s">
+      <c r="C4" s="9244" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8830" t="s">
+      <c r="D4" s="9253" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="8839" t="s">
+      <c r="E4" s="9262" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="8848" t="s">
+      <c r="F4" s="9271" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="8857" t="s">
+      <c r="G4" s="9280" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="8866" t="s">
+      <c r="H4" s="9289" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="8875" t="s">
+      <c r="I4" s="9298" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="8884" t="s">
+      <c r="J4" s="9307" t="s">
         <v>186</v>
       </c>
       <c r="K4"/>
@@ -38966,28 +40235,28 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8822" t="s">
+      <c r="C5" s="9245" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="8831" t="s">
+      <c r="D5" s="9254" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="8840" t="s">
+      <c r="E5" s="9263" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="8849" t="s">
+      <c r="F5" s="9272" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="8858" t="s">
+      <c r="G5" s="9281" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="8867" t="s">
+      <c r="H5" s="9290" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="8876" t="s">
+      <c r="I5" s="9299" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="8885" t="s">
+      <c r="J5" s="9308" t="s">
         <v>191</v>
       </c>
       <c r="K5"/>
@@ -38995,28 +40264,28 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8823" t="s">
+      <c r="C6" s="9246" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8832" t="s">
+      <c r="D6" s="9255" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="8841" t="s">
+      <c r="E6" s="9264" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="8850" t="s">
+      <c r="F6" s="9273" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="8859" t="s">
+      <c r="G6" s="9282" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="8868" t="s">
+      <c r="H6" s="9291" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="8877" t="s">
+      <c r="I6" s="9300" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="8886" t="s">
+      <c r="J6" s="9309" t="s">
         <v>196</v>
       </c>
       <c r="K6"/>
@@ -39024,28 +40293,28 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8824" t="s">
+      <c r="C7" s="9247" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8833" t="s">
+      <c r="D7" s="9256" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="8842" t="s">
+      <c r="E7" s="9265" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="8851" t="s">
+      <c r="F7" s="9274" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="8860" t="s">
+      <c r="G7" s="9283" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="8869" t="s">
+      <c r="H7" s="9292" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="8878" t="s">
+      <c r="I7" s="9301" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="8887" t="s">
+      <c r="J7" s="9310" t="s">
         <v>201</v>
       </c>
       <c r="K7"/>
@@ -39053,28 +40322,28 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8825" t="s">
+      <c r="C8" s="9248" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="8834" t="s">
+      <c r="D8" s="9257" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8843" t="s">
+      <c r="E8" s="9266" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="8852" t="s">
+      <c r="F8" s="9275" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="8861" t="s">
+      <c r="G8" s="9284" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="8870" t="s">
+      <c r="H8" s="9293" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="8879" t="s">
+      <c r="I8" s="9302" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="8888" t="s">
+      <c r="J8" s="9311" t="s">
         <v>206</v>
       </c>
       <c r="K8"/>
@@ -39082,28 +40351,28 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="8826" t="s">
+      <c r="C9" s="9249" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="8835" t="s">
+      <c r="D9" s="9258" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="8844" t="s">
+      <c r="E9" s="9267" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="8853" t="s">
+      <c r="F9" s="9276" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="8862" t="s">
+      <c r="G9" s="9285" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="8871" t="s">
+      <c r="H9" s="9294" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="8880" t="s">
+      <c r="I9" s="9303" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="8889" t="s">
+      <c r="J9" s="9312" t="s">
         <v>211</v>
       </c>
       <c r="K9"/>
@@ -39111,28 +40380,28 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="8827" t="s">
+      <c r="C10" s="9250" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8836" t="s">
+      <c r="D10" s="9259" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8845" t="s">
+      <c r="E10" s="9268" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="8854" t="s">
+      <c r="F10" s="9277" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="8863" t="s">
+      <c r="G10" s="9286" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="8872" t="s">
+      <c r="H10" s="9295" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="8881" t="s">
+      <c r="I10" s="9304" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="8890" t="s">
+      <c r="J10" s="9313" t="s">
         <v>216</v>
       </c>
       <c r="K10"/>
@@ -39140,28 +40409,28 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="8828" t="s">
+      <c r="C11" s="9251" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8837" t="s">
+      <c r="D11" s="9260" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="8846" t="s">
+      <c r="E11" s="9269" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="8855" t="s">
+      <c r="F11" s="9278" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="8864" t="s">
+      <c r="G11" s="9287" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="8873" t="s">
+      <c r="H11" s="9296" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="8882" t="s">
+      <c r="I11" s="9305" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="8891" t="s">
+      <c r="J11" s="9314" t="s">
         <v>221</v>
       </c>
       <c r="K11"/>
@@ -39848,31 +41117,31 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8892" t="s">
+      <c r="C3" s="9315" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8898" t="s">
+      <c r="D3" s="9321" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="8904" t="s">
+      <c r="E3" s="9327" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="8910" t="s">
+      <c r="F3" s="9333" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="8916" t="s">
+      <c r="G3" s="9339" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="8922" t="s">
+      <c r="H3" s="9345" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="8928" t="s">
+      <c r="I3" s="9351" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="8934" t="s">
+      <c r="J3" s="9357" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="8940" t="s">
+      <c r="K3" s="9363" t="s">
         <v>228</v>
       </c>
       <c r="U3" s="9"/>
@@ -39888,31 +41157,31 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8893" t="s">
+      <c r="C4" s="9316" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8899" t="s">
+      <c r="D4" s="9322" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="8905" t="s">
+      <c r="E4" s="9328" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="8911" t="s">
+      <c r="F4" s="9334" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="8917" t="s">
+      <c r="G4" s="9340" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="8923" t="s">
+      <c r="H4" s="9346" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="8929" t="s">
+      <c r="I4" s="9352" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="8935" t="s">
+      <c r="J4" s="9358" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="8941" t="s">
+      <c r="K4" s="9364" t="s">
         <v>233</v>
       </c>
       <c r="U4" s="9"/>
@@ -39928,31 +41197,31 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8894" t="s">
+      <c r="C5" s="9317" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8900" t="s">
+      <c r="D5" s="9323" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="8906" t="s">
+      <c r="E5" s="9329" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="8912" t="s">
+      <c r="F5" s="9335" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="8918" t="s">
+      <c r="G5" s="9341" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="8924" t="s">
+      <c r="H5" s="9347" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="8930" t="s">
+      <c r="I5" s="9353" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="8936" t="s">
+      <c r="J5" s="9359" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="8942" t="s">
+      <c r="K5" s="9365" t="s">
         <v>228</v>
       </c>
       <c r="U5" s="9"/>
@@ -39968,31 +41237,31 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8895" t="s">
+      <c r="C6" s="9318" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8901" t="s">
+      <c r="D6" s="9324" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="8907" t="s">
+      <c r="E6" s="9330" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="8913" t="s">
+      <c r="F6" s="9336" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="8919" t="s">
+      <c r="G6" s="9342" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="8925" t="s">
+      <c r="H6" s="9348" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="8931" t="s">
+      <c r="I6" s="9354" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="8937" t="s">
+      <c r="J6" s="9360" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="8943" t="s">
+      <c r="K6" s="9366" t="s">
         <v>233</v>
       </c>
       <c r="U6" s="9"/>
@@ -40008,31 +41277,31 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8896" t="s">
+      <c r="C7" s="9319" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8902" t="s">
+      <c r="D7" s="9325" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="8908" t="s">
+      <c r="E7" s="9331" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="8914" t="s">
+      <c r="F7" s="9337" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="8920" t="s">
+      <c r="G7" s="9343" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="8926" t="s">
+      <c r="H7" s="9349" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="8932" t="s">
+      <c r="I7" s="9355" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="8938" t="s">
+      <c r="J7" s="9361" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="8944" t="s">
+      <c r="K7" s="9367" t="s">
         <v>242</v>
       </c>
       <c r="U7" s="9"/>
@@ -40048,31 +41317,31 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8897" t="s">
+      <c r="C8" s="9320" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8903" t="s">
+      <c r="D8" s="9326" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="8909" t="s">
+      <c r="E8" s="9332" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="8915" t="s">
+      <c r="F8" s="9338" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="8921" t="s">
+      <c r="G8" s="9344" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="8927" t="s">
+      <c r="H8" s="9350" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="8933" t="s">
+      <c r="I8" s="9356" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="8939" t="s">
+      <c r="J8" s="9362" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="8945" t="s">
+      <c r="K8" s="9368" t="s">
         <v>233</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10342" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10765" uniqueCount="393">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1136,6 +1136,273 @@
   <si>
     <t>*asset-links is for worksheets and other resources that you may want to link to in presentations</t>
   </si>
+  <si>
+    <t>1_l05Hh42OCn27s4J0EA2ZZIv6DH3iklv</t>
+  </si>
+  <si>
+    <t>1_l_wCb4BnqAwl7lRd4rhniYnWWxCo6dp</t>
+  </si>
+  <si>
+    <t>1_xLO8r6yovUqh7Br6dH-MYQeN4dsN-xh</t>
+  </si>
+  <si>
+    <t>13KhwPWU4XnwmJ5Gp0bkff8bNE9OX6Cqw</t>
+  </si>
+  <si>
+    <t>1aQSc4el8wfW1rBRRzogQy9RTIblswzwh</t>
+  </si>
+  <si>
+    <t>1aS1E8As0EXEATxswOqgwAL8WGjBs_GkL</t>
+  </si>
+  <si>
+    <t>1aTyvN7oRiyOP50XNMMqVh1oOgMmdlCtB</t>
+  </si>
+  <si>
+    <t>13Nui6xpSuOC0okuIVmEBGPa1Pjj2WJy2</t>
+  </si>
+  <si>
+    <t>1-xkENqDwXLz62_UHXWAmQ2eJPCUpNywXB-uz1dywIak</t>
+  </si>
+  <si>
+    <t>1AYdI3aj9WQdFl_eCPDXpnlwMc13pwmNsxnwdM1sZ9iM</t>
+  </si>
+  <si>
+    <t>1s3lfQ-UHWqrUq4rd1EQg_BjhjAKkG4SJavR7_EKR3Sw</t>
+  </si>
+  <si>
+    <t>1vyCDH9FccecJV0umctV--9nWmdKikbVQ47ToKUtYq8Y</t>
+  </si>
+  <si>
+    <t>1eIAjDroQeOw49kK0WSf0CP0I_Jz-AJtKt8hlSDt4m84</t>
+  </si>
+  <si>
+    <t>1W5QIqGEzFLbRKzk9wvvO0rVhCt3t5Fa0sDaK6i9btto</t>
+  </si>
+  <si>
+    <t>1y5C2w1bJouuCE-_T383eDUKXREfU3OblxYHm10lfVy4</t>
+  </si>
+  <si>
+    <t>1xLtmCyK5PpRS3JsB-TFmQUYdM-AiQkzg_dmNF7ZTisc</t>
+  </si>
+  <si>
+    <t>1LwYzfh-fwMu8Ej3Pn_0A0Cul3LSTQy8tcX1YWA3WjYo</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1XMeydMI5WUk7bajhazvqFjQcS9yUwRSu2-9VVM4H13A/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1IeOvMypCE2OTjMf3ZEe9MmcoF0NB1YzRPTHbl8xaeqU/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1oyXAIwwgtQEOpt2W8lvx2iWx1xMRQaXVlITqcnVBjAs/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1a9PDt1ImC0JG7_vZqh-yXcCa7RYBa-DqyRfbqRDZsVE/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1vnBk3WbFTuQ5wzrBw6yzyKUlql4PdnDeMmqLcD2Hkk8/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/16f_VJ2xCNy2qzs4majLlMbVDzf93pYYXTkKmcqwr9kc/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1q6I_M1oTIWb3JxwJ8NDud1ECt248RiqZR6BjkYJLiJ8/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1s2qYrx_88xEfeRNM530Jxs4cLbJeRPzmfI7cd7UQDT8/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1hDWushBDAAwUuEuUdr--hGqrMyUriHnw9Y41zOMHHC0/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1L737p4jTBB4XCd_hfzDm7xQqEt3nRosBk67yTjqQReE/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1U2jpqM1ipy0h-L_001kItL93AfXT6AQtj9P3YoEdfI0/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1yBey9NeTjqDxBEEv-7hlJjDtIse3bkB_X8JCbxhGPqA/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1ccHAO3mwI59t38HbyyCYEyKrrPGjO9rljQojC9vFmic/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/10uU0I3GL-rUIIfcIw5gVeO9A1A3rwX1W2-x1wApwdPI/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1f4-nC_VBrKdLCU6gHucbTkByVheTHtE668OXqNpzdME/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1w7aK0dBglK5NedpIMWnx9Cz0Xwfg7U1MQqPVDEc1kxg/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1OU81GWUHonBjilSnjr390gGIzZUHhEh_CWVxx_-4SfQ/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/192-nPS5k_nTkyQw7FrXEZ0jwerqWoXRmYNcwqiuEeJc/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1AERHj7Jx8o7vcG1Ejza-fsyYBIU3oSv4oyhT-dcaUTU/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1-CIgtCumwSnOnMVpq8t-Izxro48D76i-DyLH7z-qAQc/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1zeTb9Y37V6hZ1DxH5LGXD0bnqCI5zQHj5-fFlqxRgqg/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1q6I_M1oTIWb3JxwJ8NDud1ECt248RiqZR6BjkYJLiJ8/export/pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/10uU0I3GL-rUIIfcIw5gVeO9A1A3rwX1W2-x1wApwdPI/export/pdf</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1zeTb9Y37V6hZ1DxH5LGXD0bnqCI5zQHj5-fFlqxRgqg/export/pdf</t>
+  </si>
+  <si>
+    <t>1XMeydMI5WUk7bajhazvqFjQcS9yUwRSu2-9VVM4H13A</t>
+  </si>
+  <si>
+    <t>1IeOvMypCE2OTjMf3ZEe9MmcoF0NB1YzRPTHbl8xaeqU</t>
+  </si>
+  <si>
+    <t>1oyXAIwwgtQEOpt2W8lvx2iWx1xMRQaXVlITqcnVBjAs</t>
+  </si>
+  <si>
+    <t>1a9PDt1ImC0JG7_vZqh-yXcCa7RYBa-DqyRfbqRDZsVE</t>
+  </si>
+  <si>
+    <t>1vnBk3WbFTuQ5wzrBw6yzyKUlql4PdnDeMmqLcD2Hkk8</t>
+  </si>
+  <si>
+    <t>16f_VJ2xCNy2qzs4majLlMbVDzf93pYYXTkKmcqwr9kc</t>
+  </si>
+  <si>
+    <t>1q6I_M1oTIWb3JxwJ8NDud1ECt248RiqZR6BjkYJLiJ8</t>
+  </si>
+  <si>
+    <t>1s2qYrx_88xEfeRNM530Jxs4cLbJeRPzmfI7cd7UQDT8</t>
+  </si>
+  <si>
+    <t>1hDWushBDAAwUuEuUdr--hGqrMyUriHnw9Y41zOMHHC0</t>
+  </si>
+  <si>
+    <t>1L737p4jTBB4XCd_hfzDm7xQqEt3nRosBk67yTjqQReE</t>
+  </si>
+  <si>
+    <t>1U2jpqM1ipy0h-L_001kItL93AfXT6AQtj9P3YoEdfI0</t>
+  </si>
+  <si>
+    <t>1yBey9NeTjqDxBEEv-7hlJjDtIse3bkB_X8JCbxhGPqA</t>
+  </si>
+  <si>
+    <t>1ccHAO3mwI59t38HbyyCYEyKrrPGjO9rljQojC9vFmic</t>
+  </si>
+  <si>
+    <t>10uU0I3GL-rUIIfcIw5gVeO9A1A3rwX1W2-x1wApwdPI</t>
+  </si>
+  <si>
+    <t>1f4-nC_VBrKdLCU6gHucbTkByVheTHtE668OXqNpzdME</t>
+  </si>
+  <si>
+    <t>1w7aK0dBglK5NedpIMWnx9Cz0Xwfg7U1MQqPVDEc1kxg</t>
+  </si>
+  <si>
+    <t>1OU81GWUHonBjilSnjr390gGIzZUHhEh_CWVxx_-4SfQ</t>
+  </si>
+  <si>
+    <t>192-nPS5k_nTkyQw7FrXEZ0jwerqWoXRmYNcwqiuEeJc</t>
+  </si>
+  <si>
+    <t>1AERHj7Jx8o7vcG1Ejza-fsyYBIU3oSv4oyhT-dcaUTU</t>
+  </si>
+  <si>
+    <t>1-CIgtCumwSnOnMVpq8t-Izxro48D76i-DyLH7z-qAQc</t>
+  </si>
+  <si>
+    <t>1zeTb9Y37V6hZ1DxH5LGXD0bnqCI5zQHj5-fFlqxRgqg</t>
+  </si>
+  <si>
+    <t>1ZS2e0Y8s74Fq85ak4OOi7_VLEcGQpCKpP5koCG1V5e8</t>
+  </si>
+  <si>
+    <t>1OpS9bS983mfrnL8IqBST0FhsNMUVrRQfWGsE8L0Xq1g</t>
+  </si>
+  <si>
+    <t>1YYFWZVN7u0fPKAiJ5irMieGN6h0-uuAvQKsasp1r5ss</t>
+  </si>
+  <si>
+    <t>1JvfwHaXqbsv6HN9gJAQI4AuAKKHKvza89mqHPqJ3GO8</t>
+  </si>
+  <si>
+    <t>1Tcp52KncP2JGJK5YOgKq-CgCTR4UjsFyXHbYnz86WvU</t>
+  </si>
+  <si>
+    <t>1D6o1ybWAXYUob4o0rQiDfmOYRf0S0sMhkXBR3zgUlyA</t>
+  </si>
+  <si>
+    <t>1a0dRiYA_L0LG_4KE6dImmgGQHkZtG4utPvn816DoXOw</t>
+  </si>
+  <si>
+    <t>1DfeLRvKqv1pAmX3tIuEkaYcd1elWOk0pJ9ipldRCYtY</t>
+  </si>
+  <si>
+    <t>1jYxTsIVv8skH_MvGCjLa9YtDl4WEGMi_1a079sbMtAE</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bC4McsjvWeBLTnfedsL7GxytaFy60NFF/edit?usp=drivesdk&amp;ouid=109450450310463970706&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bfUF7zDY_TFipiMsfsvGmBwkxd0qMgSn/edit?usp=drivesdk&amp;ouid=109450450310463970706&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bRfT56hbO6uOeOBqzr5U-gI_pte2X7Pd/edit?usp=drivesdk&amp;ouid=109450450310463970706&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1blBvoHgc0slnpmVIuL24GTqSQfwOyFmH/edit?usp=drivesdk&amp;ouid=109450450310463970706&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bYbtq5DOUW6u7BJAlG4-UZZ8fhkuuQjg/edit?usp=drivesdk&amp;ouid=109450450310463970706&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bn-_Hgkuqdtjq4o7aOeOC_XtydBRSfXK/edit?usp=drivesdk&amp;ouid=109450450310463970706&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bC4McsjvWeBLTnfedsL7GxytaFy60NFF/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bfUF7zDY_TFipiMsfsvGmBwkxd0qMgSn/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bRfT56hbO6uOeOBqzr5U-gI_pte2X7Pd/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1blBvoHgc0slnpmVIuL24GTqSQfwOyFmH/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bYbtq5DOUW6u7BJAlG4-UZZ8fhkuuQjg/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bn-_Hgkuqdtjq4o7aOeOC_XtydBRSfXK/</t>
+  </si>
+  <si>
+    <t>1bC4McsjvWeBLTnfedsL7GxytaFy60NFF</t>
+  </si>
+  <si>
+    <t>1bfUF7zDY_TFipiMsfsvGmBwkxd0qMgSn</t>
+  </si>
+  <si>
+    <t>1bRfT56hbO6uOeOBqzr5U-gI_pte2X7Pd</t>
+  </si>
+  <si>
+    <t>1blBvoHgc0slnpmVIuL24GTqSQfwOyFmH</t>
+  </si>
+  <si>
+    <t>1bYbtq5DOUW6u7BJAlG4-UZZ8fhkuuQjg</t>
+  </si>
+  <si>
+    <t>1bn-_Hgkuqdtjq4o7aOeOC_XtydBRSfXK</t>
+  </si>
 </sst>
 </file>
 
@@ -1431,7 +1698,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9369">
+  <cellXfs count="9792">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1545,6 +1812,1275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -37308,163 +38844,171 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="8946" t="s">
+      <c r="A3" s="9369" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8954" t="s">
+      <c r="B3" s="9377" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8962" t="s">
+      <c r="C3" s="9385" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8970" t="s">
+      <c r="D3" s="9393" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8978" t="s">
+      <c r="E3" s="9401" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="8986" t="s">
-        <v>40</v>
+      <c r="F3" s="8986"/>
+      <c r="G3" t="s" s="9409">
+        <v>304</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8947" t="s">
+      <c r="A4" s="9370" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8955" t="s">
+      <c r="B4" s="9378" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8963" t="s">
+      <c r="C4" s="9386" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8971" t="s">
+      <c r="D4" s="9394" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8979" t="s">
+      <c r="E4" s="9402" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="8987" t="s">
-        <v>40</v>
+      <c r="F4" s="8987"/>
+      <c r="G4" t="s" s="9410">
+        <v>305</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8948" t="s">
+      <c r="A5" s="9371" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8956" t="s">
+      <c r="B5" s="9379" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="8964" t="s">
+      <c r="C5" s="9387" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8972" t="s">
+      <c r="D5" s="9395" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="8980" t="s">
+      <c r="E5" s="9403" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="8988" t="s">
-        <v>40</v>
+      <c r="F5" s="8988"/>
+      <c r="G5" t="s" s="9411">
+        <v>306</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8949" t="s">
+      <c r="A6" s="9372" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8957" t="s">
+      <c r="B6" s="9380" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8965" t="s">
+      <c r="C6" s="9388" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8973" t="s">
+      <c r="D6" s="9396" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="8981" t="s">
+      <c r="E6" s="9404" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="8989" t="s">
-        <v>40</v>
+      <c r="F6" s="8989"/>
+      <c r="G6" t="s" s="9412">
+        <v>307</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8950" t="s">
+      <c r="A7" s="9373" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8958" t="s">
+      <c r="B7" s="9381" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8966" t="s">
+      <c r="C7" s="9389" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8974" t="s">
+      <c r="D7" s="9397" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8982" t="s">
+      <c r="E7" s="9405" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="8990" t="s">
-        <v>40</v>
+      <c r="F7" s="8990"/>
+      <c r="G7" t="s" s="9413">
+        <v>308</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8951" t="s">
+      <c r="A8" s="9374" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8959" t="s">
+      <c r="B8" s="9382" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8967" t="s">
+      <c r="C8" s="9390" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8975" t="s">
+      <c r="D8" s="9398" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="8983" t="s">
+      <c r="E8" s="9406" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="8991" t="s">
-        <v>40</v>
+      <c r="F8" s="8991"/>
+      <c r="G8" t="s" s="9414">
+        <v>309</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8952" t="s">
+      <c r="A9" s="9375" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8960" t="s">
+      <c r="B9" s="9383" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8968" t="s">
+      <c r="C9" s="9391" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8976" t="s">
+      <c r="D9" s="9399" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8984" t="s">
+      <c r="E9" s="9407" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="8992" t="s">
-        <v>40</v>
+      <c r="F9" s="8992"/>
+      <c r="G9" t="s" s="9415">
+        <v>310</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8953" t="s">
+      <c r="A10" s="9376" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8961" t="s">
+      <c r="B10" s="9384" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8969" t="s">
+      <c r="C10" s="9392" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8977" t="s">
+      <c r="D10" s="9400" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="8985" t="s">
+      <c r="E10" s="9408" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="8993" t="s">
-        <v>40</v>
+      <c r="F10" s="8993"/>
+      <c r="G10" t="s" s="9416">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -37591,236 +39135,245 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="8994" t="s">
+      <c r="C3" s="9417" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9003" t="s">
+      <c r="D3" s="9426" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="9012" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="9021" t="s">
+      <c r="E3" s="9435" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="9444" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="9030" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="9039" t="s">
+      <c r="G3" s="9030"/>
+      <c r="H3" s="9453" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="9048" t="s">
+      <c r="I3" s="9462" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
+      <c r="K3" t="s" s="9471">
+        <v>312</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="8995" t="s">
+      <c r="C4" s="9418" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9004" t="s">
+      <c r="D4" s="9427" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9013" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="9022" t="s">
+      <c r="E4" s="9436" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="9445" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="9031" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="9040" t="s">
+      <c r="G4" s="9031"/>
+      <c r="H4" s="9454" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="9049" t="s">
+      <c r="I4" s="9463" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
+      <c r="K4" t="s" s="9472">
+        <v>313</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="8996" t="s">
+      <c r="C5" s="9419" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9005" t="s">
+      <c r="D5" s="9428" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="9014" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="9023" t="s">
+      <c r="E5" s="9437" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="9446" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="9032" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="9041" t="s">
+      <c r="G5" s="9032"/>
+      <c r="H5" s="9455" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="9050" t="s">
+      <c r="I5" s="9464" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
+      <c r="K5" t="s" s="9473">
+        <v>314</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="8997" t="s">
+      <c r="C6" s="9420" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9006" t="s">
+      <c r="D6" s="9429" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="9015" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="9024" t="s">
+      <c r="E6" s="9438" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="9447" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="9033" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="9042" t="s">
+      <c r="G6" s="9033"/>
+      <c r="H6" s="9456" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="9051" t="s">
+      <c r="I6" s="9465" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
+      <c r="K6" t="s" s="9474">
+        <v>315</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="8998" t="s">
+      <c r="C7" s="9421" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9007" t="s">
+      <c r="D7" s="9430" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="9016" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="9025" t="s">
+      <c r="E7" s="9439" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="9448" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="9034" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="9043" t="s">
+      <c r="G7" s="9034"/>
+      <c r="H7" s="9457" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="9052" t="s">
+      <c r="I7" s="9466" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
+      <c r="K7" t="s" s="9475">
+        <v>316</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="8999" t="s">
+      <c r="C8" s="9422" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9008" t="s">
+      <c r="D8" s="9431" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9017" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="9026" t="s">
+      <c r="E8" s="9440" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="9449" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="9035" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="9044" t="s">
+      <c r="G8" s="9035"/>
+      <c r="H8" s="9458" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="9053" t="s">
+      <c r="I8" s="9467" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
+      <c r="K8" t="s" s="9476">
+        <v>317</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="9000" t="s">
+      <c r="C9" s="9423" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9009" t="s">
+      <c r="D9" s="9432" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="9018" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="9027" t="s">
+      <c r="E9" s="9441" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="9450" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="9036" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="9045" t="s">
+      <c r="G9" s="9036"/>
+      <c r="H9" s="9459" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="9054" t="s">
+      <c r="I9" s="9468" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
+      <c r="K9" t="s" s="9477">
+        <v>318</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="9001" t="s">
+      <c r="C10" s="9424" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9010" t="s">
+      <c r="D10" s="9433" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="9019" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="9028" t="s">
+      <c r="E10" s="9442" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="9451" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="9037" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="9046" t="s">
+      <c r="G10" s="9037"/>
+      <c r="H10" s="9460" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="9055" t="s">
+      <c r="I10" s="9469" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
+      <c r="K10" t="s" s="9478">
+        <v>319</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="9002" t="s">
+      <c r="C11" s="9425" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="9011" t="s">
+      <c r="D11" s="9434" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="9020" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="9029" t="s">
+      <c r="E11" s="9443" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9452" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="9038" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="9047" t="s">
+      <c r="G11" s="9038"/>
+      <c r="H11" s="9461" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="9056" t="s">
+      <c r="I11" s="9470" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
+      <c r="K11" t="s" s="9479">
+        <v>320</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24"/>
@@ -38413,32 +39966,33 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="9057" t="s">
+      <c r="C3" s="9480" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9078" t="s">
+      <c r="D3" s="9501" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="9099" t="s">
+      <c r="E3" s="9522" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="9117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9138" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="9159" t="s">
+      <c r="F3" s="9540" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="9561" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="9582" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="9180" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="9201" t="s">
+      <c r="I3" s="9180"/>
+      <c r="J3" s="9603" t="s">
+        <v>321</v>
+      </c>
+      <c r="K3" s="9624" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="9222" t="s">
-        <v>111</v>
+      <c r="L3" t="s" s="9645">
+        <v>345</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
@@ -38451,32 +40005,33 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="9058" t="s">
+      <c r="C4" s="9481" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9079" t="s">
+      <c r="D4" s="9502" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="9100" t="s">
+      <c r="E4" s="9523" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="9118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9139" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="9160" t="s">
+      <c r="F4" s="9541" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9562" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="9583" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="9181" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="9202" t="s">
+      <c r="I4" s="9181"/>
+      <c r="J4" s="9604" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="9625" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="9223" t="s">
-        <v>115</v>
+      <c r="L4" t="s" s="9646">
+        <v>346</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -38489,32 +40044,33 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="9059" t="s">
+      <c r="C5" s="9482" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9080" t="s">
+      <c r="D5" s="9503" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="9101" t="s">
+      <c r="E5" s="9524" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="9119" t="s">
+      <c r="F5" s="9542" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9140" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="9161" t="s">
+      <c r="G5" s="9563" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="9584" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="9182" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="9203" t="s">
+      <c r="I5" s="9182"/>
+      <c r="J5" s="9605" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="9626" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="9224" t="s">
-        <v>118</v>
+      <c r="L5" t="s" s="9647">
+        <v>347</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -38527,32 +40083,33 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="9060" t="s">
+      <c r="C6" s="9483" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="9081" t="s">
+      <c r="D6" s="9504" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="9102" t="s">
+      <c r="E6" s="9525" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="9120" t="s">
+      <c r="F6" s="9543" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9141" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="9162" t="s">
+      <c r="G6" s="9564" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="9585" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="9183" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="9204" t="s">
+      <c r="I6" s="9183"/>
+      <c r="J6" s="9606" t="s">
+        <v>324</v>
+      </c>
+      <c r="K6" s="9627" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="9225" t="s">
-        <v>121</v>
+      <c r="L6" t="s" s="9648">
+        <v>348</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -38565,32 +40122,33 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="9061" t="s">
+      <c r="C7" s="9484" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9082" t="s">
+      <c r="D7" s="9505" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="9103" t="s">
+      <c r="E7" s="9526" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="9121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9142" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="9163" t="s">
+      <c r="F7" s="9544" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9565" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="9586" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="9184" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="9205" t="s">
+      <c r="I7" s="9184"/>
+      <c r="J7" s="9607" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" s="9628" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="9226" t="s">
-        <v>124</v>
+      <c r="L7" t="s" s="9649">
+        <v>349</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -38603,32 +40161,33 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="9062" t="s">
+      <c r="C8" s="9485" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9083" t="s">
+      <c r="D8" s="9506" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9104" t="s">
+      <c r="E8" s="9527" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="9122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="9143" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="9164" t="s">
+      <c r="F8" s="9545" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9566" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="9587" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="9185" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="9206" t="s">
+      <c r="I8" s="9185"/>
+      <c r="J8" s="9608" t="s">
+        <v>326</v>
+      </c>
+      <c r="K8" s="9629" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="9227" t="s">
-        <v>127</v>
+      <c r="L8" t="s" s="9650">
+        <v>350</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -38641,30 +40200,31 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="9063" t="s">
+      <c r="C9" s="9486" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9084" t="s">
+      <c r="D9" s="9507" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="9123" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="9144" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="9165" t="s">
+      <c r="F9" s="9546" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9567" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="9588" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="9186" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="9207" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="9228" t="s">
-        <v>131</v>
+      <c r="I9" s="9186"/>
+      <c r="J9" s="9609" t="s">
+        <v>327</v>
+      </c>
+      <c r="K9" s="9630" t="s">
+        <v>342</v>
+      </c>
+      <c r="L9" t="s" s="9651">
+        <v>351</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -38677,32 +40237,33 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="9064" t="s">
+      <c r="C10" s="9487" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="9085" t="s">
+      <c r="D10" s="9508" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="9105" t="s">
+      <c r="E10" s="9528" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="9124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9145" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="9166" t="s">
+      <c r="F10" s="9547" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9568" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="9589" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="9187" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="9208" t="s">
+      <c r="I10" s="9187"/>
+      <c r="J10" s="9610" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="9631" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="9229" t="s">
-        <v>134</v>
+      <c r="L10" t="s" s="9652">
+        <v>352</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -38715,32 +40276,33 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="9065" t="s">
+      <c r="C11" s="9488" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="9086" t="s">
+      <c r="D11" s="9509" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="9106" t="s">
+      <c r="E11" s="9529" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="9125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="9146" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="9167" t="s">
+      <c r="F11" s="9548" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="9569" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="9590" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="9188" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="9209" t="s">
+      <c r="I11" s="9188"/>
+      <c r="J11" s="9611" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="9632" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="9230" t="s">
-        <v>137</v>
+      <c r="L11" t="s" s="9653">
+        <v>353</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -38753,32 +40315,33 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="9066" t="s">
+      <c r="C12" s="9489" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9087" t="s">
+      <c r="D12" s="9510" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="9107" t="s">
+      <c r="E12" s="9530" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="9126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9147" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="9168" t="s">
+      <c r="F12" s="9549" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9570" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="9591" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="9189" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="9210" t="s">
+      <c r="I12" s="9189"/>
+      <c r="J12" s="9612" t="s">
+        <v>330</v>
+      </c>
+      <c r="K12" s="9633" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="9231" t="s">
-        <v>140</v>
+      <c r="L12" t="s" s="9654">
+        <v>354</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -38791,32 +40354,33 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="9067" t="s">
+      <c r="C13" s="9490" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9088" t="s">
+      <c r="D13" s="9511" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="9108" t="s">
+      <c r="E13" s="9531" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="9127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="9148" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="9169" t="s">
+      <c r="F13" s="9550" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9571" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="9592" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="9190" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="9211" t="s">
+      <c r="I13" s="9190"/>
+      <c r="J13" s="9613" t="s">
+        <v>331</v>
+      </c>
+      <c r="K13" s="9634" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="9232" t="s">
-        <v>143</v>
+      <c r="L13" t="s" s="9655">
+        <v>355</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -38829,32 +40393,33 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="9068" t="s">
+      <c r="C14" s="9491" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9089" t="s">
+      <c r="D14" s="9512" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="9109" t="s">
+      <c r="E14" s="9532" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="9128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="9149" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="9170" t="s">
+      <c r="F14" s="9551" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9572" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="9593" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="9191" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="9212" t="s">
+      <c r="I14" s="9191"/>
+      <c r="J14" s="9614" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="9635" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="9233" t="s">
-        <v>146</v>
+      <c r="L14" t="s" s="9656">
+        <v>356</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -38867,32 +40432,33 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="9069" t="s">
+      <c r="C15" s="9492" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="9090" t="s">
+      <c r="D15" s="9513" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="9110" t="s">
+      <c r="E15" s="9533" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9150" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="9171" t="s">
+      <c r="F15" s="9552" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9573" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="9594" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="9192" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="9213" t="s">
+      <c r="I15" s="9192"/>
+      <c r="J15" s="9615" t="s">
+        <v>333</v>
+      </c>
+      <c r="K15" s="9636" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="9234" t="s">
-        <v>149</v>
+      <c r="L15" t="s" s="9657">
+        <v>357</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -38905,30 +40471,31 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="9070" t="s">
+      <c r="C16" s="9493" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9091" t="s">
+      <c r="D16" s="9514" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="9130" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="9151" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="9172" t="s">
+      <c r="F16" s="9553" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9574" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="9595" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="9193" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="9214" t="s">
-        <v>152</v>
-      </c>
-      <c r="K16" s="9235" t="s">
-        <v>152</v>
+      <c r="I16" s="9193"/>
+      <c r="J16" s="9616" t="s">
+        <v>334</v>
+      </c>
+      <c r="K16" s="9637" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" t="s" s="9658">
+        <v>358</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -38941,32 +40508,33 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="9071" t="s">
+      <c r="C17" s="9494" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="9092" t="s">
+      <c r="D17" s="9515" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="9111" t="s">
+      <c r="E17" s="9534" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="9131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="9152" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="9173" t="s">
+      <c r="F17" s="9554" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="9575" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="9596" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="9194" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="9215" t="s">
+      <c r="I17" s="9194"/>
+      <c r="J17" s="9617" t="s">
+        <v>335</v>
+      </c>
+      <c r="K17" s="9638" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="9236" t="s">
-        <v>155</v>
+      <c r="L17" t="s" s="9659">
+        <v>359</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -38979,32 +40547,33 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="9072" t="s">
+      <c r="C18" s="9495" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="9093" t="s">
+      <c r="D18" s="9516" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="9112" t="s">
+      <c r="E18" s="9535" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="9132" t="s">
+      <c r="F18" s="9555" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9153" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="9174" t="s">
+      <c r="G18" s="9576" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="9597" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="9195" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="9216" t="s">
+      <c r="I18" s="9195"/>
+      <c r="J18" s="9618" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="9639" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="9237" t="s">
-        <v>158</v>
+      <c r="L18" t="s" s="9660">
+        <v>360</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -39017,32 +40586,33 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="9073" t="s">
+      <c r="C19" s="9496" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="9094" t="s">
+      <c r="D19" s="9517" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="9113" t="s">
+      <c r="E19" s="9536" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="9133" t="s">
+      <c r="F19" s="9556" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="9154" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="9175" t="s">
+      <c r="G19" s="9577" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="9598" t="s">
         <v>160</v>
       </c>
-      <c r="I19" s="9196" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="9217" t="s">
+      <c r="I19" s="9196"/>
+      <c r="J19" s="9619" t="s">
+        <v>337</v>
+      </c>
+      <c r="K19" s="9640" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="9238" t="s">
-        <v>161</v>
+      <c r="L19" t="s" s="9661">
+        <v>361</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -39055,32 +40625,33 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="9074" t="s">
+      <c r="C20" s="9497" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="9095" t="s">
+      <c r="D20" s="9518" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="9114" t="s">
+      <c r="E20" s="9537" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="9134" t="s">
+      <c r="F20" s="9557" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="9155" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="9176" t="s">
+      <c r="G20" s="9578" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="9599" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="9197" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="9218" t="s">
+      <c r="I20" s="9197"/>
+      <c r="J20" s="9620" t="s">
+        <v>338</v>
+      </c>
+      <c r="K20" s="9641" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="9239" t="s">
-        <v>164</v>
+      <c r="L20" t="s" s="9662">
+        <v>362</v>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -39093,32 +40664,33 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="9075" t="s">
+      <c r="C21" s="9498" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="9096" t="s">
+      <c r="D21" s="9519" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="9115" t="s">
+      <c r="E21" s="9538" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="9135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9156" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="9177" t="s">
+      <c r="F21" s="9558" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9579" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="9600" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="9198" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="9219" t="s">
+      <c r="I21" s="9198"/>
+      <c r="J21" s="9621" t="s">
+        <v>339</v>
+      </c>
+      <c r="K21" s="9642" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="9240" t="s">
-        <v>167</v>
+      <c r="L21" t="s" s="9663">
+        <v>363</v>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -39131,32 +40703,33 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="9076" t="s">
+      <c r="C22" s="9499" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="9097" t="s">
+      <c r="D22" s="9520" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="9116" t="s">
+      <c r="E22" s="9539" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="9136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="9157" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="9178" t="s">
+      <c r="F22" s="9559" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9580" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="9601" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="9199" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="9220" t="s">
+      <c r="I22" s="9199"/>
+      <c r="J22" s="9622" t="s">
+        <v>340</v>
+      </c>
+      <c r="K22" s="9643" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="9241" t="s">
-        <v>170</v>
+      <c r="L22" t="s" s="9664">
+        <v>364</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -39169,30 +40742,31 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="9077" t="s">
+      <c r="C23" s="9500" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="9098" t="s">
+      <c r="D23" s="9521" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="9137" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="9158" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="9179" t="s">
+      <c r="F23" s="9560" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="9581" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="9602" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="9200" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="9221" t="s">
-        <v>173</v>
-      </c>
-      <c r="K23" s="9242" t="s">
-        <v>173</v>
+      <c r="I23" s="9200"/>
+      <c r="J23" s="9623" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" s="9644" t="s">
+        <v>344</v>
+      </c>
+      <c r="L23" t="s" s="9665">
+        <v>365</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -40177,263 +41751,272 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="9243" t="s">
+      <c r="C3" s="9666" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9252" t="s">
+      <c r="D3" s="9675" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="9261" t="s">
+      <c r="E3" s="9684" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="9270" t="s">
+      <c r="F3" s="9693" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="9279" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="9288" t="s">
+      <c r="G3" s="9279"/>
+      <c r="H3" s="9702" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="9297" t="s">
+      <c r="I3" s="9711" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="9306" t="s">
+      <c r="J3" s="9720" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
+      <c r="L3" t="s" s="9729">
+        <v>366</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="9244" t="s">
+      <c r="C4" s="9667" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9253" t="s">
+      <c r="D4" s="9676" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9262" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="9271" t="s">
+      <c r="E4" s="9685" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="9694" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="9280" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="9289" t="s">
+      <c r="G4" s="9280"/>
+      <c r="H4" s="9703" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="9298" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="9307" t="s">
-        <v>186</v>
+      <c r="I4" s="9712" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="9721" t="s">
+        <v>191</v>
       </c>
       <c r="K4"/>
+      <c r="L4" t="s" s="9730">
+        <v>367</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="9245" t="s">
+      <c r="C5" s="9668" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9254" t="s">
+      <c r="D5" s="9677" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="9263" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="9272" t="s">
+      <c r="E5" s="9686" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="9695" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="9281" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="9290" t="s">
+      <c r="G5" s="9281"/>
+      <c r="H5" s="9704" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="9299" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="9308" t="s">
-        <v>191</v>
+      <c r="I5" s="9713" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="9722" t="s">
+        <v>186</v>
       </c>
       <c r="K5"/>
+      <c r="L5" t="s" s="9731">
+        <v>368</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="9246" t="s">
+      <c r="C6" s="9669" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9255" t="s">
+      <c r="D6" s="9678" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="9264" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="9273" t="s">
+      <c r="E6" s="9687" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="9696" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="9282" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="9291" t="s">
+      <c r="G6" s="9282"/>
+      <c r="H6" s="9705" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="9300" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="9309" t="s">
-        <v>196</v>
+      <c r="I6" s="9714" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="9723" t="s">
+        <v>216</v>
       </c>
       <c r="K6"/>
+      <c r="L6" t="s" s="9732">
+        <v>369</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="9247" t="s">
+      <c r="C7" s="9670" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9256" t="s">
+      <c r="D7" s="9679" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="9265" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="9274" t="s">
+      <c r="E7" s="9688" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="9697" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="9283" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="9292" t="s">
+      <c r="G7" s="9283"/>
+      <c r="H7" s="9706" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="9301" t="s">
-        <v>200</v>
-      </c>
-      <c r="J7" s="9310" t="s">
-        <v>201</v>
+      <c r="I7" s="9715" t="s">
+        <v>220</v>
+      </c>
+      <c r="J7" s="9724" t="s">
+        <v>221</v>
       </c>
       <c r="K7"/>
+      <c r="L7" t="s" s="9733">
+        <v>370</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="9248" t="s">
+      <c r="C8" s="9671" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9257" t="s">
+      <c r="D8" s="9680" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9266" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="9275" t="s">
+      <c r="E8" s="9689" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="9698" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="9284" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="9293" t="s">
+      <c r="G8" s="9284"/>
+      <c r="H8" s="9707" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="9302" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="9311" t="s">
-        <v>206</v>
+      <c r="I8" s="9716" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="9725" t="s">
+        <v>211</v>
       </c>
       <c r="K8"/>
+      <c r="L8" t="s" s="9734">
+        <v>371</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="9249" t="s">
+      <c r="C9" s="9672" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9258" t="s">
+      <c r="D9" s="9681" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="9267" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="9276" t="s">
+      <c r="E9" s="9690" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="9699" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="9285" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="9294" t="s">
+      <c r="G9" s="9285"/>
+      <c r="H9" s="9708" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="9303" t="s">
-        <v>210</v>
-      </c>
-      <c r="J9" s="9312" t="s">
-        <v>211</v>
+      <c r="I9" s="9717" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="9726" t="s">
+        <v>196</v>
       </c>
       <c r="K9"/>
+      <c r="L9" t="s" s="9735">
+        <v>372</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="9250" t="s">
+      <c r="C10" s="9673" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9259" t="s">
+      <c r="D10" s="9682" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="9268" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="9277" t="s">
+      <c r="E10" s="9691" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="9700" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="9286" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="9295" t="s">
+      <c r="G10" s="9286"/>
+      <c r="H10" s="9709" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="9304" t="s">
-        <v>215</v>
-      </c>
-      <c r="J10" s="9313" t="s">
-        <v>216</v>
+      <c r="I10" s="9718" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="9727" t="s">
+        <v>206</v>
       </c>
       <c r="K10"/>
+      <c r="L10" t="s" s="9736">
+        <v>373</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="9251" t="s">
+      <c r="C11" s="9674" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="9260" t="s">
+      <c r="D11" s="9683" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="9269" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="9278" t="s">
+      <c r="E11" s="9692" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="9701" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="9287" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="9296" t="s">
+      <c r="G11" s="9287"/>
+      <c r="H11" s="9710" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="9305" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" s="9314" t="s">
-        <v>221</v>
+      <c r="I11" s="9719" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="9728" t="s">
+        <v>201</v>
       </c>
       <c r="K11"/>
+      <c r="L11" t="s" s="9737">
+        <v>374</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24"/>
@@ -41117,32 +42700,33 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="9315" t="s">
+      <c r="C3" s="9738" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9321" t="s">
+      <c r="D3" s="9744" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="9327" t="s">
+      <c r="E3" s="9750" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="9333" t="s">
+      <c r="F3" s="9756" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="9339" t="s">
+      <c r="G3" s="9762" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="9345" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="9351" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="9357" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="9363" t="s">
+      <c r="H3" s="9768" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" s="9351"/>
+      <c r="J3" s="9774" t="s">
+        <v>381</v>
+      </c>
+      <c r="K3" s="9780" t="s">
         <v>228</v>
+      </c>
+      <c r="L3" t="s" s="9786">
+        <v>387</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
@@ -41157,32 +42741,33 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="9316" t="s">
+      <c r="C4" s="9739" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9322" t="s">
+      <c r="D4" s="9745" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="9328" t="s">
+      <c r="E4" s="9751" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="9334" t="s">
+      <c r="F4" s="9757" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="9340" t="s">
+      <c r="G4" s="9763" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="9346" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" s="9352" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="9358" t="s">
-        <v>232</v>
-      </c>
-      <c r="K4" s="9364" t="s">
+      <c r="H4" s="9769" t="s">
+        <v>376</v>
+      </c>
+      <c r="I4" s="9352"/>
+      <c r="J4" s="9775" t="s">
+        <v>382</v>
+      </c>
+      <c r="K4" s="9781" t="s">
         <v>233</v>
+      </c>
+      <c r="L4" t="s" s="9787">
+        <v>388</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -41197,32 +42782,33 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="9317" t="s">
+      <c r="C5" s="9740" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9323" t="s">
+      <c r="D5" s="9746" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="9329" t="s">
+      <c r="E5" s="9752" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="9335" t="s">
+      <c r="F5" s="9758" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="9341" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="9347" t="s">
-        <v>235</v>
-      </c>
-      <c r="I5" s="9353" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="9359" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" s="9365" t="s">
-        <v>228</v>
+      <c r="G5" s="9764" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="9770" t="s">
+        <v>377</v>
+      </c>
+      <c r="I5" s="9353"/>
+      <c r="J5" s="9776" t="s">
+        <v>383</v>
+      </c>
+      <c r="K5" s="9782" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" t="s" s="9788">
+        <v>389</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -41237,32 +42823,33 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="9318" t="s">
+      <c r="C6" s="9741" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9324" t="s">
+      <c r="D6" s="9747" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="9330" t="s">
+      <c r="E6" s="9753" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="9336" t="s">
+      <c r="F6" s="9759" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="9342" t="s">
+      <c r="G6" s="9765" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="9348" t="s">
-        <v>237</v>
-      </c>
-      <c r="I6" s="9354" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="9360" t="s">
-        <v>238</v>
-      </c>
-      <c r="K6" s="9366" t="s">
+      <c r="H6" s="9771" t="s">
+        <v>378</v>
+      </c>
+      <c r="I6" s="9354"/>
+      <c r="J6" s="9777" t="s">
+        <v>384</v>
+      </c>
+      <c r="K6" s="9783" t="s">
         <v>233</v>
+      </c>
+      <c r="L6" t="s" s="9789">
+        <v>390</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -41277,32 +42864,33 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="9319" t="s">
+      <c r="C7" s="9742" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="9325" t="s">
+      <c r="D7" s="9748" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="9331" t="s">
+      <c r="E7" s="9754" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="9337" t="s">
+      <c r="F7" s="9760" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="9343" t="s">
-        <v>239</v>
-      </c>
-      <c r="H7" s="9349" t="s">
-        <v>240</v>
-      </c>
-      <c r="I7" s="9355" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="9361" t="s">
-        <v>241</v>
-      </c>
-      <c r="K7" s="9367" t="s">
-        <v>242</v>
+      <c r="G7" s="9766" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="9772" t="s">
+        <v>379</v>
+      </c>
+      <c r="I7" s="9355"/>
+      <c r="J7" s="9778" t="s">
+        <v>385</v>
+      </c>
+      <c r="K7" s="9784" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" t="s" s="9790">
+        <v>391</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -41317,32 +42905,33 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="9320" t="s">
+      <c r="C8" s="9743" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9326" t="s">
+      <c r="D8" s="9749" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9332" t="s">
+      <c r="E8" s="9755" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="9338" t="s">
+      <c r="F8" s="9761" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="9344" t="s">
+      <c r="G8" s="9767" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="9350" t="s">
-        <v>243</v>
-      </c>
-      <c r="I8" s="9356" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="9362" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" s="9368" t="s">
+      <c r="H8" s="9773" t="s">
+        <v>380</v>
+      </c>
+      <c r="I8" s="9356"/>
+      <c r="J8" s="9779" t="s">
+        <v>386</v>
+      </c>
+      <c r="K8" s="9785" t="s">
         <v>233</v>
+      </c>
+      <c r="L8" t="s" s="9791">
+        <v>392</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10765" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11611" uniqueCount="393">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1698,7 +1698,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9792">
+  <cellXfs count="10638">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1812,6 +1812,2544 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -38844,170 +41382,170 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="9369" t="s">
+      <c r="A3" s="10215" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9377" t="s">
+      <c r="B3" s="10223" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9385" t="s">
+      <c r="C3" s="10231" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="9393" t="s">
+      <c r="D3" s="10239" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9401" t="s">
+      <c r="E3" s="10247" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="8986"/>
-      <c r="G3" t="s" s="9409">
+      <c r="G3" t="s" s="10255">
         <v>304</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9370" t="s">
+      <c r="A4" s="10216" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9378" t="s">
+      <c r="B4" s="10224" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="9386" t="s">
+      <c r="C4" s="10232" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9394" t="s">
+      <c r="D4" s="10240" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="9402" t="s">
+      <c r="E4" s="10248" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="8987"/>
-      <c r="G4" t="s" s="9410">
+      <c r="G4" t="s" s="10256">
         <v>305</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9371" t="s">
+      <c r="A5" s="10217" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9379" t="s">
+      <c r="B5" s="10225" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="9387" t="s">
+      <c r="C5" s="10233" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9395" t="s">
+      <c r="D5" s="10241" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="9403" t="s">
+      <c r="E5" s="10249" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="8988"/>
-      <c r="G5" t="s" s="9411">
+      <c r="G5" t="s" s="10257">
         <v>306</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9372" t="s">
+      <c r="A6" s="10218" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9380" t="s">
+      <c r="B6" s="10226" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="9388" t="s">
+      <c r="C6" s="10234" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="9396" t="s">
+      <c r="D6" s="10242" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="9404" t="s">
+      <c r="E6" s="10250" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="8989"/>
-      <c r="G6" t="s" s="9412">
+      <c r="G6" t="s" s="10258">
         <v>307</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9373" t="s">
+      <c r="A7" s="10219" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9381" t="s">
+      <c r="B7" s="10227" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9389" t="s">
+      <c r="C7" s="10235" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9397" t="s">
+      <c r="D7" s="10243" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9405" t="s">
+      <c r="E7" s="10251" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="8990"/>
-      <c r="G7" t="s" s="9413">
+      <c r="G7" t="s" s="10259">
         <v>308</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9374" t="s">
+      <c r="A8" s="10220" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9382" t="s">
+      <c r="B8" s="10228" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="9390" t="s">
+      <c r="C8" s="10236" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9398" t="s">
+      <c r="D8" s="10244" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9406" t="s">
+      <c r="E8" s="10252" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="8991"/>
-      <c r="G8" t="s" s="9414">
+      <c r="G8" t="s" s="10260">
         <v>309</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9375" t="s">
+      <c r="A9" s="10221" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9383" t="s">
+      <c r="B9" s="10229" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="9391" t="s">
+      <c r="C9" s="10237" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="9399" t="s">
+      <c r="D9" s="10245" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="9407" t="s">
+      <c r="E9" s="10253" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="8992"/>
-      <c r="G9" t="s" s="9415">
+      <c r="G9" t="s" s="10261">
         <v>310</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9376" t="s">
+      <c r="A10" s="10222" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9384" t="s">
+      <c r="B10" s="10230" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="9392" t="s">
+      <c r="C10" s="10238" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9400" t="s">
+      <c r="D10" s="10246" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="9408" t="s">
+      <c r="E10" s="10254" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="8993"/>
-      <c r="G10" t="s" s="9416">
+      <c r="G10" t="s" s="10262">
         <v>311</v>
       </c>
     </row>
@@ -39135,243 +41673,243 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="9417" t="s">
+      <c r="C3" s="10263" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9426" t="s">
+      <c r="D3" s="10272" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="9435" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="9444" t="s">
+      <c r="E3" s="10281" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="10290" t="s">
         <v>66</v>
       </c>
       <c r="G3" s="9030"/>
-      <c r="H3" s="9453" t="s">
+      <c r="H3" s="10299" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="9462" t="s">
+      <c r="I3" s="10308" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
-      <c r="K3" t="s" s="9471">
+      <c r="K3" t="s" s="10317">
         <v>312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="9418" t="s">
+      <c r="C4" s="10264" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9427" t="s">
+      <c r="D4" s="10273" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9436" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="9445" t="s">
+      <c r="E4" s="10282" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="10291" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="9031"/>
-      <c r="H4" s="9454" t="s">
+      <c r="H4" s="10300" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="9463" t="s">
+      <c r="I4" s="10309" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
-      <c r="K4" t="s" s="9472">
+      <c r="K4" t="s" s="10318">
         <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="9419" t="s">
+      <c r="C5" s="10265" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9428" t="s">
+      <c r="D5" s="10274" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="9437" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="9446" t="s">
+      <c r="E5" s="10283" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="10292" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="9032"/>
-      <c r="H5" s="9455" t="s">
+      <c r="H5" s="10301" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="9464" t="s">
+      <c r="I5" s="10310" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
-      <c r="K5" t="s" s="9473">
+      <c r="K5" t="s" s="10319">
         <v>314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="9420" t="s">
+      <c r="C6" s="10266" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9429" t="s">
+      <c r="D6" s="10275" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="9438" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="9447" t="s">
+      <c r="E6" s="10284" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="10293" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="9033"/>
-      <c r="H6" s="9456" t="s">
+      <c r="H6" s="10302" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="9465" t="s">
+      <c r="I6" s="10311" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
-      <c r="K6" t="s" s="9474">
+      <c r="K6" t="s" s="10320">
         <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="9421" t="s">
+      <c r="C7" s="10267" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9430" t="s">
+      <c r="D7" s="10276" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="9439" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="9448" t="s">
+      <c r="E7" s="10285" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="10294" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="9034"/>
-      <c r="H7" s="9457" t="s">
+      <c r="H7" s="10303" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="9466" t="s">
+      <c r="I7" s="10312" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
-      <c r="K7" t="s" s="9475">
+      <c r="K7" t="s" s="10321">
         <v>316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="9422" t="s">
+      <c r="C8" s="10268" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9431" t="s">
+      <c r="D8" s="10277" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9440" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="9449" t="s">
+      <c r="E8" s="10286" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="10295" t="s">
         <v>89</v>
       </c>
       <c r="G8" s="9035"/>
-      <c r="H8" s="9458" t="s">
+      <c r="H8" s="10304" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="9467" t="s">
+      <c r="I8" s="10313" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
-      <c r="K8" t="s" s="9476">
+      <c r="K8" t="s" s="10322">
         <v>317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="9423" t="s">
+      <c r="C9" s="10269" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9432" t="s">
+      <c r="D9" s="10278" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="9441" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="9450" t="s">
+      <c r="E9" s="10287" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="10296" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="9036"/>
-      <c r="H9" s="9459" t="s">
+      <c r="H9" s="10305" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="9468" t="s">
+      <c r="I9" s="10314" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
-      <c r="K9" t="s" s="9477">
+      <c r="K9" t="s" s="10323">
         <v>318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="9424" t="s">
+      <c r="C10" s="10270" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9433" t="s">
+      <c r="D10" s="10279" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="9442" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="9451" t="s">
+      <c r="E10" s="10288" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="10297" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="9037"/>
-      <c r="H10" s="9460" t="s">
+      <c r="H10" s="10306" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="9469" t="s">
+      <c r="I10" s="10315" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
-      <c r="K10" t="s" s="9478">
+      <c r="K10" t="s" s="10324">
         <v>319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="9425" t="s">
+      <c r="C11" s="10271" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="9434" t="s">
+      <c r="D11" s="10280" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="9443" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="9452" t="s">
+      <c r="E11" s="10289" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="10298" t="s">
         <v>101</v>
       </c>
       <c r="G11" s="9038"/>
-      <c r="H11" s="9461" t="s">
+      <c r="H11" s="10307" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="9470" t="s">
+      <c r="I11" s="10316" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
-      <c r="K11" t="s" s="9479">
+      <c r="K11" t="s" s="10325">
         <v>320</v>
       </c>
     </row>
@@ -39966,32 +42504,32 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="9480" t="s">
+      <c r="C3" s="10326" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9501" t="s">
+      <c r="D3" s="10347" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="9522" t="s">
+      <c r="E3" s="10368" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="9540" t="s">
+      <c r="F3" s="10386" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="9561" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="9582" t="s">
+      <c r="G3" s="10407" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="10428" t="s">
         <v>110</v>
       </c>
       <c r="I3" s="9180"/>
-      <c r="J3" s="9603" t="s">
+      <c r="J3" s="10449" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="9624" t="s">
+      <c r="K3" s="10470" t="s">
         <v>111</v>
       </c>
-      <c r="L3" t="s" s="9645">
+      <c r="L3" t="s" s="10491">
         <v>345</v>
       </c>
       <c r="U3" s="9"/>
@@ -40005,32 +42543,32 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="9481" t="s">
+      <c r="C4" s="10327" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9502" t="s">
+      <c r="D4" s="10348" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="9523" t="s">
+      <c r="E4" s="10369" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="9541" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9562" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="9583" t="s">
+      <c r="F4" s="10387" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10408" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="10429" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="9181"/>
-      <c r="J4" s="9604" t="s">
+      <c r="J4" s="10450" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="9625" t="s">
+      <c r="K4" s="10471" t="s">
         <v>115</v>
       </c>
-      <c r="L4" t="s" s="9646">
+      <c r="L4" t="s" s="10492">
         <v>346</v>
       </c>
       <c r="U4" s="9"/>
@@ -40044,32 +42582,32 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="9482" t="s">
+      <c r="C5" s="10328" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9503" t="s">
+      <c r="D5" s="10349" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="9524" t="s">
+      <c r="E5" s="10370" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="9542" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9563" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="9584" t="s">
+      <c r="F5" s="10388" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10409" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="10430" t="s">
         <v>117</v>
       </c>
       <c r="I5" s="9182"/>
-      <c r="J5" s="9605" t="s">
+      <c r="J5" s="10451" t="s">
         <v>323</v>
       </c>
-      <c r="K5" s="9626" t="s">
+      <c r="K5" s="10472" t="s">
         <v>118</v>
       </c>
-      <c r="L5" t="s" s="9647">
+      <c r="L5" t="s" s="10493">
         <v>347</v>
       </c>
       <c r="U5" s="9"/>
@@ -40083,32 +42621,32 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="9483" t="s">
+      <c r="C6" s="10329" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="9504" t="s">
+      <c r="D6" s="10350" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="9525" t="s">
+      <c r="E6" s="10371" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="9543" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9564" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="9585" t="s">
+      <c r="F6" s="10389" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10410" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="10431" t="s">
         <v>120</v>
       </c>
       <c r="I6" s="9183"/>
-      <c r="J6" s="9606" t="s">
+      <c r="J6" s="10452" t="s">
         <v>324</v>
       </c>
-      <c r="K6" s="9627" t="s">
+      <c r="K6" s="10473" t="s">
         <v>121</v>
       </c>
-      <c r="L6" t="s" s="9648">
+      <c r="L6" t="s" s="10494">
         <v>348</v>
       </c>
       <c r="U6" s="9"/>
@@ -40122,32 +42660,32 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="9484" t="s">
+      <c r="C7" s="10330" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9505" t="s">
+      <c r="D7" s="10351" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="9526" t="s">
+      <c r="E7" s="10372" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="9544" t="s">
+      <c r="F7" s="10390" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9565" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="9586" t="s">
+      <c r="G7" s="10411" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="10432" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="9184"/>
-      <c r="J7" s="9607" t="s">
+      <c r="J7" s="10453" t="s">
         <v>325</v>
       </c>
-      <c r="K7" s="9628" t="s">
+      <c r="K7" s="10474" t="s">
         <v>124</v>
       </c>
-      <c r="L7" t="s" s="9649">
+      <c r="L7" t="s" s="10495">
         <v>349</v>
       </c>
       <c r="U7" s="9"/>
@@ -40161,32 +42699,32 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="9485" t="s">
+      <c r="C8" s="10331" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9506" t="s">
+      <c r="D8" s="10352" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9527" t="s">
+      <c r="E8" s="10373" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="9545" t="s">
+      <c r="F8" s="10391" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9566" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="9587" t="s">
+      <c r="G8" s="10412" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="10433" t="s">
         <v>126</v>
       </c>
       <c r="I8" s="9185"/>
-      <c r="J8" s="9608" t="s">
+      <c r="J8" s="10454" t="s">
         <v>326</v>
       </c>
-      <c r="K8" s="9629" t="s">
+      <c r="K8" s="10475" t="s">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="9650">
+      <c r="L8" t="s" s="10496">
         <v>350</v>
       </c>
       <c r="U8" s="9"/>
@@ -40200,30 +42738,30 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="9486" t="s">
+      <c r="C9" s="10332" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9507" t="s">
+      <c r="D9" s="10353" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="9546" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9567" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="9588" t="s">
+      <c r="F9" s="10392" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10413" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="10434" t="s">
         <v>130</v>
       </c>
       <c r="I9" s="9186"/>
-      <c r="J9" s="9609" t="s">
+      <c r="J9" s="10455" t="s">
         <v>327</v>
       </c>
-      <c r="K9" s="9630" t="s">
+      <c r="K9" s="10476" t="s">
         <v>342</v>
       </c>
-      <c r="L9" t="s" s="9651">
+      <c r="L9" t="s" s="10497">
         <v>351</v>
       </c>
       <c r="U9" s="9"/>
@@ -40237,32 +42775,32 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="9487" t="s">
+      <c r="C10" s="10333" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="9508" t="s">
+      <c r="D10" s="10354" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="9528" t="s">
+      <c r="E10" s="10374" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="9547" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="9568" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="9589" t="s">
+      <c r="F10" s="10393" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10414" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="10435" t="s">
         <v>133</v>
       </c>
       <c r="I10" s="9187"/>
-      <c r="J10" s="9610" t="s">
+      <c r="J10" s="10456" t="s">
         <v>328</v>
       </c>
-      <c r="K10" s="9631" t="s">
+      <c r="K10" s="10477" t="s">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="9652">
+      <c r="L10" t="s" s="10498">
         <v>352</v>
       </c>
       <c r="U10" s="9"/>
@@ -40276,32 +42814,32 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="9488" t="s">
+      <c r="C11" s="10334" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="9509" t="s">
+      <c r="D11" s="10355" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="9529" t="s">
+      <c r="E11" s="10375" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="9548" t="s">
+      <c r="F11" s="10394" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="9569" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="9590" t="s">
+      <c r="G11" s="10415" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="10436" t="s">
         <v>136</v>
       </c>
       <c r="I11" s="9188"/>
-      <c r="J11" s="9611" t="s">
+      <c r="J11" s="10457" t="s">
         <v>329</v>
       </c>
-      <c r="K11" s="9632" t="s">
+      <c r="K11" s="10478" t="s">
         <v>137</v>
       </c>
-      <c r="L11" t="s" s="9653">
+      <c r="L11" t="s" s="10499">
         <v>353</v>
       </c>
       <c r="U11" s="9"/>
@@ -40315,32 +42853,32 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="9489" t="s">
+      <c r="C12" s="10335" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9510" t="s">
+      <c r="D12" s="10356" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="9530" t="s">
+      <c r="E12" s="10376" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="9549" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="9570" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="9591" t="s">
+      <c r="F12" s="10395" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10416" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="10437" t="s">
         <v>139</v>
       </c>
       <c r="I12" s="9189"/>
-      <c r="J12" s="9612" t="s">
+      <c r="J12" s="10458" t="s">
         <v>330</v>
       </c>
-      <c r="K12" s="9633" t="s">
+      <c r="K12" s="10479" t="s">
         <v>140</v>
       </c>
-      <c r="L12" t="s" s="9654">
+      <c r="L12" t="s" s="10500">
         <v>354</v>
       </c>
       <c r="U12" s="9"/>
@@ -40354,32 +42892,32 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="9490" t="s">
+      <c r="C13" s="10336" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9511" t="s">
+      <c r="D13" s="10357" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="9531" t="s">
+      <c r="E13" s="10377" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="9550" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9571" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="9592" t="s">
+      <c r="F13" s="10396" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="10417" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="10438" t="s">
         <v>142</v>
       </c>
       <c r="I13" s="9190"/>
-      <c r="J13" s="9613" t="s">
+      <c r="J13" s="10459" t="s">
         <v>331</v>
       </c>
-      <c r="K13" s="9634" t="s">
+      <c r="K13" s="10480" t="s">
         <v>143</v>
       </c>
-      <c r="L13" t="s" s="9655">
+      <c r="L13" t="s" s="10501">
         <v>355</v>
       </c>
       <c r="U13" s="9"/>
@@ -40393,32 +42931,32 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="9491" t="s">
+      <c r="C14" s="10337" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9512" t="s">
+      <c r="D14" s="10358" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="9532" t="s">
+      <c r="E14" s="10378" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="9551" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="9572" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="9593" t="s">
+      <c r="F14" s="10397" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10418" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="10439" t="s">
         <v>145</v>
       </c>
       <c r="I14" s="9191"/>
-      <c r="J14" s="9614" t="s">
+      <c r="J14" s="10460" t="s">
         <v>332</v>
       </c>
-      <c r="K14" s="9635" t="s">
+      <c r="K14" s="10481" t="s">
         <v>146</v>
       </c>
-      <c r="L14" t="s" s="9656">
+      <c r="L14" t="s" s="10502">
         <v>356</v>
       </c>
       <c r="U14" s="9"/>
@@ -40432,32 +42970,32 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="9492" t="s">
+      <c r="C15" s="10338" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="9513" t="s">
+      <c r="D15" s="10359" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="9533" t="s">
+      <c r="E15" s="10379" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9552" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="9573" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="9594" t="s">
+      <c r="F15" s="10398" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="10419" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="10440" t="s">
         <v>148</v>
       </c>
       <c r="I15" s="9192"/>
-      <c r="J15" s="9615" t="s">
+      <c r="J15" s="10461" t="s">
         <v>333</v>
       </c>
-      <c r="K15" s="9636" t="s">
+      <c r="K15" s="10482" t="s">
         <v>149</v>
       </c>
-      <c r="L15" t="s" s="9657">
+      <c r="L15" t="s" s="10503">
         <v>357</v>
       </c>
       <c r="U15" s="9"/>
@@ -40471,30 +43009,30 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="9493" t="s">
+      <c r="C16" s="10339" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9514" t="s">
+      <c r="D16" s="10360" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="9553" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="9574" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="9595" t="s">
+      <c r="F16" s="10399" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="10420" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="10441" t="s">
         <v>151</v>
       </c>
       <c r="I16" s="9193"/>
-      <c r="J16" s="9616" t="s">
+      <c r="J16" s="10462" t="s">
         <v>334</v>
       </c>
-      <c r="K16" s="9637" t="s">
+      <c r="K16" s="10483" t="s">
         <v>343</v>
       </c>
-      <c r="L16" t="s" s="9658">
+      <c r="L16" t="s" s="10504">
         <v>358</v>
       </c>
       <c r="U16" s="9"/>
@@ -40508,32 +43046,32 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="9494" t="s">
+      <c r="C17" s="10340" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="9515" t="s">
+      <c r="D17" s="10361" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="9534" t="s">
+      <c r="E17" s="10380" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="9554" t="s">
+      <c r="F17" s="10400" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="9575" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="9596" t="s">
+      <c r="G17" s="10421" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="10442" t="s">
         <v>154</v>
       </c>
       <c r="I17" s="9194"/>
-      <c r="J17" s="9617" t="s">
+      <c r="J17" s="10463" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="9638" t="s">
+      <c r="K17" s="10484" t="s">
         <v>155</v>
       </c>
-      <c r="L17" t="s" s="9659">
+      <c r="L17" t="s" s="10505">
         <v>359</v>
       </c>
       <c r="U17" s="9"/>
@@ -40547,32 +43085,32 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="9495" t="s">
+      <c r="C18" s="10341" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="9516" t="s">
+      <c r="D18" s="10362" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="9535" t="s">
+      <c r="E18" s="10381" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="9555" t="s">
+      <c r="F18" s="10401" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9576" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="9597" t="s">
+      <c r="G18" s="10422" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="10443" t="s">
         <v>157</v>
       </c>
       <c r="I18" s="9195"/>
-      <c r="J18" s="9618" t="s">
+      <c r="J18" s="10464" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="9639" t="s">
+      <c r="K18" s="10485" t="s">
         <v>158</v>
       </c>
-      <c r="L18" t="s" s="9660">
+      <c r="L18" t="s" s="10506">
         <v>360</v>
       </c>
       <c r="U18" s="9"/>
@@ -40586,32 +43124,32 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="9496" t="s">
+      <c r="C19" s="10342" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="9517" t="s">
+      <c r="D19" s="10363" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="9536" t="s">
+      <c r="E19" s="10382" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="9556" t="s">
+      <c r="F19" s="10402" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="9577" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="9598" t="s">
+      <c r="G19" s="10423" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="10444" t="s">
         <v>160</v>
       </c>
       <c r="I19" s="9196"/>
-      <c r="J19" s="9619" t="s">
+      <c r="J19" s="10465" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="9640" t="s">
+      <c r="K19" s="10486" t="s">
         <v>161</v>
       </c>
-      <c r="L19" t="s" s="9661">
+      <c r="L19" t="s" s="10507">
         <v>361</v>
       </c>
       <c r="U19" s="9"/>
@@ -40625,32 +43163,32 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="9497" t="s">
+      <c r="C20" s="10343" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="9518" t="s">
+      <c r="D20" s="10364" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="9537" t="s">
+      <c r="E20" s="10383" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="9557" t="s">
+      <c r="F20" s="10403" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="9578" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="9599" t="s">
+      <c r="G20" s="10424" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="10445" t="s">
         <v>163</v>
       </c>
       <c r="I20" s="9197"/>
-      <c r="J20" s="9620" t="s">
+      <c r="J20" s="10466" t="s">
         <v>338</v>
       </c>
-      <c r="K20" s="9641" t="s">
+      <c r="K20" s="10487" t="s">
         <v>164</v>
       </c>
-      <c r="L20" t="s" s="9662">
+      <c r="L20" t="s" s="10508">
         <v>362</v>
       </c>
       <c r="U20" s="9"/>
@@ -40664,32 +43202,32 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="9498" t="s">
+      <c r="C21" s="10344" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="9519" t="s">
+      <c r="D21" s="10365" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="9538" t="s">
+      <c r="E21" s="10384" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="9558" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="9579" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="9600" t="s">
+      <c r="F21" s="10404" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10425" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="10446" t="s">
         <v>166</v>
       </c>
       <c r="I21" s="9198"/>
-      <c r="J21" s="9621" t="s">
+      <c r="J21" s="10467" t="s">
         <v>339</v>
       </c>
-      <c r="K21" s="9642" t="s">
+      <c r="K21" s="10488" t="s">
         <v>167</v>
       </c>
-      <c r="L21" t="s" s="9663">
+      <c r="L21" t="s" s="10509">
         <v>363</v>
       </c>
       <c r="U21" s="9"/>
@@ -40703,32 +43241,32 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="9499" t="s">
+      <c r="C22" s="10345" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="9520" t="s">
+      <c r="D22" s="10366" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="9539" t="s">
+      <c r="E22" s="10385" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="9559" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9580" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="9601" t="s">
+      <c r="F22" s="10405" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="10426" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="10447" t="s">
         <v>169</v>
       </c>
       <c r="I22" s="9199"/>
-      <c r="J22" s="9622" t="s">
+      <c r="J22" s="10468" t="s">
         <v>340</v>
       </c>
-      <c r="K22" s="9643" t="s">
+      <c r="K22" s="10489" t="s">
         <v>170</v>
       </c>
-      <c r="L22" t="s" s="9664">
+      <c r="L22" t="s" s="10510">
         <v>364</v>
       </c>
       <c r="U22" s="9"/>
@@ -40742,30 +43280,30 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="9500" t="s">
+      <c r="C23" s="10346" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="9521" t="s">
+      <c r="D23" s="10367" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="9560" t="s">
+      <c r="F23" s="10406" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="9581" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="9602" t="s">
+      <c r="G23" s="10427" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="10448" t="s">
         <v>172</v>
       </c>
       <c r="I23" s="9200"/>
-      <c r="J23" s="9623" t="s">
+      <c r="J23" s="10469" t="s">
         <v>341</v>
       </c>
-      <c r="K23" s="9644" t="s">
+      <c r="K23" s="10490" t="s">
         <v>344</v>
       </c>
-      <c r="L23" t="s" s="9665">
+      <c r="L23" t="s" s="10511">
         <v>365</v>
       </c>
       <c r="U23" s="9"/>
@@ -41751,270 +44289,270 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="9666" t="s">
+      <c r="C3" s="10512" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9675" t="s">
+      <c r="D3" s="10521" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="9684" t="s">
+      <c r="E3" s="10530" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="9693" t="s">
+      <c r="F3" s="10539" t="s">
         <v>178</v>
       </c>
       <c r="G3" s="9279"/>
-      <c r="H3" s="9702" t="s">
+      <c r="H3" s="10548" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="9711" t="s">
+      <c r="I3" s="10557" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="9720" t="s">
+      <c r="J3" s="10566" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
-      <c r="L3" t="s" s="9729">
+      <c r="L3" t="s" s="10575">
         <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="9667" t="s">
+      <c r="C4" s="10513" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9676" t="s">
+      <c r="D4" s="10522" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9685" t="s">
+      <c r="E4" s="10531" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="9694" t="s">
+      <c r="F4" s="10540" t="s">
         <v>183</v>
       </c>
       <c r="G4" s="9280"/>
-      <c r="H4" s="9703" t="s">
+      <c r="H4" s="10549" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="9712" t="s">
+      <c r="I4" s="10558" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="9721" t="s">
+      <c r="J4" s="10567" t="s">
         <v>191</v>
       </c>
       <c r="K4"/>
-      <c r="L4" t="s" s="9730">
+      <c r="L4" t="s" s="10576">
         <v>367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="9668" t="s">
+      <c r="C5" s="10514" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9677" t="s">
+      <c r="D5" s="10523" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="9686" t="s">
+      <c r="E5" s="10532" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="9695" t="s">
+      <c r="F5" s="10541" t="s">
         <v>188</v>
       </c>
       <c r="G5" s="9281"/>
-      <c r="H5" s="9704" t="s">
+      <c r="H5" s="10550" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="9713" t="s">
+      <c r="I5" s="10559" t="s">
         <v>185</v>
       </c>
-      <c r="J5" s="9722" t="s">
+      <c r="J5" s="10568" t="s">
         <v>186</v>
       </c>
       <c r="K5"/>
-      <c r="L5" t="s" s="9731">
+      <c r="L5" t="s" s="10577">
         <v>368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="9669" t="s">
+      <c r="C6" s="10515" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9678" t="s">
+      <c r="D6" s="10524" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="9687" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="9696" t="s">
+      <c r="E6" s="10533" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="10542" t="s">
         <v>193</v>
       </c>
       <c r="G6" s="9282"/>
-      <c r="H6" s="9705" t="s">
+      <c r="H6" s="10551" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="9714" t="s">
-        <v>215</v>
-      </c>
-      <c r="J6" s="9723" t="s">
-        <v>216</v>
+      <c r="I6" s="10560" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="10569" t="s">
+        <v>211</v>
       </c>
       <c r="K6"/>
-      <c r="L6" t="s" s="9732">
+      <c r="L6" t="s" s="10578">
         <v>369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="9670" t="s">
+      <c r="C7" s="10516" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9679" t="s">
+      <c r="D7" s="10525" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="9688" t="s">
+      <c r="E7" s="10534" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="9697" t="s">
+      <c r="F7" s="10543" t="s">
         <v>198</v>
       </c>
       <c r="G7" s="9283"/>
-      <c r="H7" s="9706" t="s">
+      <c r="H7" s="10552" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="9715" t="s">
+      <c r="I7" s="10561" t="s">
         <v>220</v>
       </c>
-      <c r="J7" s="9724" t="s">
+      <c r="J7" s="10570" t="s">
         <v>221</v>
       </c>
       <c r="K7"/>
-      <c r="L7" t="s" s="9733">
+      <c r="L7" t="s" s="10579">
         <v>370</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="9671" t="s">
+      <c r="C8" s="10517" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="9680" t="s">
+      <c r="D8" s="10526" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9689" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="9698" t="s">
+      <c r="E8" s="10535" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="10544" t="s">
         <v>203</v>
       </c>
       <c r="G8" s="9284"/>
-      <c r="H8" s="9707" t="s">
+      <c r="H8" s="10553" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="9716" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="9725" t="s">
-        <v>211</v>
+      <c r="I8" s="10562" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="10571" t="s">
+        <v>216</v>
       </c>
       <c r="K8"/>
-      <c r="L8" t="s" s="9734">
+      <c r="L8" t="s" s="10580">
         <v>371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="9672" t="s">
+      <c r="C9" s="10518" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9681" t="s">
+      <c r="D9" s="10527" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="9690" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="9699" t="s">
+      <c r="E9" s="10536" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="10545" t="s">
         <v>208</v>
       </c>
       <c r="G9" s="9285"/>
-      <c r="H9" s="9708" t="s">
+      <c r="H9" s="10554" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="9717" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" s="9726" t="s">
-        <v>196</v>
+      <c r="I9" s="10563" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="10572" t="s">
+        <v>206</v>
       </c>
       <c r="K9"/>
-      <c r="L9" t="s" s="9735">
+      <c r="L9" t="s" s="10581">
         <v>372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="9673" t="s">
+      <c r="C10" s="10519" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9682" t="s">
+      <c r="D10" s="10528" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="9691" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="9700" t="s">
+      <c r="E10" s="10537" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="10546" t="s">
         <v>213</v>
       </c>
       <c r="G10" s="9286"/>
-      <c r="H10" s="9709" t="s">
+      <c r="H10" s="10555" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="9718" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="9727" t="s">
-        <v>206</v>
+      <c r="I10" s="10564" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="10573" t="s">
+        <v>196</v>
       </c>
       <c r="K10"/>
-      <c r="L10" t="s" s="9736">
+      <c r="L10" t="s" s="10582">
         <v>373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="9674" t="s">
+      <c r="C11" s="10520" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="9683" t="s">
+      <c r="D11" s="10529" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="9692" t="s">
+      <c r="E11" s="10538" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="9701" t="s">
+      <c r="F11" s="10547" t="s">
         <v>218</v>
       </c>
       <c r="G11" s="9287"/>
-      <c r="H11" s="9710" t="s">
+      <c r="H11" s="10556" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="9719" t="s">
+      <c r="I11" s="10565" t="s">
         <v>200</v>
       </c>
-      <c r="J11" s="9728" t="s">
+      <c r="J11" s="10574" t="s">
         <v>201</v>
       </c>
       <c r="K11"/>
-      <c r="L11" t="s" s="9737">
+      <c r="L11" t="s" s="10583">
         <v>374</v>
       </c>
     </row>
@@ -42700,32 +45238,32 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="9738" t="s">
+      <c r="C3" s="10584" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9744" t="s">
+      <c r="D3" s="10590" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="9750" t="s">
+      <c r="E3" s="10596" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="9756" t="s">
+      <c r="F3" s="10602" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="9762" t="s">
+      <c r="G3" s="10608" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="9768" t="s">
+      <c r="H3" s="10614" t="s">
         <v>375</v>
       </c>
       <c r="I3" s="9351"/>
-      <c r="J3" s="9774" t="s">
+      <c r="J3" s="10620" t="s">
         <v>381</v>
       </c>
-      <c r="K3" s="9780" t="s">
+      <c r="K3" s="10626" t="s">
         <v>228</v>
       </c>
-      <c r="L3" t="s" s="9786">
+      <c r="L3" t="s" s="10632">
         <v>387</v>
       </c>
       <c r="U3" s="9"/>
@@ -42741,32 +45279,32 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="9739" t="s">
+      <c r="C4" s="10585" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9745" t="s">
+      <c r="D4" s="10591" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="9751" t="s">
+      <c r="E4" s="10597" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="9757" t="s">
+      <c r="F4" s="10603" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="9763" t="s">
+      <c r="G4" s="10609" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="9769" t="s">
+      <c r="H4" s="10615" t="s">
         <v>376</v>
       </c>
       <c r="I4" s="9352"/>
-      <c r="J4" s="9775" t="s">
+      <c r="J4" s="10621" t="s">
         <v>382</v>
       </c>
-      <c r="K4" s="9781" t="s">
+      <c r="K4" s="10627" t="s">
         <v>233</v>
       </c>
-      <c r="L4" t="s" s="9787">
+      <c r="L4" t="s" s="10633">
         <v>388</v>
       </c>
       <c r="U4" s="9"/>
@@ -42782,32 +45320,32 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="9740" t="s">
+      <c r="C5" s="10586" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9746" t="s">
+      <c r="D5" s="10592" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="9752" t="s">
+      <c r="E5" s="10598" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="9758" t="s">
+      <c r="F5" s="10604" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="9764" t="s">
+      <c r="G5" s="10610" t="s">
         <v>239</v>
       </c>
-      <c r="H5" s="9770" t="s">
+      <c r="H5" s="10616" t="s">
         <v>377</v>
       </c>
       <c r="I5" s="9353"/>
-      <c r="J5" s="9776" t="s">
+      <c r="J5" s="10622" t="s">
         <v>383</v>
       </c>
-      <c r="K5" s="9782" t="s">
+      <c r="K5" s="10628" t="s">
         <v>242</v>
       </c>
-      <c r="L5" t="s" s="9788">
+      <c r="L5" t="s" s="10634">
         <v>389</v>
       </c>
       <c r="U5" s="9"/>
@@ -42823,32 +45361,32 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="9741" t="s">
+      <c r="C6" s="10587" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9747" t="s">
+      <c r="D6" s="10593" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="9753" t="s">
+      <c r="E6" s="10599" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="9759" t="s">
+      <c r="F6" s="10605" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="9765" t="s">
+      <c r="G6" s="10611" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="9771" t="s">
+      <c r="H6" s="10617" t="s">
         <v>378</v>
       </c>
       <c r="I6" s="9354"/>
-      <c r="J6" s="9777" t="s">
+      <c r="J6" s="10623" t="s">
         <v>384</v>
       </c>
-      <c r="K6" s="9783" t="s">
+      <c r="K6" s="10629" t="s">
         <v>233</v>
       </c>
-      <c r="L6" t="s" s="9789">
+      <c r="L6" t="s" s="10635">
         <v>390</v>
       </c>
       <c r="U6" s="9"/>
@@ -42864,32 +45402,32 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="9742" t="s">
+      <c r="C7" s="10588" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="9748" t="s">
+      <c r="D7" s="10594" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="9754" t="s">
+      <c r="E7" s="10600" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="9760" t="s">
+      <c r="F7" s="10606" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="9766" t="s">
+      <c r="G7" s="10612" t="s">
         <v>234</v>
       </c>
-      <c r="H7" s="9772" t="s">
+      <c r="H7" s="10618" t="s">
         <v>379</v>
       </c>
       <c r="I7" s="9355"/>
-      <c r="J7" s="9778" t="s">
+      <c r="J7" s="10624" t="s">
         <v>385</v>
       </c>
-      <c r="K7" s="9784" t="s">
+      <c r="K7" s="10630" t="s">
         <v>228</v>
       </c>
-      <c r="L7" t="s" s="9790">
+      <c r="L7" t="s" s="10636">
         <v>391</v>
       </c>
       <c r="U7" s="9"/>
@@ -42905,32 +45443,32 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="9743" t="s">
+      <c r="C8" s="10589" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9749" t="s">
+      <c r="D8" s="10595" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="9755" t="s">
+      <c r="E8" s="10601" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="9761" t="s">
+      <c r="F8" s="10607" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="9767" t="s">
+      <c r="G8" s="10613" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="9773" t="s">
+      <c r="H8" s="10619" t="s">
         <v>380</v>
       </c>
       <c r="I8" s="9356"/>
-      <c r="J8" s="9779" t="s">
+      <c r="J8" s="10625" t="s">
         <v>386</v>
       </c>
-      <c r="K8" s="9785" t="s">
+      <c r="K8" s="10631" t="s">
         <v>233</v>
       </c>
-      <c r="L8" t="s" s="9791">
+      <c r="L8" t="s" s="10637">
         <v>392</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11611" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12034" uniqueCount="393">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1698,7 +1698,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10638">
+  <cellXfs count="11061">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1812,6 +1812,1275 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
@@ -41382,170 +42651,170 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="10215" t="s">
+      <c r="A3" s="10638" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10223" t="s">
+      <c r="B3" s="10646" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10231" t="s">
+      <c r="C3" s="10654" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10239" t="s">
+      <c r="D3" s="10662" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="10247" t="s">
+      <c r="E3" s="10670" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="8986"/>
-      <c r="G3" t="s" s="10255">
+      <c r="G3" t="s" s="10678">
         <v>304</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10216" t="s">
+      <c r="A4" s="10639" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10224" t="s">
+      <c r="B4" s="10647" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="10232" t="s">
+      <c r="C4" s="10655" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10240" t="s">
+      <c r="D4" s="10663" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="10248" t="s">
+      <c r="E4" s="10671" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="8987"/>
-      <c r="G4" t="s" s="10256">
+      <c r="G4" t="s" s="10679">
         <v>305</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10217" t="s">
+      <c r="A5" s="10640" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10225" t="s">
+      <c r="B5" s="10648" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="10233" t="s">
+      <c r="C5" s="10656" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10241" t="s">
+      <c r="D5" s="10664" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="10249" t="s">
+      <c r="E5" s="10672" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="8988"/>
-      <c r="G5" t="s" s="10257">
+      <c r="G5" t="s" s="10680">
         <v>306</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10218" t="s">
+      <c r="A6" s="10641" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10226" t="s">
+      <c r="B6" s="10649" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="10234" t="s">
+      <c r="C6" s="10657" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10242" t="s">
+      <c r="D6" s="10665" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="10250" t="s">
+      <c r="E6" s="10673" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="8989"/>
-      <c r="G6" t="s" s="10258">
+      <c r="G6" t="s" s="10681">
         <v>307</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10219" t="s">
+      <c r="A7" s="10642" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10227" t="s">
+      <c r="B7" s="10650" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="10235" t="s">
+      <c r="C7" s="10658" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10243" t="s">
+      <c r="D7" s="10666" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="10251" t="s">
+      <c r="E7" s="10674" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="8990"/>
-      <c r="G7" t="s" s="10259">
+      <c r="G7" t="s" s="10682">
         <v>308</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10220" t="s">
+      <c r="A8" s="10643" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10228" t="s">
+      <c r="B8" s="10651" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="10236" t="s">
+      <c r="C8" s="10659" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10244" t="s">
+      <c r="D8" s="10667" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="10252" t="s">
+      <c r="E8" s="10675" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="8991"/>
-      <c r="G8" t="s" s="10260">
+      <c r="G8" t="s" s="10683">
         <v>309</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10221" t="s">
+      <c r="A9" s="10644" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10229" t="s">
+      <c r="B9" s="10652" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10237" t="s">
+      <c r="C9" s="10660" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10245" t="s">
+      <c r="D9" s="10668" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="10253" t="s">
+      <c r="E9" s="10676" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="8992"/>
-      <c r="G9" t="s" s="10261">
+      <c r="G9" t="s" s="10684">
         <v>310</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10222" t="s">
+      <c r="A10" s="10645" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10230" t="s">
+      <c r="B10" s="10653" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10238" t="s">
+      <c r="C10" s="10661" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10246" t="s">
+      <c r="D10" s="10669" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="10254" t="s">
+      <c r="E10" s="10677" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="8993"/>
-      <c r="G10" t="s" s="10262">
+      <c r="G10" t="s" s="10685">
         <v>311</v>
       </c>
     </row>
@@ -41673,243 +42942,243 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="10263" t="s">
+      <c r="C3" s="10686" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10272" t="s">
+      <c r="D3" s="10695" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="10281" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="10290" t="s">
+      <c r="E3" s="10704" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="10713" t="s">
         <v>66</v>
       </c>
       <c r="G3" s="9030"/>
-      <c r="H3" s="10299" t="s">
+      <c r="H3" s="10722" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="10308" t="s">
+      <c r="I3" s="10731" t="s">
         <v>69</v>
       </c>
       <c r="J3"/>
-      <c r="K3" t="s" s="10317">
+      <c r="K3" t="s" s="10740">
         <v>312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="10264" t="s">
+      <c r="C4" s="10687" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10273" t="s">
+      <c r="D4" s="10696" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="10282" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="10291" t="s">
+      <c r="E4" s="10705" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="10714" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="9031"/>
-      <c r="H4" s="10300" t="s">
+      <c r="H4" s="10723" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="10309" t="s">
+      <c r="I4" s="10732" t="s">
         <v>74</v>
       </c>
       <c r="J4"/>
-      <c r="K4" t="s" s="10318">
+      <c r="K4" t="s" s="10741">
         <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="10265" t="s">
+      <c r="C5" s="10688" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10274" t="s">
+      <c r="D5" s="10697" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="10283" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="10292" t="s">
+      <c r="E5" s="10706" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="10715" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="9032"/>
-      <c r="H5" s="10301" t="s">
+      <c r="H5" s="10724" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="10310" t="s">
+      <c r="I5" s="10733" t="s">
         <v>79</v>
       </c>
       <c r="J5"/>
-      <c r="K5" t="s" s="10319">
+      <c r="K5" t="s" s="10742">
         <v>314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="10266" t="s">
+      <c r="C6" s="10689" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10275" t="s">
+      <c r="D6" s="10698" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="10284" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="10293" t="s">
+      <c r="E6" s="10707" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="10716" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="9033"/>
-      <c r="H6" s="10302" t="s">
+      <c r="H6" s="10725" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="10311" t="s">
+      <c r="I6" s="10734" t="s">
         <v>83</v>
       </c>
       <c r="J6"/>
-      <c r="K6" t="s" s="10320">
+      <c r="K6" t="s" s="10743">
         <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="10267" t="s">
+      <c r="C7" s="10690" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10276" t="s">
+      <c r="D7" s="10699" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="10285" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="10294" t="s">
+      <c r="E7" s="10708" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="10717" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="9034"/>
-      <c r="H7" s="10303" t="s">
+      <c r="H7" s="10726" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="10312" t="s">
+      <c r="I7" s="10735" t="s">
         <v>87</v>
       </c>
       <c r="J7"/>
-      <c r="K7" t="s" s="10321">
+      <c r="K7" t="s" s="10744">
         <v>316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="10268" t="s">
+      <c r="C8" s="10691" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="10277" t="s">
+      <c r="D8" s="10700" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="10286" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="10295" t="s">
+      <c r="E8" s="10709" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="10718" t="s">
         <v>89</v>
       </c>
       <c r="G8" s="9035"/>
-      <c r="H8" s="10304" t="s">
+      <c r="H8" s="10727" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="10313" t="s">
+      <c r="I8" s="10736" t="s">
         <v>91</v>
       </c>
       <c r="J8"/>
-      <c r="K8" t="s" s="10322">
+      <c r="K8" t="s" s="10745">
         <v>317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="10269" t="s">
+      <c r="C9" s="10692" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="10278" t="s">
+      <c r="D9" s="10701" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="10287" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="10296" t="s">
+      <c r="E9" s="10710" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="10719" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="9036"/>
-      <c r="H9" s="10305" t="s">
+      <c r="H9" s="10728" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="10314" t="s">
+      <c r="I9" s="10737" t="s">
         <v>95</v>
       </c>
       <c r="J9"/>
-      <c r="K9" t="s" s="10323">
+      <c r="K9" t="s" s="10746">
         <v>318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="10270" t="s">
+      <c r="C10" s="10693" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="10279" t="s">
+      <c r="D10" s="10702" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="10288" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="10297" t="s">
+      <c r="E10" s="10711" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="10720" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="9037"/>
-      <c r="H10" s="10306" t="s">
+      <c r="H10" s="10729" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="10315" t="s">
+      <c r="I10" s="10738" t="s">
         <v>99</v>
       </c>
       <c r="J10"/>
-      <c r="K10" t="s" s="10324">
+      <c r="K10" t="s" s="10747">
         <v>319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="10271" t="s">
+      <c r="C11" s="10694" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="10280" t="s">
+      <c r="D11" s="10703" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="10289" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="10298" t="s">
+      <c r="E11" s="10712" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="10721" t="s">
         <v>101</v>
       </c>
       <c r="G11" s="9038"/>
-      <c r="H11" s="10307" t="s">
+      <c r="H11" s="10730" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="10316" t="s">
+      <c r="I11" s="10739" t="s">
         <v>103</v>
       </c>
       <c r="J11"/>
-      <c r="K11" t="s" s="10325">
+      <c r="K11" t="s" s="10748">
         <v>320</v>
       </c>
     </row>
@@ -42504,32 +43773,32 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="10326" t="s">
+      <c r="C3" s="10749" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10347" t="s">
+      <c r="D3" s="10770" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="10368" t="s">
+      <c r="E3" s="10791" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="10386" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="10407" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="10428" t="s">
+      <c r="F3" s="10809" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10830" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="10851" t="s">
         <v>110</v>
       </c>
       <c r="I3" s="9180"/>
-      <c r="J3" s="10449" t="s">
+      <c r="J3" s="10872" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="10470" t="s">
+      <c r="K3" s="10893" t="s">
         <v>111</v>
       </c>
-      <c r="L3" t="s" s="10491">
+      <c r="L3" t="s" s="10914">
         <v>345</v>
       </c>
       <c r="U3" s="9"/>
@@ -42543,32 +43812,32 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="10327" t="s">
+      <c r="C4" s="10750" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10348" t="s">
+      <c r="D4" s="10771" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="10369" t="s">
+      <c r="E4" s="10792" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="10387" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="10408" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="10429" t="s">
+      <c r="F4" s="10810" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10831" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="10852" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="9181"/>
-      <c r="J4" s="10450" t="s">
+      <c r="J4" s="10873" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="10471" t="s">
+      <c r="K4" s="10894" t="s">
         <v>115</v>
       </c>
-      <c r="L4" t="s" s="10492">
+      <c r="L4" t="s" s="10915">
         <v>346</v>
       </c>
       <c r="U4" s="9"/>
@@ -42582,32 +43851,32 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="10328" t="s">
+      <c r="C5" s="10751" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10349" t="s">
+      <c r="D5" s="10772" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="10370" t="s">
+      <c r="E5" s="10793" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="10388" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10409" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="10430" t="s">
+      <c r="F5" s="10811" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10832" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="10853" t="s">
         <v>117</v>
       </c>
       <c r="I5" s="9182"/>
-      <c r="J5" s="10451" t="s">
+      <c r="J5" s="10874" t="s">
         <v>323</v>
       </c>
-      <c r="K5" s="10472" t="s">
+      <c r="K5" s="10895" t="s">
         <v>118</v>
       </c>
-      <c r="L5" t="s" s="10493">
+      <c r="L5" t="s" s="10916">
         <v>347</v>
       </c>
       <c r="U5" s="9"/>
@@ -42621,32 +43890,32 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="10329" t="s">
+      <c r="C6" s="10752" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10350" t="s">
+      <c r="D6" s="10773" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="10371" t="s">
+      <c r="E6" s="10794" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="10389" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="10410" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="10431" t="s">
+      <c r="F6" s="10812" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10833" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="10854" t="s">
         <v>120</v>
       </c>
       <c r="I6" s="9183"/>
-      <c r="J6" s="10452" t="s">
+      <c r="J6" s="10875" t="s">
         <v>324</v>
       </c>
-      <c r="K6" s="10473" t="s">
+      <c r="K6" s="10896" t="s">
         <v>121</v>
       </c>
-      <c r="L6" t="s" s="10494">
+      <c r="L6" t="s" s="10917">
         <v>348</v>
       </c>
       <c r="U6" s="9"/>
@@ -42660,32 +43929,32 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="10330" t="s">
+      <c r="C7" s="10753" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="10351" t="s">
+      <c r="D7" s="10774" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="10372" t="s">
+      <c r="E7" s="10795" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="10390" t="s">
+      <c r="F7" s="10813" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="10411" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="10432" t="s">
+      <c r="G7" s="10834" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="10855" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="9184"/>
-      <c r="J7" s="10453" t="s">
+      <c r="J7" s="10876" t="s">
         <v>325</v>
       </c>
-      <c r="K7" s="10474" t="s">
+      <c r="K7" s="10897" t="s">
         <v>124</v>
       </c>
-      <c r="L7" t="s" s="10495">
+      <c r="L7" t="s" s="10918">
         <v>349</v>
       </c>
       <c r="U7" s="9"/>
@@ -42699,32 +43968,32 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="10331" t="s">
+      <c r="C8" s="10754" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10352" t="s">
+      <c r="D8" s="10775" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="10373" t="s">
+      <c r="E8" s="10796" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="10391" t="s">
+      <c r="F8" s="10814" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10412" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="10433" t="s">
+      <c r="G8" s="10835" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="10856" t="s">
         <v>126</v>
       </c>
       <c r="I8" s="9185"/>
-      <c r="J8" s="10454" t="s">
+      <c r="J8" s="10877" t="s">
         <v>326</v>
       </c>
-      <c r="K8" s="10475" t="s">
+      <c r="K8" s="10898" t="s">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="10496">
+      <c r="L8" t="s" s="10919">
         <v>350</v>
       </c>
       <c r="U8" s="9"/>
@@ -42738,30 +44007,30 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="10332" t="s">
+      <c r="C9" s="10755" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="10353" t="s">
+      <c r="D9" s="10776" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="10392" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="10413" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="10434" t="s">
+      <c r="F9" s="10815" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="10836" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="10857" t="s">
         <v>130</v>
       </c>
       <c r="I9" s="9186"/>
-      <c r="J9" s="10455" t="s">
+      <c r="J9" s="10878" t="s">
         <v>327</v>
       </c>
-      <c r="K9" s="10476" t="s">
+      <c r="K9" s="10899" t="s">
         <v>342</v>
       </c>
-      <c r="L9" t="s" s="10497">
+      <c r="L9" t="s" s="10920">
         <v>351</v>
       </c>
       <c r="U9" s="9"/>
@@ -42775,32 +44044,32 @@
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="10333" t="s">
+      <c r="C10" s="10756" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10354" t="s">
+      <c r="D10" s="10777" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="10374" t="s">
+      <c r="E10" s="10797" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="10393" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="10414" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="10435" t="s">
+      <c r="F10" s="10816" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="10837" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="10858" t="s">
         <v>133</v>
       </c>
       <c r="I10" s="9187"/>
-      <c r="J10" s="10456" t="s">
+      <c r="J10" s="10879" t="s">
         <v>328</v>
       </c>
-      <c r="K10" s="10477" t="s">
+      <c r="K10" s="10900" t="s">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="10498">
+      <c r="L10" t="s" s="10921">
         <v>352</v>
       </c>
       <c r="U10" s="9"/>
@@ -42814,32 +44083,32 @@
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="10334" t="s">
+      <c r="C11" s="10757" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="10355" t="s">
+      <c r="D11" s="10778" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="10375" t="s">
+      <c r="E11" s="10798" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="10394" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="10415" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="10436" t="s">
+      <c r="F11" s="10817" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10838" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="10859" t="s">
         <v>136</v>
       </c>
       <c r="I11" s="9188"/>
-      <c r="J11" s="10457" t="s">
+      <c r="J11" s="10880" t="s">
         <v>329</v>
       </c>
-      <c r="K11" s="10478" t="s">
+      <c r="K11" s="10901" t="s">
         <v>137</v>
       </c>
-      <c r="L11" t="s" s="10499">
+      <c r="L11" t="s" s="10922">
         <v>353</v>
       </c>
       <c r="U11" s="9"/>
@@ -42853,32 +44122,32 @@
     <row r="12">
       <c r="A12" s="24"/>
       <c r="B12"/>
-      <c r="C12" s="10335" t="s">
+      <c r="C12" s="10758" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="10356" t="s">
+      <c r="D12" s="10779" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="10376" t="s">
+      <c r="E12" s="10799" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="10395" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="10416" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="10437" t="s">
+      <c r="F12" s="10818" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="10839" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="10860" t="s">
         <v>139</v>
       </c>
       <c r="I12" s="9189"/>
-      <c r="J12" s="10458" t="s">
+      <c r="J12" s="10881" t="s">
         <v>330</v>
       </c>
-      <c r="K12" s="10479" t="s">
+      <c r="K12" s="10902" t="s">
         <v>140</v>
       </c>
-      <c r="L12" t="s" s="10500">
+      <c r="L12" t="s" s="10923">
         <v>354</v>
       </c>
       <c r="U12" s="9"/>
@@ -42892,32 +44161,32 @@
     <row r="13">
       <c r="A13" s="24"/>
       <c r="B13"/>
-      <c r="C13" s="10336" t="s">
+      <c r="C13" s="10759" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="10357" t="s">
+      <c r="D13" s="10780" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="10377" t="s">
+      <c r="E13" s="10800" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="10396" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="10417" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="10438" t="s">
+      <c r="F13" s="10819" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10840" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="10861" t="s">
         <v>142</v>
       </c>
       <c r="I13" s="9190"/>
-      <c r="J13" s="10459" t="s">
+      <c r="J13" s="10882" t="s">
         <v>331</v>
       </c>
-      <c r="K13" s="10480" t="s">
+      <c r="K13" s="10903" t="s">
         <v>143</v>
       </c>
-      <c r="L13" t="s" s="10501">
+      <c r="L13" t="s" s="10924">
         <v>355</v>
       </c>
       <c r="U13" s="9"/>
@@ -42931,32 +44200,32 @@
     <row r="14">
       <c r="A14" s="24"/>
       <c r="B14"/>
-      <c r="C14" s="10337" t="s">
+      <c r="C14" s="10760" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10358" t="s">
+      <c r="D14" s="10781" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="10378" t="s">
+      <c r="E14" s="10801" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="10397" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="10418" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="10439" t="s">
+      <c r="F14" s="10820" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10841" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="10862" t="s">
         <v>145</v>
       </c>
       <c r="I14" s="9191"/>
-      <c r="J14" s="10460" t="s">
+      <c r="J14" s="10883" t="s">
         <v>332</v>
       </c>
-      <c r="K14" s="10481" t="s">
+      <c r="K14" s="10904" t="s">
         <v>146</v>
       </c>
-      <c r="L14" t="s" s="10502">
+      <c r="L14" t="s" s="10925">
         <v>356</v>
       </c>
       <c r="U14" s="9"/>
@@ -42970,32 +44239,32 @@
     <row r="15">
       <c r="A15" s="24"/>
       <c r="B15"/>
-      <c r="C15" s="10338" t="s">
+      <c r="C15" s="10761" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="10359" t="s">
+      <c r="D15" s="10782" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="10379" t="s">
+      <c r="E15" s="10802" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="10398" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="10419" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="10440" t="s">
+      <c r="F15" s="10821" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10842" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="10863" t="s">
         <v>148</v>
       </c>
       <c r="I15" s="9192"/>
-      <c r="J15" s="10461" t="s">
+      <c r="J15" s="10884" t="s">
         <v>333</v>
       </c>
-      <c r="K15" s="10482" t="s">
+      <c r="K15" s="10905" t="s">
         <v>149</v>
       </c>
-      <c r="L15" t="s" s="10503">
+      <c r="L15" t="s" s="10926">
         <v>357</v>
       </c>
       <c r="U15" s="9"/>
@@ -43009,30 +44278,30 @@
     <row r="16">
       <c r="A16" s="24"/>
       <c r="B16"/>
-      <c r="C16" s="10339" t="s">
+      <c r="C16" s="10762" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10360" t="s">
+      <c r="D16" s="10783" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="10399" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="10420" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="10441" t="s">
+      <c r="F16" s="10822" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="10843" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="10864" t="s">
         <v>151</v>
       </c>
       <c r="I16" s="9193"/>
-      <c r="J16" s="10462" t="s">
+      <c r="J16" s="10885" t="s">
         <v>334</v>
       </c>
-      <c r="K16" s="10483" t="s">
+      <c r="K16" s="10906" t="s">
         <v>343</v>
       </c>
-      <c r="L16" t="s" s="10504">
+      <c r="L16" t="s" s="10927">
         <v>358</v>
       </c>
       <c r="U16" s="9"/>
@@ -43046,32 +44315,32 @@
     <row r="17">
       <c r="A17" s="24"/>
       <c r="B17"/>
-      <c r="C17" s="10340" t="s">
+      <c r="C17" s="10763" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10361" t="s">
+      <c r="D17" s="10784" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="10380" t="s">
+      <c r="E17" s="10803" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="10400" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="10421" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="10442" t="s">
+      <c r="F17" s="10823" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10844" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="10865" t="s">
         <v>154</v>
       </c>
       <c r="I17" s="9194"/>
-      <c r="J17" s="10463" t="s">
+      <c r="J17" s="10886" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="10484" t="s">
+      <c r="K17" s="10907" t="s">
         <v>155</v>
       </c>
-      <c r="L17" t="s" s="10505">
+      <c r="L17" t="s" s="10928">
         <v>359</v>
       </c>
       <c r="U17" s="9"/>
@@ -43085,32 +44354,32 @@
     <row r="18">
       <c r="A18" s="24"/>
       <c r="B18"/>
-      <c r="C18" s="10341" t="s">
+      <c r="C18" s="10764" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="10362" t="s">
+      <c r="D18" s="10785" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="10381" t="s">
+      <c r="E18" s="10804" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="10401" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="10422" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="10443" t="s">
+      <c r="F18" s="10824" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10845" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="10866" t="s">
         <v>157</v>
       </c>
       <c r="I18" s="9195"/>
-      <c r="J18" s="10464" t="s">
+      <c r="J18" s="10887" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="10485" t="s">
+      <c r="K18" s="10908" t="s">
         <v>158</v>
       </c>
-      <c r="L18" t="s" s="10506">
+      <c r="L18" t="s" s="10929">
         <v>360</v>
       </c>
       <c r="U18" s="9"/>
@@ -43124,32 +44393,32 @@
     <row r="19">
       <c r="A19" s="24"/>
       <c r="B19"/>
-      <c r="C19" s="10342" t="s">
+      <c r="C19" s="10765" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="10363" t="s">
+      <c r="D19" s="10786" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="10382" t="s">
+      <c r="E19" s="10805" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="10402" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10423" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="10444" t="s">
+      <c r="F19" s="10825" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10846" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="10867" t="s">
         <v>160</v>
       </c>
       <c r="I19" s="9196"/>
-      <c r="J19" s="10465" t="s">
+      <c r="J19" s="10888" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="10486" t="s">
+      <c r="K19" s="10909" t="s">
         <v>161</v>
       </c>
-      <c r="L19" t="s" s="10507">
+      <c r="L19" t="s" s="10930">
         <v>361</v>
       </c>
       <c r="U19" s="9"/>
@@ -43163,32 +44432,32 @@
     <row r="20">
       <c r="A20" s="24"/>
       <c r="B20"/>
-      <c r="C20" s="10343" t="s">
+      <c r="C20" s="10766" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="10364" t="s">
+      <c r="D20" s="10787" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="10383" t="s">
+      <c r="E20" s="10806" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="10403" t="s">
+      <c r="F20" s="10826" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="10424" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="10445" t="s">
+      <c r="G20" s="10847" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="10868" t="s">
         <v>163</v>
       </c>
       <c r="I20" s="9197"/>
-      <c r="J20" s="10466" t="s">
+      <c r="J20" s="10889" t="s">
         <v>338</v>
       </c>
-      <c r="K20" s="10487" t="s">
+      <c r="K20" s="10910" t="s">
         <v>164</v>
       </c>
-      <c r="L20" t="s" s="10508">
+      <c r="L20" t="s" s="10931">
         <v>362</v>
       </c>
       <c r="U20" s="9"/>
@@ -43202,32 +44471,32 @@
     <row r="21">
       <c r="A21" s="24"/>
       <c r="B21"/>
-      <c r="C21" s="10344" t="s">
+      <c r="C21" s="10767" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="10365" t="s">
+      <c r="D21" s="10788" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="10384" t="s">
+      <c r="E21" s="10807" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="10404" t="s">
+      <c r="F21" s="10827" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="10425" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="10446" t="s">
+      <c r="G21" s="10848" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="10869" t="s">
         <v>166</v>
       </c>
       <c r="I21" s="9198"/>
-      <c r="J21" s="10467" t="s">
+      <c r="J21" s="10890" t="s">
         <v>339</v>
       </c>
-      <c r="K21" s="10488" t="s">
+      <c r="K21" s="10911" t="s">
         <v>167</v>
       </c>
-      <c r="L21" t="s" s="10509">
+      <c r="L21" t="s" s="10932">
         <v>363</v>
       </c>
       <c r="U21" s="9"/>
@@ -43241,32 +44510,32 @@
     <row r="22">
       <c r="A22" s="24"/>
       <c r="B22"/>
-      <c r="C22" s="10345" t="s">
+      <c r="C22" s="10768" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="10366" t="s">
+      <c r="D22" s="10789" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="10385" t="s">
+      <c r="E22" s="10808" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="10405" t="s">
+      <c r="F22" s="10828" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="10426" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="10447" t="s">
+      <c r="G22" s="10849" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="10870" t="s">
         <v>169</v>
       </c>
       <c r="I22" s="9199"/>
-      <c r="J22" s="10468" t="s">
+      <c r="J22" s="10891" t="s">
         <v>340</v>
       </c>
-      <c r="K22" s="10489" t="s">
+      <c r="K22" s="10912" t="s">
         <v>170</v>
       </c>
-      <c r="L22" t="s" s="10510">
+      <c r="L22" t="s" s="10933">
         <v>364</v>
       </c>
       <c r="U22" s="9"/>
@@ -43280,30 +44549,30 @@
     <row r="23">
       <c r="A23" s="24"/>
       <c r="B23"/>
-      <c r="C23" s="10346" t="s">
+      <c r="C23" s="10769" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="10367" t="s">
+      <c r="D23" s="10790" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="10406" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="10427" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="10448" t="s">
+      <c r="F23" s="10829" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10850" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="10871" t="s">
         <v>172</v>
       </c>
       <c r="I23" s="9200"/>
-      <c r="J23" s="10469" t="s">
+      <c r="J23" s="10892" t="s">
         <v>341</v>
       </c>
-      <c r="K23" s="10490" t="s">
+      <c r="K23" s="10913" t="s">
         <v>344</v>
       </c>
-      <c r="L23" t="s" s="10511">
+      <c r="L23" t="s" s="10934">
         <v>365</v>
       </c>
       <c r="U23" s="9"/>
@@ -44289,270 +45558,270 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="10512" t="s">
+      <c r="C3" s="10935" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10521" t="s">
+      <c r="D3" s="10944" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="10530" t="s">
+      <c r="E3" s="10953" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="10539" t="s">
+      <c r="F3" s="10962" t="s">
         <v>178</v>
       </c>
       <c r="G3" s="9279"/>
-      <c r="H3" s="10548" t="s">
+      <c r="H3" s="10971" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="10557" t="s">
+      <c r="I3" s="10980" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="10566" t="s">
+      <c r="J3" s="10989" t="s">
         <v>181</v>
       </c>
       <c r="K3"/>
-      <c r="L3" t="s" s="10575">
+      <c r="L3" t="s" s="10998">
         <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="10513" t="s">
+      <c r="C4" s="10936" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10522" t="s">
+      <c r="D4" s="10945" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="10531" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="10540" t="s">
+      <c r="E4" s="10954" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="10963" t="s">
         <v>183</v>
       </c>
       <c r="G4" s="9280"/>
-      <c r="H4" s="10549" t="s">
+      <c r="H4" s="10972" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="10558" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="10567" t="s">
-        <v>191</v>
+      <c r="I4" s="10981" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="10990" t="s">
+        <v>186</v>
       </c>
       <c r="K4"/>
-      <c r="L4" t="s" s="10576">
+      <c r="L4" t="s" s="10999">
         <v>367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="10514" t="s">
+      <c r="C5" s="10937" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10523" t="s">
+      <c r="D5" s="10946" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="10532" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="10541" t="s">
+      <c r="E5" s="10955" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="10964" t="s">
         <v>188</v>
       </c>
       <c r="G5" s="9281"/>
-      <c r="H5" s="10550" t="s">
+      <c r="H5" s="10973" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="10559" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="10568" t="s">
-        <v>186</v>
+      <c r="I5" s="10982" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="10991" t="s">
+        <v>191</v>
       </c>
       <c r="K5"/>
-      <c r="L5" t="s" s="10577">
+      <c r="L5" t="s" s="11000">
         <v>368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="10515" t="s">
+      <c r="C6" s="10938" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10524" t="s">
+      <c r="D6" s="10947" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="10533" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="10542" t="s">
+      <c r="E6" s="10956" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="10965" t="s">
         <v>193</v>
       </c>
       <c r="G6" s="9282"/>
-      <c r="H6" s="10551" t="s">
+      <c r="H6" s="10974" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="10560" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" s="10569" t="s">
-        <v>211</v>
+      <c r="I6" s="10983" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="10992" t="s">
+        <v>196</v>
       </c>
       <c r="K6"/>
-      <c r="L6" t="s" s="10578">
+      <c r="L6" t="s" s="11001">
         <v>369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="10516" t="s">
+      <c r="C7" s="10939" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10525" t="s">
+      <c r="D7" s="10948" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="10534" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="10543" t="s">
+      <c r="E7" s="10957" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="10966" t="s">
         <v>198</v>
       </c>
       <c r="G7" s="9283"/>
-      <c r="H7" s="10552" t="s">
+      <c r="H7" s="10975" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="10561" t="s">
-        <v>220</v>
-      </c>
-      <c r="J7" s="10570" t="s">
-        <v>221</v>
+      <c r="I7" s="10984" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="10993" t="s">
+        <v>201</v>
       </c>
       <c r="K7"/>
-      <c r="L7" t="s" s="10579">
+      <c r="L7" t="s" s="11002">
         <v>370</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="10517" t="s">
+      <c r="C8" s="10940" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="10526" t="s">
+      <c r="D8" s="10949" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="10535" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="10544" t="s">
+      <c r="E8" s="10958" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="10967" t="s">
         <v>203</v>
       </c>
       <c r="G8" s="9284"/>
-      <c r="H8" s="10553" t="s">
+      <c r="H8" s="10976" t="s">
         <v>204</v>
       </c>
-      <c r="I8" s="10562" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" s="10571" t="s">
-        <v>216</v>
+      <c r="I8" s="10985" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="10994" t="s">
+        <v>206</v>
       </c>
       <c r="K8"/>
-      <c r="L8" t="s" s="10580">
+      <c r="L8" t="s" s="11003">
         <v>371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9"/>
-      <c r="C9" s="10518" t="s">
+      <c r="C9" s="10941" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="10527" t="s">
+      <c r="D9" s="10950" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="10536" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="10545" t="s">
+      <c r="E9" s="10959" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="10968" t="s">
         <v>208</v>
       </c>
       <c r="G9" s="9285"/>
-      <c r="H9" s="10554" t="s">
+      <c r="H9" s="10977" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="10563" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="10572" t="s">
-        <v>206</v>
+      <c r="I9" s="10986" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="10995" t="s">
+        <v>211</v>
       </c>
       <c r="K9"/>
-      <c r="L9" t="s" s="10581">
+      <c r="L9" t="s" s="11004">
         <v>372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24"/>
       <c r="B10"/>
-      <c r="C10" s="10519" t="s">
+      <c r="C10" s="10942" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="10528" t="s">
+      <c r="D10" s="10951" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="10537" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="10546" t="s">
+      <c r="E10" s="10960" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="10969" t="s">
         <v>213</v>
       </c>
       <c r="G10" s="9286"/>
-      <c r="H10" s="10555" t="s">
+      <c r="H10" s="10978" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="10564" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" s="10573" t="s">
-        <v>196</v>
+      <c r="I10" s="10987" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="10996" t="s">
+        <v>216</v>
       </c>
       <c r="K10"/>
-      <c r="L10" t="s" s="10582">
+      <c r="L10" t="s" s="11005">
         <v>373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="24"/>
       <c r="B11"/>
-      <c r="C11" s="10520" t="s">
+      <c r="C11" s="10943" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="10529" t="s">
+      <c r="D11" s="10952" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="10538" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="10547" t="s">
+      <c r="E11" s="10961" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="10970" t="s">
         <v>218</v>
       </c>
       <c r="G11" s="9287"/>
-      <c r="H11" s="10556" t="s">
+      <c r="H11" s="10979" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="10565" t="s">
-        <v>200</v>
-      </c>
-      <c r="J11" s="10574" t="s">
-        <v>201</v>
+      <c r="I11" s="10988" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" s="10997" t="s">
+        <v>221</v>
       </c>
       <c r="K11"/>
-      <c r="L11" t="s" s="10583">
+      <c r="L11" t="s" s="11006">
         <v>374</v>
       </c>
     </row>
@@ -45238,32 +46507,32 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3"/>
-      <c r="C3" s="10584" t="s">
+      <c r="C3" s="11007" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10590" t="s">
+      <c r="D3" s="11013" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="10596" t="s">
+      <c r="E3" s="11019" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="10602" t="s">
+      <c r="F3" s="11025" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="10608" t="s">
+      <c r="G3" s="11031" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="10614" t="s">
+      <c r="H3" s="11037" t="s">
         <v>375</v>
       </c>
       <c r="I3" s="9351"/>
-      <c r="J3" s="10620" t="s">
+      <c r="J3" s="11043" t="s">
         <v>381</v>
       </c>
-      <c r="K3" s="10626" t="s">
+      <c r="K3" s="11049" t="s">
         <v>228</v>
       </c>
-      <c r="L3" t="s" s="10632">
+      <c r="L3" t="s" s="11055">
         <v>387</v>
       </c>
       <c r="U3" s="9"/>
@@ -45279,32 +46548,32 @@
     <row r="4">
       <c r="A4" s="24"/>
       <c r="B4"/>
-      <c r="C4" s="10585" t="s">
+      <c r="C4" s="11008" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10591" t="s">
+      <c r="D4" s="11014" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="10597" t="s">
+      <c r="E4" s="11020" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="10603" t="s">
+      <c r="F4" s="11026" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="10609" t="s">
+      <c r="G4" s="11032" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="10615" t="s">
+      <c r="H4" s="11038" t="s">
         <v>376</v>
       </c>
       <c r="I4" s="9352"/>
-      <c r="J4" s="10621" t="s">
+      <c r="J4" s="11044" t="s">
         <v>382</v>
       </c>
-      <c r="K4" s="10627" t="s">
+      <c r="K4" s="11050" t="s">
         <v>233</v>
       </c>
-      <c r="L4" t="s" s="10633">
+      <c r="L4" t="s" s="11056">
         <v>388</v>
       </c>
       <c r="U4" s="9"/>
@@ -45320,32 +46589,32 @@
     <row r="5">
       <c r="A5" s="24"/>
       <c r="B5"/>
-      <c r="C5" s="10586" t="s">
+      <c r="C5" s="11009" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10592" t="s">
+      <c r="D5" s="11015" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="10598" t="s">
+      <c r="E5" s="11021" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="10604" t="s">
+      <c r="F5" s="11027" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="10610" t="s">
-        <v>239</v>
-      </c>
-      <c r="H5" s="10616" t="s">
+      <c r="G5" s="11033" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="11039" t="s">
         <v>377</v>
       </c>
       <c r="I5" s="9353"/>
-      <c r="J5" s="10622" t="s">
+      <c r="J5" s="11045" t="s">
         <v>383</v>
       </c>
-      <c r="K5" s="10628" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" t="s" s="10634">
+      <c r="K5" s="11051" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" t="s" s="11057">
         <v>389</v>
       </c>
       <c r="U5" s="9"/>
@@ -45361,32 +46630,32 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6"/>
-      <c r="C6" s="10587" t="s">
+      <c r="C6" s="11010" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10593" t="s">
+      <c r="D6" s="11016" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="10599" t="s">
+      <c r="E6" s="11022" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="10605" t="s">
+      <c r="F6" s="11028" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="10611" t="s">
+      <c r="G6" s="11034" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="10617" t="s">
+      <c r="H6" s="11040" t="s">
         <v>378</v>
       </c>
       <c r="I6" s="9354"/>
-      <c r="J6" s="10623" t="s">
+      <c r="J6" s="11046" t="s">
         <v>384</v>
       </c>
-      <c r="K6" s="10629" t="s">
+      <c r="K6" s="11052" t="s">
         <v>233</v>
       </c>
-      <c r="L6" t="s" s="10635">
+      <c r="L6" t="s" s="11058">
         <v>390</v>
       </c>
       <c r="U6" s="9"/>
@@ -45402,32 +46671,32 @@
     <row r="7">
       <c r="A7" s="24"/>
       <c r="B7"/>
-      <c r="C7" s="10588" t="s">
+      <c r="C7" s="11011" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10594" t="s">
+      <c r="D7" s="11017" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="10600" t="s">
+      <c r="E7" s="11023" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="10606" t="s">
+      <c r="F7" s="11029" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="10612" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" s="10618" t="s">
+      <c r="G7" s="11035" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="11041" t="s">
         <v>379</v>
       </c>
       <c r="I7" s="9355"/>
-      <c r="J7" s="10624" t="s">
+      <c r="J7" s="11047" t="s">
         <v>385</v>
       </c>
-      <c r="K7" s="10630" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" t="s" s="10636">
+      <c r="K7" s="11053" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" t="s" s="11059">
         <v>391</v>
       </c>
       <c r="U7" s="9"/>
@@ -45443,32 +46712,32 @@
     <row r="8">
       <c r="A8" s="24"/>
       <c r="B8"/>
-      <c r="C8" s="10589" t="s">
+      <c r="C8" s="11012" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10595" t="s">
+      <c r="D8" s="11018" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="10601" t="s">
+      <c r="E8" s="11024" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="10607" t="s">
+      <c r="F8" s="11030" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="10613" t="s">
+      <c r="G8" s="11036" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="10619" t="s">
+      <c r="H8" s="11042" t="s">
         <v>380</v>
       </c>
       <c r="I8" s="9356"/>
-      <c r="J8" s="10625" t="s">
+      <c r="J8" s="11048" t="s">
         <v>386</v>
       </c>
-      <c r="K8" s="10631" t="s">
+      <c r="K8" s="11054" t="s">
         <v>233</v>
       </c>
-      <c r="L8" t="s" s="10637">
+      <c r="L8" t="s" s="11060">
         <v>392</v>
       </c>
       <c r="U8" s="9"/>

--- a/meta/teaching-materials.xlsx
+++ b/meta/teaching-materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/assumptionsMatter_femalesSing_math/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18C3B2-FD72-A04A-BF93-40BFBAE7DDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553E54F-7F92-2543-A5C1-D67679C867EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33180" yWindow="1260" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsrcSumm" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,34 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>======
-ID#AAAAIbMHZn8
-    (2021-05-10 01:43:14)
-cloudinary or other CDN link for fast download</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAIbMHZn8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">    (2021-05-10 01:43:14)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>cloudinary or other CDN link for fast download</t>
         </r>
       </text>
     </comment>
@@ -328,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="378">
   <si>
     <t>Summary of Teaching Resources for Classroom &amp; Remote</t>
   </si>
@@ -1476,6 +1500,9 @@
   </si>
   <si>
     <t>(Optional) TEACHER Handout for Table 2 (P3)</t>
+  </si>
+  <si>
+    <t>https://catalog.galacticpolymath.com/Lessons/assumptionsMatter_femalesSing_math/Sing_P3_Table 2_TEACHER.docx</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1656,6 +1683,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto Mono"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1788,7 +1827,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2630">
+  <cellXfs count="1376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3280,18 +3319,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3309,3768 +3336,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borde